--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8A67C93C-E33B-4BC3-A0A3-824A79BAB2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{405C4B50-1A41-4C90-9FBB-99053C83E179}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8A67C93C-E33B-4BC3-A0A3-824A79BAB2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05FA54D-23E7-472A-901F-95E6000CFAF7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="208">
   <si>
     <t>Curso</t>
   </si>
@@ -615,6 +615,78 @@
   </si>
   <si>
     <t>Semi Presencial Atual</t>
+  </si>
+  <si>
+    <t>Agronomia</t>
+  </si>
+  <si>
+    <t>Presencial 70.30</t>
+  </si>
+  <si>
+    <t>Engenharia Agronômica</t>
+  </si>
+  <si>
+    <t>Geologia</t>
+  </si>
+  <si>
+    <t>Medicina Veterinária</t>
+  </si>
+  <si>
+    <t>Zootecnia</t>
+  </si>
+  <si>
+    <t>Psicologia</t>
+  </si>
+  <si>
+    <t>Arquitetura e Urbanismo</t>
+  </si>
+  <si>
+    <t>Engenharia Ambiental</t>
+  </si>
+  <si>
+    <t>Engenharia Biomédica</t>
+  </si>
+  <si>
+    <t>Engenharia Civil</t>
+  </si>
+  <si>
+    <t>Engenharia da Computação</t>
+  </si>
+  <si>
+    <t>Engenharia de Controle e Automação</t>
+  </si>
+  <si>
+    <t>Engenharia de Minas</t>
+  </si>
+  <si>
+    <t>Engenharia de Produção</t>
+  </si>
+  <si>
+    <t>Engenharia Elétrica</t>
+  </si>
+  <si>
+    <t>Engenharia Eletrônica</t>
+  </si>
+  <si>
+    <t>Engenharia Mecânica</t>
+  </si>
+  <si>
+    <t>Engenharia Química</t>
+  </si>
+  <si>
+    <t>Direito</t>
+  </si>
+  <si>
+    <t>Enfermagem</t>
+  </si>
+  <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
+    <t>Fisioterapia</t>
+  </si>
+  <si>
+    <t>Odontologia</t>
   </si>
 </sst>
 </file>
@@ -691,10 +763,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -716,8 +788,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:H294" totalsRowShown="0">
-  <autoFilter ref="A1:H294" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:H317" totalsRowShown="0">
+  <autoFilter ref="A1:H317" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1C3EB8FD-88C3-4644-8FDA-63FC1E06BDDC}" name="Curso"/>
     <tableColumn id="2" xr3:uid="{58A71AE1-AF10-420D-88B1-FFABB3A68D7F}" name="Modelo"/>
@@ -738,13 +810,13 @@
 0%
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C1C00DF4-247D-4E37-AA0A-CE647B0D4E86}" name="Modelo Macro" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{C1C00DF4-247D-4E37-AA0A-CE647B0D4E86}" name="Modelo Macro" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0368E49D-2130-4970-9934-7FDAAAD7F9D7}" name="Chave" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{0368E49D-2130-4970-9934-7FDAAAD7F9D7}" name="Chave" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(A2,F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1C6E0A73-90EC-437A-8675-16B6DE8A920A}" name="Ticket" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{1C6E0A73-90EC-437A-8675-16B6DE8A920A}" name="Ticket" dataDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1015,9 +1087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11003,7 +11077,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G238" s="9" t="str">
-        <f>CONCATENATE(A238,F238)</f>
+        <f t="shared" ref="G238:G268" si="4">CONCATENATE(A238,F238)</f>
         <v>ADMINISTRAÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H238" s="10">
@@ -11045,7 +11119,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G239" s="9" t="str">
-        <f>CONCATENATE(A239,F239)</f>
+        <f t="shared" si="4"/>
         <v>ANÁLISE E DESENVOLVIMENTO DE SISTEMASSEMIPRESENCIAL</v>
       </c>
       <c r="H239" s="10">
@@ -11087,7 +11161,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G240" s="9" t="str">
-        <f>CONCATENATE(A240,F240)</f>
+        <f t="shared" si="4"/>
         <v>ARQUITETURA E URBANISMOSEMIPRESENCIAL</v>
       </c>
       <c r="H240" s="10">
@@ -11129,7 +11203,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G241" s="9" t="str">
-        <f>CONCATENATE(A241,F241)</f>
+        <f t="shared" si="4"/>
         <v>BIG DATA E INTELIGÊNCIA ANALÍTICASEMIPRESENCIAL</v>
       </c>
       <c r="H241" s="10">
@@ -11171,7 +11245,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G242" s="9" t="str">
-        <f>CONCATENATE(A242,F242)</f>
+        <f t="shared" si="4"/>
         <v>BIOMEDICINASEMIPRESENCIAL</v>
       </c>
       <c r="H242" s="10">
@@ -11213,7 +11287,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G243" s="9" t="str">
-        <f>CONCATENATE(A243,F243)</f>
+        <f t="shared" si="4"/>
         <v>CIÊNCIA DA COMPUTAÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H243" s="10">
@@ -11255,7 +11329,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G244" s="9" t="str">
-        <f>CONCATENATE(A244,F244)</f>
+        <f t="shared" si="4"/>
         <v>CIÊNCIA DE DADOSSEMIPRESENCIAL</v>
       </c>
       <c r="H244" s="10">
@@ -11297,7 +11371,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G245" s="9" t="str">
-        <f>CONCATENATE(A245,F245)</f>
+        <f t="shared" si="4"/>
         <v>CIÊNCIAS BIOLÓGICASSEMIPRESENCIAL</v>
       </c>
       <c r="H245" s="10">
@@ -11339,7 +11413,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G246" s="9" t="str">
-        <f>CONCATENATE(A246,F246)</f>
+        <f t="shared" si="4"/>
         <v>CIÊNCIAS CONTÁBEISSEMIPRESENCIAL</v>
       </c>
       <c r="H246" s="10">
@@ -11381,7 +11455,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G247" s="9" t="str">
-        <f>CONCATENATE(A247,F247)</f>
+        <f t="shared" si="4"/>
         <v>CIÊNCIAS ECONÔMICASSEMIPRESENCIAL</v>
       </c>
       <c r="H247" s="10">
@@ -11423,7 +11497,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G248" s="9" t="str">
-        <f>CONCATENATE(A248,F248)</f>
+        <f t="shared" si="4"/>
         <v>COMÉRCIO EXTERIORSEMIPRESENCIAL</v>
       </c>
       <c r="H248" s="10">
@@ -11465,7 +11539,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G249" s="9" t="str">
-        <f>CONCATENATE(A249,F249)</f>
+        <f t="shared" si="4"/>
         <v>COMUNICAÇÃO E INTELIGÊNCIA DE MERCADOSEMIPRESENCIAL</v>
       </c>
       <c r="H249" s="10">
@@ -11507,7 +11581,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G250" s="9" t="str">
-        <f>CONCATENATE(A250,F250)</f>
+        <f t="shared" si="4"/>
         <v>COMUNICAÇÃO E MARKETINGSEMIPRESENCIAL</v>
       </c>
       <c r="H250" s="10">
@@ -11549,7 +11623,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G251" s="9" t="str">
-        <f>CONCATENATE(A251,F251)</f>
+        <f t="shared" si="4"/>
         <v>DESIGNSEMIPRESENCIAL</v>
       </c>
       <c r="H251" s="10">
@@ -11591,7 +11665,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G252" s="9" t="str">
-        <f>CONCATENATE(A252,F252)</f>
+        <f t="shared" si="4"/>
         <v>DESIGN DE INTERIORESSEMIPRESENCIAL</v>
       </c>
       <c r="H252" s="10">
@@ -11633,7 +11707,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G253" s="9" t="str">
-        <f>CONCATENATE(A253,F253)</f>
+        <f t="shared" si="4"/>
         <v>DESIGN DE MODASEMIPRESENCIAL</v>
       </c>
       <c r="H253" s="10">
@@ -11675,7 +11749,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G254" s="9" t="str">
-        <f>CONCATENATE(A254,F254)</f>
+        <f t="shared" si="4"/>
         <v>DESIGN GRÁFICOSEMIPRESENCIAL</v>
       </c>
       <c r="H254" s="10">
@@ -11717,7 +11791,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G255" s="9" t="str">
-        <f>CONCATENATE(A255,F255)</f>
+        <f t="shared" si="4"/>
         <v>EDUCAÇÃO FÍSICASEMIPRESENCIAL</v>
       </c>
       <c r="H255" s="10">
@@ -11759,7 +11833,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G256" s="9" t="str">
-        <f>CONCATENATE(A256,F256)</f>
+        <f t="shared" si="4"/>
         <v>ENFERMAGEMSEMIPRESENCIAL</v>
       </c>
       <c r="H256" s="10">
@@ -11801,7 +11875,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G257" s="9" t="str">
-        <f>CONCATENATE(A257,F257)</f>
+        <f t="shared" si="4"/>
         <v>ENGENHARIA CIVILSEMIPRESENCIAL</v>
       </c>
       <c r="H257" s="10">
@@ -11843,7 +11917,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G258" s="9" t="str">
-        <f>CONCATENATE(A258,F258)</f>
+        <f t="shared" si="4"/>
         <v>ENGENHARIA DA COMPUTAÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H258" s="10">
@@ -11885,7 +11959,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G259" s="9" t="str">
-        <f>CONCATENATE(A259,F259)</f>
+        <f t="shared" si="4"/>
         <v>ENGENHARIA DE CONTROLE E AUTOMAÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H259" s="10">
@@ -11927,7 +12001,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G260" s="9" t="str">
-        <f>CONCATENATE(A260,F260)</f>
+        <f t="shared" si="4"/>
         <v>ENGENHARIA DE PRODUÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H260" s="10">
@@ -11969,7 +12043,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G261" s="9" t="str">
-        <f>CONCATENATE(A261,F261)</f>
+        <f t="shared" si="4"/>
         <v>ENGENHARIA ELÉTRICASEMIPRESENCIAL</v>
       </c>
       <c r="H261" s="10">
@@ -12011,7 +12085,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G262" s="9" t="str">
-        <f>CONCATENATE(A262,F262)</f>
+        <f t="shared" si="4"/>
         <v>ENGENHARIA MECÂNICASEMIPRESENCIAL</v>
       </c>
       <c r="H262" s="10">
@@ -12053,7 +12127,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G263" s="9" t="str">
-        <f>CONCATENATE(A263,F263)</f>
+        <f t="shared" si="4"/>
         <v>ESTÉTICA E COSMÉTICASEMIPRESENCIAL</v>
       </c>
       <c r="H263" s="10">
@@ -12095,7 +12169,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G264" s="9" t="str">
-        <f>CONCATENATE(A264,F264)</f>
+        <f t="shared" si="4"/>
         <v>EVENTOSSEMIPRESENCIAL</v>
       </c>
       <c r="H264" s="10">
@@ -12137,7 +12211,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G265" s="9" t="str">
-        <f>CONCATENATE(A265,F265)</f>
+        <f t="shared" si="4"/>
         <v>FARMÁCIASEMIPRESENCIAL</v>
       </c>
       <c r="H265" s="10">
@@ -12179,7 +12253,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G266" s="9" t="str">
-        <f>CONCATENATE(A266,F266)</f>
+        <f t="shared" si="4"/>
         <v>FISIOTERAPIASEMIPRESENCIAL</v>
       </c>
       <c r="H266" s="10">
@@ -12221,7 +12295,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G267" s="9" t="str">
-        <f>CONCATENATE(A267,F267)</f>
+        <f t="shared" si="4"/>
         <v>FONOAUDIOLOGIASEMIPRESENCIAL</v>
       </c>
       <c r="H267" s="10">
@@ -12263,7 +12337,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G268" s="9" t="str">
-        <f>CONCATENATE(A268,F268)</f>
+        <f t="shared" si="4"/>
         <v>GASTRONOMIASEMIPRESENCIAL</v>
       </c>
       <c r="H268" s="10">
@@ -12305,7 +12379,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G269" s="9" t="str">
-        <f t="shared" ref="G269:G270" si="4">CONCATENATE(A269,F269)</f>
+        <f t="shared" ref="G269:G270" si="5">CONCATENATE(A269,F269)</f>
         <v>GESTÃO COMERCIALSEMIPRESENCIAL</v>
       </c>
       <c r="H269" s="10">
@@ -12347,7 +12421,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G270" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GESTÃO DA INOVAÇÃO E EMPREENDEDORISMO DIGITALSEMIPRESENCIAL</v>
       </c>
       <c r="H270" s="10">
@@ -12431,7 +12505,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G272" s="9" t="str">
-        <f t="shared" ref="G272:G273" si="5">CONCATENATE(A272,F272)</f>
+        <f t="shared" ref="G272:G273" si="6">CONCATENATE(A272,F272)</f>
         <v>GESTÃO DA TECNOLOGIA DA INFORMAÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H272" s="10">
@@ -12473,7 +12547,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G273" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GESTÃO DE NEGÓCIOS DIGITAISSEMIPRESENCIAL</v>
       </c>
       <c r="H273" s="10">
@@ -12557,7 +12631,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G275" s="9" t="str">
-        <f t="shared" ref="G275:G276" si="6">CONCATENATE(A275,F275)</f>
+        <f t="shared" ref="G275:G276" si="7">CONCATENATE(A275,F275)</f>
         <v>GESTÃO FINANCEIRASEMIPRESENCIAL</v>
       </c>
       <c r="H275" s="10">
@@ -12599,7 +12673,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G276" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>GESTÃO HOSPITALARSEMIPRESENCIAL</v>
       </c>
       <c r="H276" s="10">
@@ -12641,7 +12715,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G277" s="9" t="str">
-        <f>CONCATENATE(A277,F277)</f>
+        <f t="shared" ref="G277:G290" si="8">CONCATENATE(A277,F277)</f>
         <v>GESTÃO PÚBLICASEMIPRESENCIAL</v>
       </c>
       <c r="H277" s="10">
@@ -12683,7 +12757,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G278" s="9" t="str">
-        <f>CONCATENATE(A278,F278)</f>
+        <f t="shared" si="8"/>
         <v>HISTÓRIASEMIPRESENCIAL</v>
       </c>
       <c r="H278" s="10">
@@ -12725,7 +12799,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G279" s="9" t="str">
-        <f>CONCATENATE(A279,F279)</f>
+        <f t="shared" si="8"/>
         <v>JORNALISMOSEMIPRESENCIAL</v>
       </c>
       <c r="H279" s="10">
@@ -12767,7 +12841,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G280" s="9" t="str">
-        <f>CONCATENATE(A280,F280)</f>
+        <f t="shared" si="8"/>
         <v>LETRAS - PORTUGUÊSSEMIPRESENCIAL</v>
       </c>
       <c r="H280" s="10">
@@ -12809,7 +12883,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G281" s="9" t="str">
-        <f>CONCATENATE(A281,F281)</f>
+        <f t="shared" si="8"/>
         <v>LOGÍSTICASEMIPRESENCIAL</v>
       </c>
       <c r="H281" s="10">
@@ -12851,7 +12925,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G282" s="9" t="str">
-        <f>CONCATENATE(A282,F282)</f>
+        <f t="shared" si="8"/>
         <v>MARKETINGSEMIPRESENCIAL</v>
       </c>
       <c r="H282" s="10">
@@ -12893,7 +12967,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G283" s="9" t="str">
-        <f>CONCATENATE(A283,F283)</f>
+        <f t="shared" si="8"/>
         <v>MARKETING DIGITALSEMIPRESENCIAL</v>
       </c>
       <c r="H283" s="10">
@@ -12935,7 +13009,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G284" s="9" t="str">
-        <f>CONCATENATE(A284,F284)</f>
+        <f t="shared" si="8"/>
         <v>MEDIAÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H284" s="10">
@@ -12977,7 +13051,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G285" s="9" t="str">
-        <f>CONCATENATE(A285,F285)</f>
+        <f t="shared" si="8"/>
         <v>NUTRIÇÃOSEMIPRESENCIAL</v>
       </c>
       <c r="H285" s="10">
@@ -13019,7 +13093,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G286" s="9" t="str">
-        <f>CONCATENATE(A286,F286)</f>
+        <f t="shared" si="8"/>
         <v>PEDAGOGIASEMIPRESENCIAL</v>
       </c>
       <c r="H286" s="10">
@@ -13061,7 +13135,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G287" s="9" t="str">
-        <f>CONCATENATE(A287,F287)</f>
+        <f t="shared" si="8"/>
         <v>PROCESSOS GERENCIAISSEMIPRESENCIAL</v>
       </c>
       <c r="H287" s="10">
@@ -13103,7 +13177,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G288" s="9" t="str">
-        <f>CONCATENATE(A288,F288)</f>
+        <f t="shared" si="8"/>
         <v>PRODUÇÃO AUDIOVISUALSEMIPRESENCIAL</v>
       </c>
       <c r="H288" s="10">
@@ -13145,7 +13219,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G289" s="9" t="str">
-        <f>CONCATENATE(A289,F289)</f>
+        <f t="shared" si="8"/>
         <v>PUBLICIDADE E PROPAGANDASEMIPRESENCIAL</v>
       </c>
       <c r="H289" s="10">
@@ -13187,7 +13261,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G290" s="9" t="str">
-        <f>CONCATENATE(A290,F290)</f>
+        <f t="shared" si="8"/>
         <v>REDES DE COMPUTADORESSEMIPRESENCIAL</v>
       </c>
       <c r="H290" s="10">
@@ -13229,7 +13303,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G291" s="9" t="str">
-        <f t="shared" ref="G291:G292" si="7">CONCATENATE(A291,F291)</f>
+        <f t="shared" ref="G291:G292" si="9">CONCATENATE(A291,F291)</f>
         <v>SEGURANÇA PRIVADASEMIPRESENCIAL</v>
       </c>
       <c r="H291" s="10">
@@ -13271,7 +13345,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G292" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>SEGURANÇA PÚBLICASEMIPRESENCIAL</v>
       </c>
       <c r="H292" s="10">
@@ -13361,6 +13435,972 @@
       <c r="H294" s="10">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
         <v>658.02020000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>184</v>
+      </c>
+      <c r="B295" t="s">
+        <v>185</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" cm="1">
+        <f t="array" ref="E295">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F295" s="9" t="str" cm="1">
+        <f t="array" ref="F295">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G295" s="9" t="str">
+        <f t="shared" ref="G295:G317" si="10">CONCATENATE(A295,F295)</f>
+        <v>AgronomiaPRESENCIAL</v>
+      </c>
+      <c r="H295" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1076.3702000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>186</v>
+      </c>
+      <c r="B296" t="s">
+        <v>185</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" cm="1">
+        <f t="array" ref="E296">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F296" s="9" t="str" cm="1">
+        <f t="array" ref="F296">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G296" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia AgronômicaPRESENCIAL</v>
+      </c>
+      <c r="H296" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>812.96979999999996</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>187</v>
+      </c>
+      <c r="B297" t="s">
+        <v>185</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" cm="1">
+        <f t="array" ref="E297">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F297" s="9" t="str" cm="1">
+        <f t="array" ref="F297">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G297" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>GeologiaPRESENCIAL</v>
+      </c>
+      <c r="H297" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1613.0329999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>188</v>
+      </c>
+      <c r="B298" t="s">
+        <v>185</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" cm="1">
+        <f t="array" ref="E298">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F298" s="9" t="str" cm="1">
+        <f t="array" ref="F298">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G298" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Medicina VeterináriaPRESENCIAL</v>
+      </c>
+      <c r="H298" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1527.9281000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>189</v>
+      </c>
+      <c r="B299" t="s">
+        <v>185</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" cm="1">
+        <f t="array" ref="E299">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F299" s="9" t="str" cm="1">
+        <f t="array" ref="F299">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G299" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>ZootecniaPRESENCIAL</v>
+      </c>
+      <c r="H299" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>512.71429999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>190</v>
+      </c>
+      <c r="B300" t="s">
+        <v>185</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" cm="1">
+        <f t="array" ref="E300">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F300" s="9" t="str" cm="1">
+        <f t="array" ref="F300">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G300" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>PsicologiaPRESENCIAL</v>
+      </c>
+      <c r="H300" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>880.95180000000005</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>191</v>
+      </c>
+      <c r="B301" t="s">
+        <v>185</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E301" cm="1">
+        <f t="array" ref="E301">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F301" s="9" t="str" cm="1">
+        <f t="array" ref="F301">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G301" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Arquitetura e UrbanismoPRESENCIAL</v>
+      </c>
+      <c r="H301" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1041.6174000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>192</v>
+      </c>
+      <c r="B302" t="s">
+        <v>185</v>
+      </c>
+      <c r="C302">
+        <v>10</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" cm="1">
+        <f t="array" ref="E302">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F302" s="9" t="str" cm="1">
+        <f t="array" ref="F302">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G302" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia AmbientalPRESENCIAL</v>
+      </c>
+      <c r="H302" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1092.8425999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>193</v>
+      </c>
+      <c r="B303" t="s">
+        <v>185</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" cm="1">
+        <f t="array" ref="E303">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F303" s="9" t="str" cm="1">
+        <f t="array" ref="F303">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G303" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia BiomédicaPRESENCIAL</v>
+      </c>
+      <c r="H303" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1140.5479</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>194</v>
+      </c>
+      <c r="B304" t="s">
+        <v>185</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" cm="1">
+        <f t="array" ref="E304">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F304" s="9" t="str" cm="1">
+        <f t="array" ref="F304">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G304" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia CivilPRESENCIAL</v>
+      </c>
+      <c r="H304" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>902.34969999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>195</v>
+      </c>
+      <c r="B305" t="s">
+        <v>185</v>
+      </c>
+      <c r="C305">
+        <v>10</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" cm="1">
+        <f t="array" ref="E305">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F305" s="9" t="str" cm="1">
+        <f t="array" ref="F305">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G305" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia da ComputaçãoPRESENCIAL</v>
+      </c>
+      <c r="H305" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>962.697</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>196</v>
+      </c>
+      <c r="B306" t="s">
+        <v>185</v>
+      </c>
+      <c r="C306">
+        <v>10</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" cm="1">
+        <f t="array" ref="E306">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F306" s="9" t="str" cm="1">
+        <f t="array" ref="F306">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G306" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia de Controle e AutomaçãoPRESENCIAL</v>
+      </c>
+      <c r="H306" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>976.48850000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>197</v>
+      </c>
+      <c r="B307" t="s">
+        <v>185</v>
+      </c>
+      <c r="C307">
+        <v>10</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" cm="1">
+        <f t="array" ref="E307">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F307" s="9" t="str" cm="1">
+        <f t="array" ref="F307">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G307" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia de MinasPRESENCIAL</v>
+      </c>
+      <c r="H307" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1156.7944</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>198</v>
+      </c>
+      <c r="B308" t="s">
+        <v>185</v>
+      </c>
+      <c r="C308">
+        <v>10</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" cm="1">
+        <f t="array" ref="E308">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F308" s="9" t="str" cm="1">
+        <f t="array" ref="F308">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G308" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia de ProduçãoPRESENCIAL</v>
+      </c>
+      <c r="H308" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>857.34479999999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>199</v>
+      </c>
+      <c r="B309" t="s">
+        <v>185</v>
+      </c>
+      <c r="C309">
+        <v>10</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" cm="1">
+        <f t="array" ref="E309">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F309" s="9" t="str" cm="1">
+        <f t="array" ref="F309">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G309" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia ElétricaPRESENCIAL</v>
+      </c>
+      <c r="H309" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>921.79759999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>200</v>
+      </c>
+      <c r="B310" t="s">
+        <v>185</v>
+      </c>
+      <c r="C310">
+        <v>10</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" cm="1">
+        <f t="array" ref="E310">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F310" s="9" t="str" cm="1">
+        <f t="array" ref="F310">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G310" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia EletrônicaPRESENCIAL</v>
+      </c>
+      <c r="H310" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1205.5952</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>201</v>
+      </c>
+      <c r="B311" t="s">
+        <v>185</v>
+      </c>
+      <c r="C311">
+        <v>10</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" cm="1">
+        <f t="array" ref="E311">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F311" s="9" t="str" cm="1">
+        <f t="array" ref="F311">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G311" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia MecânicaPRESENCIAL</v>
+      </c>
+      <c r="H311" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1019.4668</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>202</v>
+      </c>
+      <c r="B312" t="s">
+        <v>185</v>
+      </c>
+      <c r="C312">
+        <v>10</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" cm="1">
+        <f t="array" ref="E312">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F312" s="9" t="str" cm="1">
+        <f t="array" ref="F312">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G312" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>Engenharia QuímicaPRESENCIAL</v>
+      </c>
+      <c r="H312" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>943.64260000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>203</v>
+      </c>
+      <c r="B313" t="s">
+        <v>185</v>
+      </c>
+      <c r="C313">
+        <v>10</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" cm="1">
+        <f t="array" ref="E313">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F313" s="9" t="str" cm="1">
+        <f t="array" ref="F313">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G313" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>DireitoPRESENCIAL</v>
+      </c>
+      <c r="H313" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>945.57870000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>204</v>
+      </c>
+      <c r="B314" t="s">
+        <v>185</v>
+      </c>
+      <c r="C314">
+        <v>10</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" cm="1">
+        <f t="array" ref="E314">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F314" s="9" t="str" cm="1">
+        <f t="array" ref="F314">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G314" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>EnfermagemPRESENCIAL</v>
+      </c>
+      <c r="H314" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>801.4932</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>205</v>
+      </c>
+      <c r="B315" t="s">
+        <v>185</v>
+      </c>
+      <c r="C315">
+        <v>10</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E315" cm="1">
+        <f t="array" ref="E315">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F315" s="9" t="str" cm="1">
+        <f t="array" ref="F315">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G315" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>FarmáciaPRESENCIAL</v>
+      </c>
+      <c r="H315" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>802.70849999999996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>206</v>
+      </c>
+      <c r="B316" t="s">
+        <v>185</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" cm="1">
+        <f t="array" ref="E316">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F316" s="9" t="str" cm="1">
+        <f t="array" ref="F316">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G316" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>FisioterapiaPRESENCIAL</v>
+      </c>
+      <c r="H316" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>849.33</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>207</v>
+      </c>
+      <c r="B317" t="s">
+        <v>185</v>
+      </c>
+      <c r="C317">
+        <v>10</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E317" cm="1">
+        <f t="array" ref="E317">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F317" s="9" t="str" cm="1">
+        <f t="array" ref="F317">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <v>PRESENCIAL</v>
+      </c>
+      <c r="G317" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v>OdontologiaPRESENCIAL</v>
+      </c>
+      <c r="H317" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>1544.4775999999999</v>
       </c>
     </row>
   </sheetData>

--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeducacao-my.sharepoint.com/personal/kaique_yuto_animaeducacao_com_br/Documents/Projetos/Novo Modelo Acadêmico/databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8A67C93C-E33B-4BC3-A0A3-824A79BAB2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05FA54D-23E7-472A-901F-95E6000CFAF7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8A67C93C-E33B-4BC3-A0A3-824A79BAB2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9109447-76A1-40AD-B5DC-8DC2A12E0412}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="209">
   <si>
     <t>Curso</t>
   </si>
@@ -688,6 +688,9 @@
   <si>
     <t>Odontologia</t>
   </si>
+  <si>
+    <t>EAD Atual</t>
+  </si>
 </sst>
 </file>
 
@@ -763,10 +766,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -788,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:H317" totalsRowShown="0">
-  <autoFilter ref="A1:H317" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:H364" totalsRowShown="0">
+  <autoFilter ref="A1:H364" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1C3EB8FD-88C3-4644-8FDA-63FC1E06BDDC}" name="Curso"/>
     <tableColumn id="2" xr3:uid="{58A71AE1-AF10-420D-88B1-FFABB3A68D7F}" name="Modelo"/>
@@ -810,13 +813,13 @@
 0%
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C1C00DF4-247D-4E37-AA0A-CE647B0D4E86}" name="Modelo Macro" dataDxfId="2">
-      <calculatedColumnFormula array="1">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{C1C00DF4-247D-4E37-AA0A-CE647B0D4E86}" name="Modelo Macro" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0368E49D-2130-4970-9934-7FDAAAD7F9D7}" name="Chave" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{0368E49D-2130-4970-9934-7FDAAAD7F9D7}" name="Chave" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(A2,F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1C6E0A73-90EC-437A-8675-16B6DE8A920A}" name="Ticket" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{1C6E0A73-90EC-437A-8675-16B6DE8A920A}" name="Ticket" dataDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1087,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H317"/>
+  <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E293" sqref="E281:E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1164,7 @@
         <v>0.6</v>
       </c>
       <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F2">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G2" t="str">
@@ -1203,7 +1206,7 @@
         <v>0.6</v>
       </c>
       <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F3">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G3" t="str">
@@ -1245,7 +1248,7 @@
         <v>0.25</v>
       </c>
       <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F4">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G4" t="str">
@@ -1287,7 +1290,7 @@
         <v>0.7</v>
       </c>
       <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F5">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G5" t="str">
@@ -1329,7 +1332,7 @@
         <v>0.7</v>
       </c>
       <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F6">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G6" t="str">
@@ -1371,7 +1374,7 @@
         <v>0.65</v>
       </c>
       <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F7">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G7" t="str">
@@ -1413,7 +1416,7 @@
         <v>0.65</v>
       </c>
       <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F8">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G8" t="str">
@@ -1455,7 +1458,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F9">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G9" t="str">
@@ -1497,7 +1500,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F10">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G10" t="str">
@@ -1539,7 +1542,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F11">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G11" t="str">
@@ -1581,7 +1584,7 @@
         <v>0.7</v>
       </c>
       <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F12">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G12" t="str">
@@ -1623,7 +1626,7 @@
         <v>0.7</v>
       </c>
       <c r="F13" t="str" cm="1">
-        <f t="array" ref="F13">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F13">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G13" t="str">
@@ -1665,7 +1668,7 @@
         <v>0.7</v>
       </c>
       <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F14">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G14" t="str">
@@ -1707,7 +1710,7 @@
         <v>0.7</v>
       </c>
       <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F15">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G15" t="str">
@@ -1749,7 +1752,7 @@
         <v>0.7</v>
       </c>
       <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F16">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G16" t="str">
@@ -1791,7 +1794,7 @@
         <v>0.7</v>
       </c>
       <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F17">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G17" t="str">
@@ -1833,7 +1836,7 @@
         <v>0.3</v>
       </c>
       <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F18">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G18" t="str">
@@ -1875,7 +1878,7 @@
         <v>0.7</v>
       </c>
       <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F19">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G19" t="str">
@@ -1917,7 +1920,7 @@
         <v>0.7</v>
       </c>
       <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F20">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G20" t="str">
@@ -1959,7 +1962,7 @@
         <v>0.7</v>
       </c>
       <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F21">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G21" t="str">
@@ -2001,7 +2004,7 @@
         <v>0.7</v>
       </c>
       <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F22">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G22" t="str">
@@ -2043,7 +2046,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F23">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G23" t="str">
@@ -2085,7 +2088,7 @@
         <v>0.6</v>
       </c>
       <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F24">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G24" t="str">
@@ -2127,7 +2130,7 @@
         <v>0.6</v>
       </c>
       <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F25">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G25" t="str">
@@ -2169,7 +2172,7 @@
         <v>0.6</v>
       </c>
       <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F26">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G26" t="str">
@@ -2211,7 +2214,7 @@
         <v>0.6</v>
       </c>
       <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F27">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G27" t="str">
@@ -2253,7 +2256,7 @@
         <v>0.6</v>
       </c>
       <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F28">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G28" t="str">
@@ -2295,7 +2298,7 @@
         <v>0.6</v>
       </c>
       <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F29">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G29" t="str">
@@ -2337,7 +2340,7 @@
         <v>0.6</v>
       </c>
       <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F30">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G30" t="str">
@@ -2379,7 +2382,7 @@
         <v>0.65</v>
       </c>
       <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F31">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G31" t="str">
@@ -2421,7 +2424,7 @@
         <v>0.65</v>
       </c>
       <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F32">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G32" t="str">
@@ -2463,7 +2466,7 @@
         <v>0.6</v>
       </c>
       <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F33">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G33" t="str">
@@ -2505,7 +2508,7 @@
         <v>0.6</v>
       </c>
       <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F34">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G34" t="str">
@@ -2547,7 +2550,7 @@
         <v>0.6</v>
       </c>
       <c r="F35" t="str" cm="1">
-        <f t="array" ref="F35">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F35">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G35" t="str">
@@ -2589,7 +2592,7 @@
         <v>0.6</v>
       </c>
       <c r="F36" t="str" cm="1">
-        <f t="array" ref="F36">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F36">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G36" t="str">
@@ -2631,7 +2634,7 @@
         <v>0.7</v>
       </c>
       <c r="F37" t="str" cm="1">
-        <f t="array" ref="F37">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F37">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G37" t="str">
@@ -2673,7 +2676,7 @@
         <v>0.7</v>
       </c>
       <c r="F38" t="str" cm="1">
-        <f t="array" ref="F38">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F38">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G38" t="str">
@@ -2715,7 +2718,7 @@
         <v>0.6</v>
       </c>
       <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F39">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G39" t="str">
@@ -2757,7 +2760,7 @@
         <v>0.6</v>
       </c>
       <c r="F40" t="str" cm="1">
-        <f t="array" ref="F40">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F40">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G40" t="str">
@@ -2799,7 +2802,7 @@
         <v>0.6</v>
       </c>
       <c r="F41" t="str" cm="1">
-        <f t="array" ref="F41">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F41">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G41" t="str">
@@ -2841,7 +2844,7 @@
         <v>0.6</v>
       </c>
       <c r="F42" t="str" cm="1">
-        <f t="array" ref="F42">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F42">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G42" t="str">
@@ -2883,7 +2886,7 @@
         <v>0.45</v>
       </c>
       <c r="F43" t="str" cm="1">
-        <f t="array" ref="F43">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F43">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G43" t="str">
@@ -2925,7 +2928,7 @@
         <v>0.45</v>
       </c>
       <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F44">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G44" t="str">
@@ -2967,7 +2970,7 @@
         <v>0.6</v>
       </c>
       <c r="F45" t="str" cm="1">
-        <f t="array" ref="F45">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F45">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G45" t="str">
@@ -3009,7 +3012,7 @@
         <v>0.6</v>
       </c>
       <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F46">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G46" t="str">
@@ -3051,7 +3054,7 @@
         <v>0.65</v>
       </c>
       <c r="F47" t="str" cm="1">
-        <f t="array" ref="F47">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F47">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G47" t="str">
@@ -3093,7 +3096,7 @@
         <v>0.65</v>
       </c>
       <c r="F48" t="str" cm="1">
-        <f t="array" ref="F48">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F48">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G48" t="str">
@@ -3135,7 +3138,7 @@
         <v>0.65</v>
       </c>
       <c r="F49" t="str" cm="1">
-        <f t="array" ref="F49">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F49">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G49" t="str">
@@ -3177,7 +3180,7 @@
         <v>0.65</v>
       </c>
       <c r="F50" t="str" cm="1">
-        <f t="array" ref="F50">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F50">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G50" t="str">
@@ -3219,7 +3222,7 @@
         <v>0.65</v>
       </c>
       <c r="F51" t="str" cm="1">
-        <f t="array" ref="F51">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F51">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G51" t="str">
@@ -3261,7 +3264,7 @@
         <v>0.65</v>
       </c>
       <c r="F52" t="str" cm="1">
-        <f t="array" ref="F52">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F52">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G52" t="str">
@@ -3303,7 +3306,7 @@
         <v>0.65</v>
       </c>
       <c r="F53" t="str" cm="1">
-        <f t="array" ref="F53">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F53">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G53" t="str">
@@ -3345,7 +3348,7 @@
         <v>0.65</v>
       </c>
       <c r="F54" t="str" cm="1">
-        <f t="array" ref="F54">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F54">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G54" t="str">
@@ -3387,7 +3390,7 @@
         <v>0.65</v>
       </c>
       <c r="F55" t="str" cm="1">
-        <f t="array" ref="F55">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F55">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G55" t="str">
@@ -3429,7 +3432,7 @@
         <v>0.65</v>
       </c>
       <c r="F56" t="str" cm="1">
-        <f t="array" ref="F56">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F56">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G56" t="str">
@@ -3471,7 +3474,7 @@
         <v>0.65</v>
       </c>
       <c r="F57" t="str" cm="1">
-        <f t="array" ref="F57">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F57">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G57" t="str">
@@ -3513,7 +3516,7 @@
         <v>0.65</v>
       </c>
       <c r="F58" t="str" cm="1">
-        <f t="array" ref="F58">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F58">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G58" t="str">
@@ -3555,7 +3558,7 @@
         <v>0.65</v>
       </c>
       <c r="F59" t="str" cm="1">
-        <f t="array" ref="F59">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F59">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G59" t="str">
@@ -3597,7 +3600,7 @@
         <v>0.65</v>
       </c>
       <c r="F60" t="str" cm="1">
-        <f t="array" ref="F60">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F60">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G60" t="str">
@@ -3639,7 +3642,7 @@
         <v>0.65</v>
       </c>
       <c r="F61" t="str" cm="1">
-        <f t="array" ref="F61">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F61">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G61" t="str">
@@ -3681,7 +3684,7 @@
         <v>0.65</v>
       </c>
       <c r="F62" t="str" cm="1">
-        <f t="array" ref="F62">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F62">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G62" t="str">
@@ -3723,7 +3726,7 @@
         <v>0.65</v>
       </c>
       <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F63">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G63" t="str">
@@ -3765,7 +3768,7 @@
         <v>0.65</v>
       </c>
       <c r="F64" t="str" cm="1">
-        <f t="array" ref="F64">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F64">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G64" t="str">
@@ -3807,7 +3810,7 @@
         <v>0.6</v>
       </c>
       <c r="F65" t="str" cm="1">
-        <f t="array" ref="F65">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F65">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G65" t="str">
@@ -3849,7 +3852,7 @@
         <v>0.3</v>
       </c>
       <c r="F66" t="str" cm="1">
-        <f t="array" ref="F66">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F66">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G66" t="str">
@@ -3891,7 +3894,7 @@
         <v>0.3</v>
       </c>
       <c r="F67" t="str" cm="1">
-        <f t="array" ref="F67">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F67">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G67" t="str">
@@ -3933,7 +3936,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F68" t="str" cm="1">
-        <f t="array" ref="F68">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F68">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G68" t="str">
@@ -3975,7 +3978,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F69" t="str" cm="1">
-        <f t="array" ref="F69">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F69">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G69" t="str">
@@ -4017,7 +4020,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F70">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G70" t="str">
@@ -4059,7 +4062,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F71" t="str" cm="1">
-        <f t="array" ref="F71">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F71">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G71" t="str">
@@ -4101,7 +4104,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F72" t="str" cm="1">
-        <f t="array" ref="F72">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F72">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G72" t="str">
@@ -4143,7 +4146,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F73" t="str" cm="1">
-        <f t="array" ref="F73">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F73">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G73" t="str">
@@ -4185,7 +4188,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F74" t="str" cm="1">
-        <f t="array" ref="F74">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F74">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G74" t="str">
@@ -4227,7 +4230,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F75" t="str" cm="1">
-        <f t="array" ref="F75">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F75">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G75" t="str">
@@ -4269,7 +4272,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F76" t="str" cm="1">
-        <f t="array" ref="F76">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F76">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G76" t="str">
@@ -4311,7 +4314,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F77" t="str" cm="1">
-        <f t="array" ref="F77">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F77">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G77" t="str">
@@ -4353,7 +4356,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F78" t="str" cm="1">
-        <f t="array" ref="F78">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F78">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G78" t="str">
@@ -4395,7 +4398,7 @@
         <v>0.7</v>
       </c>
       <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F79">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G79" t="str">
@@ -4437,7 +4440,7 @@
         <v>0.7</v>
       </c>
       <c r="F80" t="str" cm="1">
-        <f t="array" ref="F80">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F80">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G80" t="str">
@@ -4479,7 +4482,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F81" t="str" cm="1">
-        <f t="array" ref="F81">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F81">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G81" t="str">
@@ -4521,7 +4524,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F82" t="str" cm="1">
-        <f t="array" ref="F82">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F82">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G82" t="str">
@@ -4563,7 +4566,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F83" t="str" cm="1">
-        <f t="array" ref="F83">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F83">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G83" t="str">
@@ -4605,7 +4608,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F84" t="str" cm="1">
-        <f t="array" ref="F84">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F84">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G84" t="str">
@@ -4647,7 +4650,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F85" t="str" cm="1">
-        <f t="array" ref="F85">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F85">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G85" t="str">
@@ -4689,7 +4692,7 @@
         <v>0.35</v>
       </c>
       <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F86">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G86" t="str">
@@ -4731,7 +4734,7 @@
         <v>0.35</v>
       </c>
       <c r="F87" t="str" cm="1">
-        <f t="array" ref="F87">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F87">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G87" t="str">
@@ -4773,7 +4776,7 @@
         <v>0.35</v>
       </c>
       <c r="F88" t="str" cm="1">
-        <f t="array" ref="F88">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F88">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G88" t="str">
@@ -4815,7 +4818,7 @@
         <v>0.35</v>
       </c>
       <c r="F89" t="str" cm="1">
-        <f t="array" ref="F89">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F89">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G89" t="str">
@@ -4857,7 +4860,7 @@
         <v>0.35</v>
       </c>
       <c r="F90" t="str" cm="1">
-        <f t="array" ref="F90">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F90">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G90" t="str">
@@ -4899,7 +4902,7 @@
         <v>0.35</v>
       </c>
       <c r="F91" t="str" cm="1">
-        <f t="array" ref="F91">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F91">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G91" t="str">
@@ -4941,7 +4944,7 @@
         <v>0.35</v>
       </c>
       <c r="F92" t="str" cm="1">
-        <f t="array" ref="F92">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F92">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G92" t="str">
@@ -4983,7 +4986,7 @@
         <v>0.35</v>
       </c>
       <c r="F93" t="str" cm="1">
-        <f t="array" ref="F93">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F93">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G93" t="str">
@@ -5025,7 +5028,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F94" t="str" cm="1">
-        <f t="array" ref="F94">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F94">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G94" t="str">
@@ -5067,7 +5070,7 @@
         <v>0.3</v>
       </c>
       <c r="F95" t="str" cm="1">
-        <f t="array" ref="F95">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F95">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G95" t="str">
@@ -5109,7 +5112,7 @@
         <v>0.65</v>
       </c>
       <c r="F96" t="str" cm="1">
-        <f t="array" ref="F96">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F96">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G96" t="str">
@@ -5151,7 +5154,7 @@
         <v>0.65</v>
       </c>
       <c r="F97" t="str" cm="1">
-        <f t="array" ref="F97">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F97">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G97" t="str">
@@ -5193,7 +5196,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F98" t="str" cm="1">
-        <f t="array" ref="F98">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F98">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G98" t="str">
@@ -5235,7 +5238,7 @@
         <v>0.3</v>
       </c>
       <c r="F99" t="str" cm="1">
-        <f t="array" ref="F99">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F99">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G99" t="str">
@@ -5277,7 +5280,7 @@
         <v>0.3</v>
       </c>
       <c r="F100" t="str" cm="1">
-        <f t="array" ref="F100">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F100">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G100" t="str">
@@ -5319,7 +5322,7 @@
         <v>0.65</v>
       </c>
       <c r="F101" t="str" cm="1">
-        <f t="array" ref="F101">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F101">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G101" t="str">
@@ -5361,7 +5364,7 @@
         <v>0.65</v>
       </c>
       <c r="F102" t="str" cm="1">
-        <f t="array" ref="F102">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F102">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G102" t="str">
@@ -5403,7 +5406,7 @@
         <v>0.65</v>
       </c>
       <c r="F103" t="str" cm="1">
-        <f t="array" ref="F103">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F103">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G103" t="str">
@@ -5445,7 +5448,7 @@
         <v>0.65</v>
       </c>
       <c r="F104" t="str" cm="1">
-        <f t="array" ref="F104">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F104">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G104" t="str">
@@ -5487,7 +5490,7 @@
         <v>0.35</v>
       </c>
       <c r="F105" t="str" cm="1">
-        <f t="array" ref="F105">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F105">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G105" t="str">
@@ -5529,7 +5532,7 @@
         <v>0.35</v>
       </c>
       <c r="F106" t="str" cm="1">
-        <f t="array" ref="F106">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F106">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G106" t="str">
@@ -5571,7 +5574,7 @@
         <v>0.45</v>
       </c>
       <c r="F107" t="str" cm="1">
-        <f t="array" ref="F107">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F107">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G107" t="str">
@@ -5613,7 +5616,7 @@
         <v>0.45</v>
       </c>
       <c r="F108" t="str" cm="1">
-        <f t="array" ref="F108">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F108">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G108" t="str">
@@ -5655,7 +5658,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F109" t="str" cm="1">
-        <f t="array" ref="F109">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F109">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G109" t="str">
@@ -5697,7 +5700,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F110" t="str" cm="1">
-        <f t="array" ref="F110">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F110">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G110" t="str">
@@ -5739,7 +5742,7 @@
         <v>0.6</v>
       </c>
       <c r="F111" t="str" cm="1">
-        <f t="array" ref="F111">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F111">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G111" t="str">
@@ -5781,7 +5784,7 @@
         <v>0.6</v>
       </c>
       <c r="F112" t="str" cm="1">
-        <f t="array" ref="F112">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F112">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G112" t="str">
@@ -5823,7 +5826,7 @@
         <v>0.6</v>
       </c>
       <c r="F113" t="str" cm="1">
-        <f t="array" ref="F113">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F113">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G113" t="str">
@@ -5865,7 +5868,7 @@
         <v>0.6</v>
       </c>
       <c r="F114" t="str" cm="1">
-        <f t="array" ref="F114">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F114">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G114" t="str">
@@ -5907,7 +5910,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F115" t="str" cm="1">
-        <f t="array" ref="F115">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F115">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G115" t="str">
@@ -5949,7 +5952,7 @@
         <v>0.6</v>
       </c>
       <c r="F116" t="str" cm="1">
-        <f t="array" ref="F116">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F116">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G116" t="str">
@@ -5991,7 +5994,7 @@
         <v>0.6</v>
       </c>
       <c r="F117" t="str" cm="1">
-        <f t="array" ref="F117">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F117">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G117" t="str">
@@ -6033,7 +6036,7 @@
         <v>0.35</v>
       </c>
       <c r="F118" t="str" cm="1">
-        <f t="array" ref="F118">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F118">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G118" t="str">
@@ -6075,7 +6078,7 @@
         <v>0.35</v>
       </c>
       <c r="F119" t="str" cm="1">
-        <f t="array" ref="F119">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F119">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G119" t="str">
@@ -6117,7 +6120,7 @@
         <v>0.7</v>
       </c>
       <c r="F120" t="str" cm="1">
-        <f t="array" ref="F120">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F120">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G120" t="str">
@@ -6159,7 +6162,7 @@
         <v>0.7</v>
       </c>
       <c r="F121" t="str" cm="1">
-        <f t="array" ref="F121">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F121">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G121" t="str">
@@ -6201,7 +6204,7 @@
         <v>0.6</v>
       </c>
       <c r="F122" t="str" cm="1">
-        <f t="array" ref="F122">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F122">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G122" t="str">
@@ -6243,7 +6246,7 @@
         <v>0.6</v>
       </c>
       <c r="F123" t="str" cm="1">
-        <f t="array" ref="F123">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F123">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G123" t="str">
@@ -6285,7 +6288,7 @@
         <v>0.6</v>
       </c>
       <c r="F124" t="str" cm="1">
-        <f t="array" ref="F124">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F124">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G124" t="str">
@@ -6327,7 +6330,7 @@
         <v>0.6</v>
       </c>
       <c r="F125" t="str" cm="1">
-        <f t="array" ref="F125">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F125">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G125" t="str">
@@ -6369,7 +6372,7 @@
         <v>0.6</v>
       </c>
       <c r="F126" t="str" cm="1">
-        <f t="array" ref="F126">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F126">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G126" t="str">
@@ -6411,7 +6414,7 @@
         <v>0.6</v>
       </c>
       <c r="F127" t="str" cm="1">
-        <f t="array" ref="F127">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F127">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G127" t="str">
@@ -6453,7 +6456,7 @@
         <v>0.6</v>
       </c>
       <c r="F128" t="str" cm="1">
-        <f t="array" ref="F128">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F128">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G128" t="str">
@@ -6495,7 +6498,7 @@
         <v>0.6</v>
       </c>
       <c r="F129" t="str" cm="1">
-        <f t="array" ref="F129">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F129">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G129" t="str">
@@ -6537,7 +6540,7 @@
         <v>0.65</v>
       </c>
       <c r="F130" t="str" cm="1">
-        <f t="array" ref="F130">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F130">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G130" t="str">
@@ -6579,7 +6582,7 @@
         <v>0.65</v>
       </c>
       <c r="F131" t="str" cm="1">
-        <f t="array" ref="F131">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F131">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G131" t="str">
@@ -6621,7 +6624,7 @@
         <v>0.6</v>
       </c>
       <c r="F132" t="str" cm="1">
-        <f t="array" ref="F132">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F132">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G132" t="str">
@@ -6663,7 +6666,7 @@
         <v>0.35</v>
       </c>
       <c r="F133" t="str" cm="1">
-        <f t="array" ref="F133">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F133">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G133" t="str">
@@ -6705,7 +6708,7 @@
         <v>0.35</v>
       </c>
       <c r="F134" t="str" cm="1">
-        <f t="array" ref="F134">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F134">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G134" t="str">
@@ -6747,7 +6750,7 @@
         <v>0.7</v>
       </c>
       <c r="F135" t="str" cm="1">
-        <f t="array" ref="F135">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F135">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G135" t="str">
@@ -6789,7 +6792,7 @@
         <v>0.7</v>
       </c>
       <c r="F136" t="str" cm="1">
-        <f t="array" ref="F136">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F136">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G136" t="str">
@@ -6831,7 +6834,7 @@
         <v>0.45</v>
       </c>
       <c r="F137" t="str" cm="1">
-        <f t="array" ref="F137">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F137">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G137" t="str">
@@ -6873,7 +6876,7 @@
         <v>0.45</v>
       </c>
       <c r="F138" t="str" cm="1">
-        <f t="array" ref="F138">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F138">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G138" t="str">
@@ -6915,7 +6918,7 @@
         <v>0.6</v>
       </c>
       <c r="F139" t="str" cm="1">
-        <f t="array" ref="F139">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F139">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G139" t="str">
@@ -6957,7 +6960,7 @@
         <v>0.6</v>
       </c>
       <c r="F140" t="str" cm="1">
-        <f t="array" ref="F140">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F140">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G140" t="str">
@@ -6999,7 +7002,7 @@
         <v>0.6</v>
       </c>
       <c r="F141" t="str" cm="1">
-        <f t="array" ref="F141">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F141">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G141" t="str">
@@ -7041,7 +7044,7 @@
         <v>0.6</v>
       </c>
       <c r="F142" t="str" cm="1">
-        <f t="array" ref="F142">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F142">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G142" t="str">
@@ -7083,7 +7086,7 @@
         <v>0.6</v>
       </c>
       <c r="F143" t="str" cm="1">
-        <f t="array" ref="F143">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F143">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G143" t="str">
@@ -7125,7 +7128,7 @@
         <v>0.6</v>
       </c>
       <c r="F144" t="str" cm="1">
-        <f t="array" ref="F144">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F144">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G144" t="str">
@@ -7167,7 +7170,7 @@
         <v>0.6</v>
       </c>
       <c r="F145" t="str" cm="1">
-        <f t="array" ref="F145">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F145">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G145" t="str">
@@ -7209,7 +7212,7 @@
         <v>0.6</v>
       </c>
       <c r="F146" t="str" cm="1">
-        <f t="array" ref="F146">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F146">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G146" t="str">
@@ -7251,7 +7254,7 @@
         <v>0.6</v>
       </c>
       <c r="F147" t="str" cm="1">
-        <f t="array" ref="F147">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F147">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G147" t="str">
@@ -7293,7 +7296,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F148" t="str" cm="1">
-        <f t="array" ref="F148">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F148">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G148" t="str">
@@ -7335,7 +7338,7 @@
         <v>0.6</v>
       </c>
       <c r="F149" t="str" cm="1">
-        <f t="array" ref="F149">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F149">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G149" t="str">
@@ -7377,7 +7380,7 @@
         <v>0.6</v>
       </c>
       <c r="F150" t="str" cm="1">
-        <f t="array" ref="F150">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F150">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G150" t="str">
@@ -7419,7 +7422,7 @@
         <v>0.6</v>
       </c>
       <c r="F151" t="str" cm="1">
-        <f t="array" ref="F151">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F151">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G151" t="str">
@@ -7461,7 +7464,7 @@
         <v>0.6</v>
       </c>
       <c r="F152" t="str" cm="1">
-        <f t="array" ref="F152">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F152">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G152" t="str">
@@ -7503,7 +7506,7 @@
         <v>0.6</v>
       </c>
       <c r="F153" t="str" cm="1">
-        <f t="array" ref="F153">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F153">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G153" t="str">
@@ -7545,7 +7548,7 @@
         <v>0.6</v>
       </c>
       <c r="F154" t="str" cm="1">
-        <f t="array" ref="F154">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F154">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G154" t="str">
@@ -7587,7 +7590,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F155" t="str" cm="1">
-        <f t="array" ref="F155">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F155">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G155" t="str">
@@ -7629,7 +7632,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F156" t="str" cm="1">
-        <f t="array" ref="F156">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F156">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G156" t="str">
@@ -7671,7 +7674,7 @@
         <v>0.6</v>
       </c>
       <c r="F157" t="str" cm="1">
-        <f t="array" ref="F157">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F157">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G157" t="str">
@@ -7713,7 +7716,7 @@
         <v>0.6</v>
       </c>
       <c r="F158" t="str" cm="1">
-        <f t="array" ref="F158">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F158">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G158" t="str">
@@ -7755,7 +7758,7 @@
         <v>0.25</v>
       </c>
       <c r="F159" t="str" cm="1">
-        <f t="array" ref="F159">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F159">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G159" t="str">
@@ -7797,7 +7800,7 @@
         <v>0.65</v>
       </c>
       <c r="F160" t="str" cm="1">
-        <f t="array" ref="F160">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F160">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G160" t="str">
@@ -7839,7 +7842,7 @@
         <v>0.65</v>
       </c>
       <c r="F161" t="str" cm="1">
-        <f t="array" ref="F161">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F161">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G161" t="str">
@@ -7881,7 +7884,7 @@
         <v>0.65</v>
       </c>
       <c r="F162" t="str" cm="1">
-        <f t="array" ref="F162">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F162">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G162" t="str">
@@ -7923,7 +7926,7 @@
         <v>0.65</v>
       </c>
       <c r="F163" t="str" cm="1">
-        <f t="array" ref="F163">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F163">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G163" t="str">
@@ -7965,7 +7968,7 @@
         <v>0.65</v>
       </c>
       <c r="F164" t="str" cm="1">
-        <f t="array" ref="F164">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F164">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G164" t="str">
@@ -8007,7 +8010,7 @@
         <v>0.65</v>
       </c>
       <c r="F165" t="str" cm="1">
-        <f t="array" ref="F165">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F165">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G165" t="str">
@@ -8049,7 +8052,7 @@
         <v>0.35</v>
       </c>
       <c r="F166" t="str" cm="1">
-        <f t="array" ref="F166">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F166">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G166" t="str">
@@ -8091,7 +8094,7 @@
         <v>0.35</v>
       </c>
       <c r="F167" t="str" cm="1">
-        <f t="array" ref="F167">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F167">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G167" t="str">
@@ -8133,7 +8136,7 @@
         <v>0.65</v>
       </c>
       <c r="F168" t="str" cm="1">
-        <f t="array" ref="F168">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F168">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G168" t="str">
@@ -8175,7 +8178,7 @@
         <v>0.65</v>
       </c>
       <c r="F169" t="str" cm="1">
-        <f t="array" ref="F169">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F169">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G169" t="str">
@@ -8217,7 +8220,7 @@
         <v>0.6</v>
       </c>
       <c r="F170" t="str" cm="1">
-        <f t="array" ref="F170">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F170">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G170" t="str">
@@ -8259,7 +8262,7 @@
         <v>0.6</v>
       </c>
       <c r="F171" t="str" cm="1">
-        <f t="array" ref="F171">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F171">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G171" t="str">
@@ -8301,7 +8304,7 @@
         <v>0.3</v>
       </c>
       <c r="F172" t="str" cm="1">
-        <f t="array" ref="F172">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F172">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G172" t="str">
@@ -8343,7 +8346,7 @@
         <v>0.3</v>
       </c>
       <c r="F173" t="str" cm="1">
-        <f t="array" ref="F173">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F173">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G173" t="str">
@@ -8385,7 +8388,7 @@
         <v>0.6</v>
       </c>
       <c r="F174" t="str" cm="1">
-        <f t="array" ref="F174">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F174">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G174" t="str">
@@ -8427,7 +8430,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F175" t="str" cm="1">
-        <f t="array" ref="F175">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F175">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G175" t="str">
@@ -8469,7 +8472,7 @@
         <v>0.3</v>
       </c>
       <c r="F176" t="str" cm="1">
-        <f t="array" ref="F176">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F176">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G176" t="str">
@@ -8511,7 +8514,7 @@
         <v>0.6</v>
       </c>
       <c r="F177" t="str" cm="1">
-        <f t="array" ref="F177">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F177">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G177" t="str">
@@ -8553,7 +8556,7 @@
         <v>0.6</v>
       </c>
       <c r="F178" t="str" cm="1">
-        <f t="array" ref="F178">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F178">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G178" t="str">
@@ -8595,7 +8598,7 @@
         <v>0.65</v>
       </c>
       <c r="F179" t="str" cm="1">
-        <f t="array" ref="F179">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F179">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G179" t="str">
@@ -8637,7 +8640,7 @@
         <v>0.65</v>
       </c>
       <c r="F180" t="str" cm="1">
-        <f t="array" ref="F180">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F180">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G180" t="str">
@@ -8679,7 +8682,7 @@
         <v>0.45</v>
       </c>
       <c r="F181" t="str" cm="1">
-        <f t="array" ref="F181">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F181">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G181" t="str">
@@ -8721,7 +8724,7 @@
         <v>0.45</v>
       </c>
       <c r="F182" t="str" cm="1">
-        <f t="array" ref="F182">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F182">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G182" t="str">
@@ -8763,7 +8766,7 @@
         <v>0.65</v>
       </c>
       <c r="F183" t="str" cm="1">
-        <f t="array" ref="F183">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F183">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G183" t="str">
@@ -8805,7 +8808,7 @@
         <v>0.65</v>
       </c>
       <c r="F184" t="str" cm="1">
-        <f t="array" ref="F184">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F184">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G184" t="str">
@@ -8847,7 +8850,7 @@
         <v>0.65</v>
       </c>
       <c r="F185" t="str" cm="1">
-        <f t="array" ref="F185">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F185">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G185" t="str">
@@ -8889,7 +8892,7 @@
         <v>0.65</v>
       </c>
       <c r="F186" t="str" cm="1">
-        <f t="array" ref="F186">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F186">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G186" t="str">
@@ -8931,7 +8934,7 @@
         <v>0.65</v>
       </c>
       <c r="F187" t="str" cm="1">
-        <f t="array" ref="F187">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F187">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G187" t="str">
@@ -8973,7 +8976,7 @@
         <v>0.65</v>
       </c>
       <c r="F188" t="str" cm="1">
-        <f t="array" ref="F188">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F188">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G188" t="str">
@@ -9015,7 +9018,7 @@
         <v>0.6</v>
       </c>
       <c r="F189" t="str" cm="1">
-        <f t="array" ref="F189">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F189">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G189" t="str">
@@ -9057,7 +9060,7 @@
         <v>0.6</v>
       </c>
       <c r="F190" t="str" cm="1">
-        <f t="array" ref="F190">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F190">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G190" t="str">
@@ -9099,7 +9102,7 @@
         <v>0.6</v>
       </c>
       <c r="F191" t="str" cm="1">
-        <f t="array" ref="F191">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F191">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G191" t="str">
@@ -9141,7 +9144,7 @@
         <v>0.6</v>
       </c>
       <c r="F192" t="str" cm="1">
-        <f t="array" ref="F192">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F192">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G192" t="str">
@@ -9183,7 +9186,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F193" t="str" cm="1">
-        <f t="array" ref="F193">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F193">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G193" t="str">
@@ -9225,7 +9228,7 @@
         <v>0.35</v>
       </c>
       <c r="F194" t="str" cm="1">
-        <f t="array" ref="F194">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F194">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G194" t="str">
@@ -9267,7 +9270,7 @@
         <v>0.35</v>
       </c>
       <c r="F195" t="str" cm="1">
-        <f t="array" ref="F195">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F195">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G195" t="str">
@@ -9309,7 +9312,7 @@
         <v>0.45</v>
       </c>
       <c r="F196" t="str" cm="1">
-        <f t="array" ref="F196">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F196">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G196" t="str">
@@ -9351,7 +9354,7 @@
         <v>0.45</v>
       </c>
       <c r="F197" t="str" cm="1">
-        <f t="array" ref="F197">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F197">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G197" t="str">
@@ -9393,7 +9396,7 @@
         <v>0.45</v>
       </c>
       <c r="F198" t="str" cm="1">
-        <f t="array" ref="F198">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F198">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G198" t="str">
@@ -9435,7 +9438,7 @@
         <v>0.45</v>
       </c>
       <c r="F199" t="str" cm="1">
-        <f t="array" ref="F199">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F199">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G199" t="str">
@@ -9477,7 +9480,7 @@
         <v>0.3</v>
       </c>
       <c r="F200" t="str" cm="1">
-        <f t="array" ref="F200">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F200">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G200" t="str">
@@ -9519,7 +9522,7 @@
         <v>0.7</v>
       </c>
       <c r="F201" t="str" cm="1">
-        <f t="array" ref="F201">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F201">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G201" t="str">
@@ -9561,7 +9564,7 @@
         <v>0.7</v>
       </c>
       <c r="F202" t="str" cm="1">
-        <f t="array" ref="F202">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F202">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G202" t="str">
@@ -9603,7 +9606,7 @@
         <v>0.45</v>
       </c>
       <c r="F203" t="str" cm="1">
-        <f t="array" ref="F203">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F203">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G203" t="str">
@@ -9645,7 +9648,7 @@
         <v>0.45</v>
       </c>
       <c r="F204" t="str" cm="1">
-        <f t="array" ref="F204">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F204">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G204" t="str">
@@ -9687,7 +9690,7 @@
         <v>0.6</v>
       </c>
       <c r="F205" t="str" cm="1">
-        <f t="array" ref="F205">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F205">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G205" t="str">
@@ -9729,7 +9732,7 @@
         <v>0.6</v>
       </c>
       <c r="F206" t="str" cm="1">
-        <f t="array" ref="F206">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F206">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G206" t="str">
@@ -9771,7 +9774,7 @@
         <v>0.6</v>
       </c>
       <c r="F207" t="str" cm="1">
-        <f t="array" ref="F207">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F207">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G207" t="str">
@@ -9813,7 +9816,7 @@
         <v>0.6</v>
       </c>
       <c r="F208" t="str" cm="1">
-        <f t="array" ref="F208">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F208">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G208" t="str">
@@ -9855,7 +9858,7 @@
         <v>0.7</v>
       </c>
       <c r="F209" t="str" cm="1">
-        <f t="array" ref="F209">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F209">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G209" t="str">
@@ -9897,7 +9900,7 @@
         <v>0.7</v>
       </c>
       <c r="F210" t="str" cm="1">
-        <f t="array" ref="F210">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F210">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G210" t="str">
@@ -9939,7 +9942,7 @@
         <v>0.35</v>
       </c>
       <c r="F211" t="str" cm="1">
-        <f t="array" ref="F211">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F211">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G211" t="str">
@@ -9981,7 +9984,7 @@
         <v>0.35</v>
       </c>
       <c r="F212" t="str" cm="1">
-        <f t="array" ref="F212">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F212">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G212" t="str">
@@ -10023,7 +10026,7 @@
         <v>0.35</v>
       </c>
       <c r="F213" t="str" cm="1">
-        <f t="array" ref="F213">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F213">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G213" t="str">
@@ -10065,7 +10068,7 @@
         <v>0.35</v>
       </c>
       <c r="F214" t="str" cm="1">
-        <f t="array" ref="F214">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F214">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G214" t="str">
@@ -10107,7 +10110,7 @@
         <v>0.3</v>
       </c>
       <c r="F215" t="str" cm="1">
-        <f t="array" ref="F215">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F215">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G215" t="str">
@@ -10149,7 +10152,7 @@
         <v>0.6</v>
       </c>
       <c r="F216" t="str" cm="1">
-        <f t="array" ref="F216">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F216">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G216" t="str">
@@ -10191,7 +10194,7 @@
         <v>0.6</v>
       </c>
       <c r="F217" t="str" cm="1">
-        <f t="array" ref="F217">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F217">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G217" t="str">
@@ -10233,7 +10236,7 @@
         <v>0.6</v>
       </c>
       <c r="F218" t="str" cm="1">
-        <f t="array" ref="F218">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F218">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G218" t="str">
@@ -10275,7 +10278,7 @@
         <v>0.6</v>
       </c>
       <c r="F219" t="str" cm="1">
-        <f t="array" ref="F219">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F219">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G219" t="str">
@@ -10317,7 +10320,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F220" t="str" cm="1">
-        <f t="array" ref="F220">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F220">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G220" t="str">
@@ -10359,7 +10362,7 @@
         <v>0.7</v>
       </c>
       <c r="F221" t="str" cm="1">
-        <f t="array" ref="F221">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F221">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G221" t="str">
@@ -10401,7 +10404,7 @@
         <v>0.7</v>
       </c>
       <c r="F222" t="str" cm="1">
-        <f t="array" ref="F222">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F222">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G222" t="str">
@@ -10443,7 +10446,7 @@
         <v>0.7</v>
       </c>
       <c r="F223" t="str" cm="1">
-        <f t="array" ref="F223">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F223">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G223" t="str">
@@ -10485,7 +10488,7 @@
         <v>0.7</v>
       </c>
       <c r="F224" t="str" cm="1">
-        <f t="array" ref="F224">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F224">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G224" t="str">
@@ -10527,7 +10530,7 @@
         <v>0.45</v>
       </c>
       <c r="F225" t="str" cm="1">
-        <f t="array" ref="F225">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F225">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G225" t="str">
@@ -10569,7 +10572,7 @@
         <v>0.45</v>
       </c>
       <c r="F226" t="str" cm="1">
-        <f t="array" ref="F226">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F226">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G226" t="str">
@@ -10611,7 +10614,7 @@
         <v>0.65</v>
       </c>
       <c r="F227" t="str" cm="1">
-        <f t="array" ref="F227">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F227">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G227" t="str">
@@ -10653,7 +10656,7 @@
         <v>0.65</v>
       </c>
       <c r="F228" t="str" cm="1">
-        <f t="array" ref="F228">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F228">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G228" t="str">
@@ -10695,7 +10698,7 @@
         <v>0.65</v>
       </c>
       <c r="F229" t="str" cm="1">
-        <f t="array" ref="F229">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F229">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G229" t="str">
@@ -10737,7 +10740,7 @@
         <v>0.65</v>
       </c>
       <c r="F230" t="str" cm="1">
-        <f t="array" ref="F230">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F230">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G230" t="str">
@@ -10779,7 +10782,7 @@
         <v>0.35</v>
       </c>
       <c r="F231" t="str" cm="1">
-        <f t="array" ref="F231">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F231">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G231" t="str">
@@ -10821,7 +10824,7 @@
         <v>0.35</v>
       </c>
       <c r="F232" t="str" cm="1">
-        <f t="array" ref="F232">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F232">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G232" t="str">
@@ -10863,7 +10866,7 @@
         <v>0.35</v>
       </c>
       <c r="F233" t="str" cm="1">
-        <f t="array" ref="F233">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F233">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G233" t="str">
@@ -10905,7 +10908,7 @@
         <v>0.35</v>
       </c>
       <c r="F234" t="str" cm="1">
-        <f t="array" ref="F234">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F234">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G234" t="str">
@@ -10947,7 +10950,7 @@
         <v>0.35</v>
       </c>
       <c r="F235" t="str" cm="1">
-        <f t="array" ref="F235">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F235">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>LIVE</v>
       </c>
       <c r="G235" t="str">
@@ -10989,7 +10992,7 @@
         <v>0.35</v>
       </c>
       <c r="F236" t="str" cm="1">
-        <f t="array" ref="F236">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F236">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G236" t="str">
@@ -11031,7 +11034,7 @@
         <v>0.25</v>
       </c>
       <c r="F237" t="str" cm="1">
-        <f t="array" ref="F237">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F237">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G237" t="str">
@@ -11073,7 +11076,7 @@
         <v>0.6</v>
       </c>
       <c r="F238" s="9" t="str" cm="1">
-        <f t="array" ref="F238">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F238">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G238" s="9" t="str">
@@ -11115,7 +11118,7 @@
         <v>0.7</v>
       </c>
       <c r="F239" s="9" t="str" cm="1">
-        <f t="array" ref="F239">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F239">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G239" s="9" t="str">
@@ -11157,7 +11160,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F240" s="9" t="str" cm="1">
-        <f t="array" ref="F240">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F240">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G240" s="9" t="str">
@@ -11199,7 +11202,7 @@
         <v>0.7</v>
       </c>
       <c r="F241" s="9" t="str" cm="1">
-        <f t="array" ref="F241">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F241">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G241" s="9" t="str">
@@ -11241,7 +11244,7 @@
         <v>0.3</v>
       </c>
       <c r="F242" s="9" t="str" cm="1">
-        <f t="array" ref="F242">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F242">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G242" s="9" t="str">
@@ -11283,7 +11286,7 @@
         <v>0.7</v>
       </c>
       <c r="F243" s="9" t="str" cm="1">
-        <f t="array" ref="F243">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F243">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G243" s="9" t="str">
@@ -11325,7 +11328,7 @@
         <v>0.7</v>
       </c>
       <c r="F244" s="9" t="str" cm="1">
-        <f t="array" ref="F244">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F244">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G244" s="9" t="str">
@@ -11367,7 +11370,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F245" s="9" t="str" cm="1">
-        <f t="array" ref="F245">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F245">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G245" s="9" t="str">
@@ -11409,7 +11412,7 @@
         <v>0.6</v>
       </c>
       <c r="F246" s="9" t="str" cm="1">
-        <f t="array" ref="F246">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F246">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G246" s="9" t="str">
@@ -11451,7 +11454,7 @@
         <v>0.6</v>
       </c>
       <c r="F247" s="9" t="str" cm="1">
-        <f t="array" ref="F247">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F247">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G247" s="9" t="str">
@@ -11493,7 +11496,7 @@
         <v>0.6</v>
       </c>
       <c r="F248" s="9" t="str" cm="1">
-        <f t="array" ref="F248">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F248">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G248" s="9" t="str">
@@ -11535,7 +11538,7 @@
         <v>0.7</v>
       </c>
       <c r="F249" s="9" t="str" cm="1">
-        <f t="array" ref="F249">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F249">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G249" s="9" t="str">
@@ -11577,7 +11580,7 @@
         <v>0.6</v>
       </c>
       <c r="F250" s="9" t="str" cm="1">
-        <f t="array" ref="F250">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F250">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G250" s="9" t="str">
@@ -11619,7 +11622,7 @@
         <v>0.65</v>
       </c>
       <c r="F251" s="9" t="str" cm="1">
-        <f t="array" ref="F251">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F251">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G251" s="9" t="str">
@@ -11661,7 +11664,7 @@
         <v>0.65</v>
       </c>
       <c r="F252" s="9" t="str" cm="1">
-        <f t="array" ref="F252">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F252">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G252" s="9" t="str">
@@ -11703,7 +11706,7 @@
         <v>0.65</v>
       </c>
       <c r="F253" s="9" t="str" cm="1">
-        <f t="array" ref="F253">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F253">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G253" s="9" t="str">
@@ -11745,7 +11748,7 @@
         <v>0.65</v>
       </c>
       <c r="F254" s="9" t="str" cm="1">
-        <f t="array" ref="F254">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F254">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G254" s="9" t="str">
@@ -11787,7 +11790,7 @@
         <v>0.6</v>
       </c>
       <c r="F255" s="9" t="str" cm="1">
-        <f t="array" ref="F255">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F255">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G255" s="9" t="str">
@@ -11829,7 +11832,7 @@
         <v>0.3</v>
       </c>
       <c r="F256" s="9" t="str" cm="1">
-        <f t="array" ref="F256">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F256">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G256" s="9" t="str">
@@ -11871,7 +11874,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F257" s="9" t="str" cm="1">
-        <f t="array" ref="F257">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F257">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G257" s="9" t="str">
@@ -11913,7 +11916,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F258" s="9" t="str" cm="1">
-        <f t="array" ref="F258">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F258">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G258" s="9" t="str">
@@ -11955,7 +11958,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F259" s="9" t="str" cm="1">
-        <f t="array" ref="F259">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F259">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G259" s="9" t="str">
@@ -11997,7 +12000,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F260" s="9" t="str" cm="1">
-        <f t="array" ref="F260">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F260">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G260" s="9" t="str">
@@ -12039,7 +12042,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F261" s="9" t="str" cm="1">
-        <f t="array" ref="F261">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F261">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G261" s="9" t="str">
@@ -12081,7 +12084,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F262" s="9" t="str" cm="1">
-        <f t="array" ref="F262">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F262">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G262" s="9" t="str">
@@ -12123,7 +12126,7 @@
         <v>0.35</v>
       </c>
       <c r="F263" s="9" t="str" cm="1">
-        <f t="array" ref="F263">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F263">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G263" s="9" t="str">
@@ -12165,7 +12168,7 @@
         <v>0.35</v>
       </c>
       <c r="F264" s="9" t="str" cm="1">
-        <f t="array" ref="F264">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F264">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G264" s="9" t="str">
@@ -12207,7 +12210,7 @@
         <v>0.3</v>
       </c>
       <c r="F265" s="9" t="str" cm="1">
-        <f t="array" ref="F265">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F265">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G265" s="9" t="str">
@@ -12249,7 +12252,7 @@
         <v>0.3</v>
       </c>
       <c r="F266" s="9" t="str" cm="1">
-        <f t="array" ref="F266">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F266">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G266" s="9" t="str">
@@ -12291,7 +12294,7 @@
         <v>0.3</v>
       </c>
       <c r="F267" s="9" t="str" cm="1">
-        <f t="array" ref="F267">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F267">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G267" s="9" t="str">
@@ -12333,7 +12336,7 @@
         <v>0.35</v>
       </c>
       <c r="F268" s="9" t="str" cm="1">
-        <f t="array" ref="F268">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F268">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G268" s="9" t="str">
@@ -12375,7 +12378,7 @@
         <v>0.6</v>
       </c>
       <c r="F269" s="9" t="str" cm="1">
-        <f t="array" ref="F269">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F269">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G269" s="9" t="str">
@@ -12417,7 +12420,7 @@
         <v>0.6</v>
       </c>
       <c r="F270" s="9" t="str" cm="1">
-        <f t="array" ref="F270">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F270">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G270" s="9" t="str">
@@ -12459,7 +12462,7 @@
         <v>0.6</v>
       </c>
       <c r="F271" s="9" t="str" cm="1">
-        <f t="array" ref="F271">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F271">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G271" s="9" t="str">
@@ -12501,7 +12504,7 @@
         <v>0.7</v>
       </c>
       <c r="F272" s="9" t="str" cm="1">
-        <f t="array" ref="F272">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F272">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G272" s="9" t="str">
@@ -12543,7 +12546,7 @@
         <v>0.6</v>
       </c>
       <c r="F273" s="9" t="str" cm="1">
-        <f t="array" ref="F273">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F273">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G273" s="9" t="str">
@@ -12585,7 +12588,7 @@
         <v>0.6</v>
       </c>
       <c r="F274" s="9" t="str" cm="1">
-        <f t="array" ref="F274">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F274">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G274" s="9" t="str">
@@ -12627,7 +12630,7 @@
         <v>0.6</v>
       </c>
       <c r="F275" s="9" t="str" cm="1">
-        <f t="array" ref="F275">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F275">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G275" s="9" t="str">
@@ -12669,7 +12672,7 @@
         <v>0.3</v>
       </c>
       <c r="F276" s="9" t="str" cm="1">
-        <f t="array" ref="F276">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F276">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G276" s="9" t="str">
@@ -12711,7 +12714,7 @@
         <v>0.6</v>
       </c>
       <c r="F277" s="9" t="str" cm="1">
-        <f t="array" ref="F277">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F277">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G277" s="9" t="str">
@@ -12753,7 +12756,7 @@
         <v>0.65</v>
       </c>
       <c r="F278" s="9" t="str" cm="1">
-        <f t="array" ref="F278">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F278">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G278" s="9" t="str">
@@ -12795,7 +12798,7 @@
         <v>0.45</v>
       </c>
       <c r="F279" s="9" t="str" cm="1">
-        <f t="array" ref="F279">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F279">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G279" s="9" t="str">
@@ -12837,7 +12840,7 @@
         <v>0.6</v>
       </c>
       <c r="F280" s="9" t="str" cm="1">
-        <f t="array" ref="F280">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F280">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G280" s="9" t="str">
@@ -12879,7 +12882,7 @@
         <v>0.6</v>
       </c>
       <c r="F281" s="9" t="str" cm="1">
-        <f t="array" ref="F281">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F281">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G281" s="9" t="str">
@@ -12921,7 +12924,7 @@
         <v>0.6</v>
       </c>
       <c r="F282" s="9" t="str" cm="1">
-        <f t="array" ref="F282">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F282">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G282" s="9" t="str">
@@ -12963,7 +12966,7 @@
         <v>0.6</v>
       </c>
       <c r="F283" s="9" t="str" cm="1">
-        <f t="array" ref="F283">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F283">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G283" s="9" t="str">
@@ -13005,7 +13008,7 @@
         <v>0.6</v>
       </c>
       <c r="F284" s="9" t="str" cm="1">
-        <f t="array" ref="F284">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F284">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G284" s="9" t="str">
@@ -13047,7 +13050,7 @@
         <v>0.3</v>
       </c>
       <c r="F285" s="9" t="str" cm="1">
-        <f t="array" ref="F285">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F285">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G285" s="9" t="str">
@@ -13089,7 +13092,7 @@
         <v>0.6</v>
       </c>
       <c r="F286" s="9" t="str" cm="1">
-        <f t="array" ref="F286">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F286">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G286" s="9" t="str">
@@ -13131,7 +13134,7 @@
         <v>0.6</v>
       </c>
       <c r="F287" s="9" t="str" cm="1">
-        <f t="array" ref="F287">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F287">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G287" s="9" t="str">
@@ -13173,7 +13176,7 @@
         <v>0.65</v>
       </c>
       <c r="F288" s="9" t="str" cm="1">
-        <f t="array" ref="F288">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F288">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G288" s="9" t="str">
@@ -13215,7 +13218,7 @@
         <v>0.6</v>
       </c>
       <c r="F289" s="9" t="str" cm="1">
-        <f t="array" ref="F289">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F289">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G289" s="9" t="str">
@@ -13257,7 +13260,7 @@
         <v>0.7</v>
       </c>
       <c r="F290" s="9" t="str" cm="1">
-        <f t="array" ref="F290">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F290">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G290" s="9" t="str">
@@ -13299,7 +13302,7 @@
         <v>0.35</v>
       </c>
       <c r="F291" s="9" t="str" cm="1">
-        <f t="array" ref="F291">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F291">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G291" s="9" t="str">
@@ -13341,7 +13344,7 @@
         <v>0.35</v>
       </c>
       <c r="F292" s="9" t="str" cm="1">
-        <f t="array" ref="F292">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F292">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G292" s="9" t="str">
@@ -13383,7 +13386,7 @@
         <v>0.3</v>
       </c>
       <c r="F293" s="9" t="str" cm="1">
-        <f t="array" ref="F293">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F293">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G293" s="9" t="str">
@@ -13425,7 +13428,7 @@
         <v>0.7</v>
       </c>
       <c r="F294" s="9" t="str" cm="1">
-        <f t="array" ref="F294">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F294">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
       <c r="G294" s="9" t="str">
@@ -13467,7 +13470,7 @@
         <v>0.25</v>
       </c>
       <c r="F295" s="9" t="str" cm="1">
-        <f t="array" ref="F295">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F295">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G295" s="9" t="str">
@@ -13509,7 +13512,7 @@
         <v>0.25</v>
       </c>
       <c r="F296" s="9" t="str" cm="1">
-        <f t="array" ref="F296">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F296">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G296" s="9" t="str">
@@ -13551,7 +13554,7 @@
         <v>0.25</v>
       </c>
       <c r="F297" s="9" t="str" cm="1">
-        <f t="array" ref="F297">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F297">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G297" s="9" t="str">
@@ -13593,7 +13596,7 @@
         <v>0.25</v>
       </c>
       <c r="F298" s="9" t="str" cm="1">
-        <f t="array" ref="F298">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F298">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G298" s="9" t="str">
@@ -13635,7 +13638,7 @@
         <v>0.25</v>
       </c>
       <c r="F299" s="9" t="str" cm="1">
-        <f t="array" ref="F299">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F299">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G299" s="9" t="str">
@@ -13677,7 +13680,7 @@
         <v>0.45</v>
       </c>
       <c r="F300" s="9" t="str" cm="1">
-        <f t="array" ref="F300">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F300">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G300" s="9" t="str">
@@ -13719,7 +13722,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F301" s="9" t="str" cm="1">
-        <f t="array" ref="F301">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F301">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G301" s="9" t="str">
@@ -13761,7 +13764,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F302" s="9" t="str" cm="1">
-        <f t="array" ref="F302">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F302">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G302" s="9" t="str">
@@ -13803,7 +13806,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F303" s="9" t="str" cm="1">
-        <f t="array" ref="F303">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F303">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G303" s="9" t="str">
@@ -13845,7 +13848,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F304" s="9" t="str" cm="1">
-        <f t="array" ref="F304">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F304">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G304" s="9" t="str">
@@ -13887,7 +13890,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F305" s="9" t="str" cm="1">
-        <f t="array" ref="F305">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F305">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G305" s="9" t="str">
@@ -13929,7 +13932,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F306" s="9" t="str" cm="1">
-        <f t="array" ref="F306">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F306">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G306" s="9" t="str">
@@ -13971,7 +13974,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F307" s="9" t="str" cm="1">
-        <f t="array" ref="F307">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F307">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G307" s="9" t="str">
@@ -14013,7 +14016,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F308" s="9" t="str" cm="1">
-        <f t="array" ref="F308">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F308">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G308" s="9" t="str">
@@ -14055,7 +14058,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F309" s="9" t="str" cm="1">
-        <f t="array" ref="F309">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F309">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G309" s="9" t="str">
@@ -14097,7 +14100,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F310" s="9" t="str" cm="1">
-        <f t="array" ref="F310">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F310">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G310" s="9" t="str">
@@ -14139,7 +14142,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F311" s="9" t="str" cm="1">
-        <f t="array" ref="F311">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F311">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G311" s="9" t="str">
@@ -14181,7 +14184,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F312" s="9" t="str" cm="1">
-        <f t="array" ref="F312">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F312">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G312" s="9" t="str">
@@ -14223,7 +14226,7 @@
         <v>0.6</v>
       </c>
       <c r="F313" s="9" t="str" cm="1">
-        <f t="array" ref="F313">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F313">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G313" s="9" t="str">
@@ -14265,7 +14268,7 @@
         <v>0.3</v>
       </c>
       <c r="F314" s="9" t="str" cm="1">
-        <f t="array" ref="F314">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F314">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G314" s="9" t="str">
@@ -14307,7 +14310,7 @@
         <v>0.3</v>
       </c>
       <c r="F315" s="9" t="str" cm="1">
-        <f t="array" ref="F315">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F315">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G315" s="9" t="str">
@@ -14349,7 +14352,7 @@
         <v>0.3</v>
       </c>
       <c r="F316" s="9" t="str" cm="1">
-        <f t="array" ref="F316">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F316">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G316" s="9" t="str">
@@ -14391,7 +14394,7 @@
         <v>0.3</v>
       </c>
       <c r="F317" s="9" t="str" cm="1">
-        <f t="array" ref="F317">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL")</f>
+        <f t="array" ref="F317">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
         <v>PRESENCIAL</v>
       </c>
       <c r="G317" s="9" t="str">
@@ -14401,6 +14404,1980 @@
       <c r="H317" s="10">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
         <v>1544.4775999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>27</v>
+      </c>
+      <c r="B318" t="s">
+        <v>208</v>
+      </c>
+      <c r="C318" s="2">
+        <v>8</v>
+      </c>
+      <c r="D318" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" cm="1">
+        <f t="array" ref="E318">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F318" s="9" t="str" cm="1">
+        <f t="array" ref="F318">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G318" s="9" t="str">
+        <f>CONCATENATE(A318,F318)</f>
+        <v>ADMINISTRAÇÃOLIVE</v>
+      </c>
+      <c r="H318" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>573.36940000000004</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>32</v>
+      </c>
+      <c r="B319" t="s">
+        <v>208</v>
+      </c>
+      <c r="C319" s="2">
+        <v>8</v>
+      </c>
+      <c r="D319" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319" cm="1">
+        <f t="array" ref="E319">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F319" s="9" t="str" cm="1">
+        <f t="array" ref="F319">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G319" s="9" t="str">
+        <f>CONCATENATE(A319,F319)</f>
+        <v>ANÁLISE E DESENVOLVIMENTO DE SISTEMASLIVE</v>
+      </c>
+      <c r="H319" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>595.62670000000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>34</v>
+      </c>
+      <c r="B320" t="s">
+        <v>208</v>
+      </c>
+      <c r="C320" s="2">
+        <v>8</v>
+      </c>
+      <c r="D320" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" cm="1">
+        <f t="array" ref="E320">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F320" s="9" t="str" cm="1">
+        <f t="array" ref="F320">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G320" s="9" t="str">
+        <f>CONCATENATE(A320,F320)</f>
+        <v>AUTOMAÇÃO INDUSTRIALLIVE</v>
+      </c>
+      <c r="H320" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>495.28570000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>36</v>
+      </c>
+      <c r="B321" t="s">
+        <v>208</v>
+      </c>
+      <c r="C321" s="2">
+        <v>8</v>
+      </c>
+      <c r="D321" t="s">
+        <v>13</v>
+      </c>
+      <c r="E321" cm="1">
+        <f t="array" ref="E321">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F321" s="9" t="str" cm="1">
+        <f t="array" ref="F321">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G321" s="9" t="str">
+        <f>CONCATENATE(A321,F321)</f>
+        <v>BANCO DE DADOS: DATA SCIENCE, BIG DATA &amp; BILIVE</v>
+      </c>
+      <c r="H321" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>38</v>
+      </c>
+      <c r="B322" t="s">
+        <v>208</v>
+      </c>
+      <c r="C322" s="2">
+        <v>8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>16</v>
+      </c>
+      <c r="E322" cm="1">
+        <f t="array" ref="E322">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F322" s="9" t="str" cm="1">
+        <f t="array" ref="F322">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G322" s="9" t="str">
+        <f>CONCATENATE(A322,F322)</f>
+        <v>BIOMEDICINALIVE</v>
+      </c>
+      <c r="H322" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>869.3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>39</v>
+      </c>
+      <c r="B323" t="s">
+        <v>208</v>
+      </c>
+      <c r="C323" s="2">
+        <v>8</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" cm="1">
+        <f t="array" ref="E323">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F323" s="9" t="str" cm="1">
+        <f t="array" ref="F323">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G323" s="9" t="str">
+        <f>CONCATENATE(A323,F323)</f>
+        <v>CIÊNCIA DA COMPUTAÇÃOLIVE</v>
+      </c>
+      <c r="H323" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>764.27840000000003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>42</v>
+      </c>
+      <c r="B324" t="s">
+        <v>208</v>
+      </c>
+      <c r="C324" s="2">
+        <v>8</v>
+      </c>
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" cm="1">
+        <f t="array" ref="E324">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F324" s="9" t="str" cm="1">
+        <f t="array" ref="F324">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G324" s="9" t="str">
+        <f>CONCATENATE(A324,F324)</f>
+        <v>CIÊNCIAS CONTÁBEISLIVE</v>
+      </c>
+      <c r="H324" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>575.6277</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>43</v>
+      </c>
+      <c r="B325" t="s">
+        <v>208</v>
+      </c>
+      <c r="C325" s="2">
+        <v>8</v>
+      </c>
+      <c r="D325" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325" cm="1">
+        <f t="array" ref="E325">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F325" s="9" t="str" cm="1">
+        <f t="array" ref="F325">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G325" s="9" t="str">
+        <f>CONCATENATE(A325,F325)</f>
+        <v>CIÊNCIAS ECONÔMICASLIVE</v>
+      </c>
+      <c r="H325" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>715.01049999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>46</v>
+      </c>
+      <c r="B326" t="s">
+        <v>208</v>
+      </c>
+      <c r="C326" s="2">
+        <v>8</v>
+      </c>
+      <c r="D326" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" cm="1">
+        <f t="array" ref="E326">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F326" s="9" t="str" cm="1">
+        <f t="array" ref="F326">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G326" s="9" t="str">
+        <f>CONCATENATE(A326,F326)</f>
+        <v>COMÉRCIO EXTERIORLIVE</v>
+      </c>
+      <c r="H326" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>465.99029999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>52</v>
+      </c>
+      <c r="B327" t="s">
+        <v>208</v>
+      </c>
+      <c r="C327" s="2">
+        <v>8</v>
+      </c>
+      <c r="D327" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" cm="1">
+        <f t="array" ref="E327">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F327" s="9" t="str" cm="1">
+        <f t="array" ref="F327">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G327" s="9" t="str">
+        <f>CONCATENATE(A327,F327)</f>
+        <v>CRIMINOLOGIALIVE</v>
+      </c>
+      <c r="H327" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>731.14080000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>55</v>
+      </c>
+      <c r="B328" t="s">
+        <v>208</v>
+      </c>
+      <c r="C328" s="2">
+        <v>8</v>
+      </c>
+      <c r="D328" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" cm="1">
+        <f t="array" ref="E328">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F328" s="9" t="str" cm="1">
+        <f t="array" ref="F328">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G328" s="9" t="str">
+        <f>CONCATENATE(A328,F328)</f>
+        <v>DESIGN DE ANIMAÇÃOLIVE</v>
+      </c>
+      <c r="H328" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>56</v>
+      </c>
+      <c r="B329" t="s">
+        <v>208</v>
+      </c>
+      <c r="C329" s="2">
+        <v>8</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" cm="1">
+        <f t="array" ref="E329">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F329" s="9" t="str" cm="1">
+        <f t="array" ref="F329">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G329" s="9" t="str">
+        <f>CONCATENATE(A329,F329)</f>
+        <v>DESIGN DE GAMESLIVE</v>
+      </c>
+      <c r="H329" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>848.72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>57</v>
+      </c>
+      <c r="B330" t="s">
+        <v>208</v>
+      </c>
+      <c r="C330" s="2">
+        <v>8</v>
+      </c>
+      <c r="D330" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" cm="1">
+        <f t="array" ref="E330">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F330" s="9" t="str" cm="1">
+        <f t="array" ref="F330">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G330" s="9" t="str">
+        <f>CONCATENATE(A330,F330)</f>
+        <v>DESIGN DE INTERIORESLIVE</v>
+      </c>
+      <c r="H330" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>634.14580000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>59</v>
+      </c>
+      <c r="B331" t="s">
+        <v>208</v>
+      </c>
+      <c r="C331" s="2">
+        <v>8</v>
+      </c>
+      <c r="D331" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" cm="1">
+        <f t="array" ref="E331">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F331" s="9" t="str" cm="1">
+        <f t="array" ref="F331">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G331" s="9" t="str">
+        <f>CONCATENATE(A331,F331)</f>
+        <v>DESIGN DE PRODUTOLIVE</v>
+      </c>
+      <c r="H331" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>900.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>61</v>
+      </c>
+      <c r="B332" t="s">
+        <v>208</v>
+      </c>
+      <c r="C332" s="2">
+        <v>8</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" cm="1">
+        <f t="array" ref="E332">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F332" s="9" t="str" cm="1">
+        <f t="array" ref="F332">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G332" s="9" t="str">
+        <f>CONCATENATE(A332,F332)</f>
+        <v>DESIGN GRÁFICOLIVE</v>
+      </c>
+      <c r="H332" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>748.18920000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>66</v>
+      </c>
+      <c r="B333" t="s">
+        <v>208</v>
+      </c>
+      <c r="C333" s="2">
+        <v>8</v>
+      </c>
+      <c r="D333" t="s">
+        <v>15</v>
+      </c>
+      <c r="E333" cm="1">
+        <f t="array" ref="E333">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F333" s="9" t="str" cm="1">
+        <f t="array" ref="F333">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G333" s="9" t="str">
+        <f>CONCATENATE(A333,F333)</f>
+        <v>ENGENHARIA AMBIENTALLIVE</v>
+      </c>
+      <c r="H333" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>741.25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>69</v>
+      </c>
+      <c r="B334" t="s">
+        <v>208</v>
+      </c>
+      <c r="C334" s="2">
+        <v>8</v>
+      </c>
+      <c r="D334" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" cm="1">
+        <f t="array" ref="E334">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F334" s="9" t="str" cm="1">
+        <f t="array" ref="F334">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G334" s="9" t="str">
+        <f>CONCATENATE(A334,F334)</f>
+        <v>ENGENHARIA CIVILLIVE</v>
+      </c>
+      <c r="H334" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>728.81650000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>70</v>
+      </c>
+      <c r="B335" t="s">
+        <v>208</v>
+      </c>
+      <c r="C335" s="2">
+        <v>8</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
+      <c r="E335" cm="1">
+        <f t="array" ref="E335">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F335" s="9" t="str" cm="1">
+        <f t="array" ref="F335">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G335" s="9" t="str">
+        <f>CONCATENATE(A335,F335)</f>
+        <v>ENGENHARIA DA COMPUTAÇÃOLIVE</v>
+      </c>
+      <c r="H335" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>712.05560000000003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>71</v>
+      </c>
+      <c r="B336" t="s">
+        <v>208</v>
+      </c>
+      <c r="C336" s="2">
+        <v>8</v>
+      </c>
+      <c r="D336" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336" cm="1">
+        <f t="array" ref="E336">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F336" s="9" t="str" cm="1">
+        <f t="array" ref="F336">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G336" s="9" t="str">
+        <f t="shared" ref="G336:G337" si="11">CONCATENATE(A336,F336)</f>
+        <v>ENGENHARIA DE ALIMENTOSLIVE</v>
+      </c>
+      <c r="H336" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>72</v>
+      </c>
+      <c r="B337" t="s">
+        <v>208</v>
+      </c>
+      <c r="C337" s="2">
+        <v>8</v>
+      </c>
+      <c r="D337" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" cm="1">
+        <f t="array" ref="E337">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F337" s="9" t="str" cm="1">
+        <f t="array" ref="F337">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G337" s="9" t="str">
+        <f t="shared" si="11"/>
+        <v>ENGENHARIA DE CONTROLE E AUTOMAÇÃOLIVE</v>
+      </c>
+      <c r="H337" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>685.14059999999995</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>74</v>
+      </c>
+      <c r="B338" t="s">
+        <v>208</v>
+      </c>
+      <c r="C338" s="2">
+        <v>8</v>
+      </c>
+      <c r="D338" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338" cm="1">
+        <f t="array" ref="E338">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F338" s="9" t="str" cm="1">
+        <f t="array" ref="F338">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G338" s="9" t="str">
+        <f>CONCATENATE(A338,F338)</f>
+        <v>ENGENHARIA DE PRODUÇÃOLIVE</v>
+      </c>
+      <c r="H338" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>742.97029999999995</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>76</v>
+      </c>
+      <c r="B339" t="s">
+        <v>208</v>
+      </c>
+      <c r="C339" s="2">
+        <v>8</v>
+      </c>
+      <c r="D339" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" cm="1">
+        <f t="array" ref="E339">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F339" s="9" t="str" cm="1">
+        <f t="array" ref="F339">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G339" s="9" t="str">
+        <f>CONCATENATE(A339,F339)</f>
+        <v>ENGENHARIA ELÉTRICALIVE</v>
+      </c>
+      <c r="H339" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>822.06100000000004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>80</v>
+      </c>
+      <c r="B340" t="s">
+        <v>208</v>
+      </c>
+      <c r="C340" s="2">
+        <v>8</v>
+      </c>
+      <c r="D340" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" cm="1">
+        <f t="array" ref="E340">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F340" s="9" t="str" cm="1">
+        <f t="array" ref="F340">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G340" s="9" t="str">
+        <f>CONCATENATE(A340,F340)</f>
+        <v>ENGENHARIA QUÍMICALIVE</v>
+      </c>
+      <c r="H340" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>903.19050000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>87</v>
+      </c>
+      <c r="B341" t="s">
+        <v>208</v>
+      </c>
+      <c r="C341" s="2">
+        <v>8</v>
+      </c>
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" cm="1">
+        <f t="array" ref="E341">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F341" s="9" t="str" cm="1">
+        <f t="array" ref="F341">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G341" s="9" t="str">
+        <f>CONCATENATE(A341,F341)</f>
+        <v>FARMÁCIALIVE</v>
+      </c>
+      <c r="H341" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>680.03129999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>88</v>
+      </c>
+      <c r="B342" t="s">
+        <v>208</v>
+      </c>
+      <c r="C342" s="2">
+        <v>8</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" cm="1">
+        <f t="array" ref="E342">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F342" s="9" t="str" cm="1">
+        <f t="array" ref="F342">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G342" s="9" t="str">
+        <f>CONCATENATE(A342,F342)</f>
+        <v>FILOSOFIALIVE</v>
+      </c>
+      <c r="H342" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>334.66669999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>97</v>
+      </c>
+      <c r="B343" t="s">
+        <v>208</v>
+      </c>
+      <c r="C343" s="2">
+        <v>8</v>
+      </c>
+      <c r="D343" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" cm="1">
+        <f t="array" ref="E343">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F343" s="9" t="str" cm="1">
+        <f t="array" ref="F343">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G343" s="9" t="str">
+        <f>CONCATENATE(A343,F343)</f>
+        <v>GESTÃO COMERCIALLIVE</v>
+      </c>
+      <c r="H343" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>456.52080000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>99</v>
+      </c>
+      <c r="B344" t="s">
+        <v>208</v>
+      </c>
+      <c r="C344" s="2">
+        <v>8</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" cm="1">
+        <f t="array" ref="E344">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F344" s="9" t="str" cm="1">
+        <f t="array" ref="F344">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G344" s="9" t="str">
+        <f>CONCATENATE(A344,F344)</f>
+        <v>GESTÃO DA QUALIDADELIVE</v>
+      </c>
+      <c r="H344" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>411.6429</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>100</v>
+      </c>
+      <c r="B345" t="s">
+        <v>208</v>
+      </c>
+      <c r="C345" s="2">
+        <v>8</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" cm="1">
+        <f t="array" ref="E345">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F345" s="9" t="str" cm="1">
+        <f t="array" ref="F345">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G345" s="9" t="str">
+        <f t="shared" ref="G345:G346" si="12">CONCATENATE(A345,F345)</f>
+        <v>GESTÃO DA SEGURANÇA PÚBLICALIVE</v>
+      </c>
+      <c r="H345" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>101</v>
+      </c>
+      <c r="B346" t="s">
+        <v>208</v>
+      </c>
+      <c r="C346" s="2">
+        <v>8</v>
+      </c>
+      <c r="D346" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" cm="1">
+        <f t="array" ref="E346">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F346" s="9" t="str" cm="1">
+        <f t="array" ref="F346">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G346" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>GESTÃO DA TECNOLOGIA DA INFORMAÇÃOLIVE</v>
+      </c>
+      <c r="H346" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>495.1558</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>103</v>
+      </c>
+      <c r="B347" t="s">
+        <v>208</v>
+      </c>
+      <c r="C347" s="2">
+        <v>8</v>
+      </c>
+      <c r="D347" t="s">
+        <v>11</v>
+      </c>
+      <c r="E347" cm="1">
+        <f t="array" ref="E347">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F347" s="9" t="str" cm="1">
+        <f t="array" ref="F347">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G347" s="9" t="str">
+        <f>CONCATENATE(A347,F347)</f>
+        <v>GESTÃO DE RECURSOS HUMANOSLIVE</v>
+      </c>
+      <c r="H347" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>424.22280000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>104</v>
+      </c>
+      <c r="B348" t="s">
+        <v>208</v>
+      </c>
+      <c r="C348" s="2">
+        <v>8</v>
+      </c>
+      <c r="D348" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348" cm="1">
+        <f t="array" ref="E348">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F348" s="9" t="str" cm="1">
+        <f t="array" ref="F348">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G348" s="9" t="str">
+        <f>CONCATENATE(A348,F348)</f>
+        <v>GESTÃO DO AGRONEGÓCIOLIVE</v>
+      </c>
+      <c r="H348" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>105</v>
+      </c>
+      <c r="B349" t="s">
+        <v>208</v>
+      </c>
+      <c r="C349" s="2">
+        <v>8</v>
+      </c>
+      <c r="D349" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349" cm="1">
+        <f t="array" ref="E349">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F349" s="9" t="str" cm="1">
+        <f t="array" ref="F349">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G349" s="9" t="str">
+        <f>CONCATENATE(A349,F349)</f>
+        <v>GESTÃO FINANCEIRALIVE</v>
+      </c>
+      <c r="H349" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>496.52</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>108</v>
+      </c>
+      <c r="B350" t="s">
+        <v>208</v>
+      </c>
+      <c r="C350" s="2">
+        <v>8</v>
+      </c>
+      <c r="D350" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" cm="1">
+        <f t="array" ref="E350">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F350" s="9" t="str" cm="1">
+        <f t="array" ref="F350">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G350" s="9" t="str">
+        <f>CONCATENATE(A350,F350)</f>
+        <v>HISTÓRIALIVE</v>
+      </c>
+      <c r="H350" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>535.54999999999995</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>111</v>
+      </c>
+      <c r="B351" t="s">
+        <v>208</v>
+      </c>
+      <c r="C351" s="2">
+        <v>8</v>
+      </c>
+      <c r="D351" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351" cm="1">
+        <f t="array" ref="E351">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F351" s="9" t="str" cm="1">
+        <f t="array" ref="F351">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G351" s="9" t="str">
+        <f>CONCATENATE(A351,F351)</f>
+        <v>JORNALISMOLIVE</v>
+      </c>
+      <c r="H351" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>114</v>
+      </c>
+      <c r="B352" t="s">
+        <v>208</v>
+      </c>
+      <c r="C352" s="2">
+        <v>8</v>
+      </c>
+      <c r="D352" t="s">
+        <v>18</v>
+      </c>
+      <c r="E352" cm="1">
+        <f t="array" ref="E352">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F352" s="9" t="str" cm="1">
+        <f t="array" ref="F352">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G352" s="9" t="str">
+        <f>CONCATENATE(A352,F352)</f>
+        <v>LETRAS - PORTUGUÊS E INGLÊSLIVE</v>
+      </c>
+      <c r="H352" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>505.37349999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>116</v>
+      </c>
+      <c r="B353" t="s">
+        <v>208</v>
+      </c>
+      <c r="C353" s="2">
+        <v>8</v>
+      </c>
+      <c r="D353" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353" cm="1">
+        <f t="array" ref="E353">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F353" s="9" t="str" cm="1">
+        <f t="array" ref="F353">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G353" s="9" t="str">
+        <f>CONCATENATE(A353,F353)</f>
+        <v>LOGÍSTICALIVE</v>
+      </c>
+      <c r="H353" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>417.98770000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>118</v>
+      </c>
+      <c r="B354" t="s">
+        <v>208</v>
+      </c>
+      <c r="C354" s="2">
+        <v>8</v>
+      </c>
+      <c r="D354" t="s">
+        <v>11</v>
+      </c>
+      <c r="E354" cm="1">
+        <f t="array" ref="E354">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F354" s="9" t="str" cm="1">
+        <f t="array" ref="F354">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G354" s="9" t="str">
+        <f>CONCATENATE(A354,F354)</f>
+        <v>MARKETINGLIVE</v>
+      </c>
+      <c r="H354" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>479.98079999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>120</v>
+      </c>
+      <c r="B355" t="s">
+        <v>208</v>
+      </c>
+      <c r="C355" s="2">
+        <v>8</v>
+      </c>
+      <c r="D355" t="s">
+        <v>17</v>
+      </c>
+      <c r="E355" cm="1">
+        <f t="array" ref="E355">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F355" s="9" t="str" cm="1">
+        <f t="array" ref="F355">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G355" s="9" t="str">
+        <f>CONCATENATE(A355,F355)</f>
+        <v>MATEMÁTICALIVE</v>
+      </c>
+      <c r="H355" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>636.66669999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>121</v>
+      </c>
+      <c r="B356" t="s">
+        <v>208</v>
+      </c>
+      <c r="C356" s="2">
+        <v>8</v>
+      </c>
+      <c r="D356" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" cm="1">
+        <f t="array" ref="E356">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F356" s="9" t="str" cm="1">
+        <f t="array" ref="F356">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G356" s="9" t="str">
+        <f>CONCATENATE(A356,F356)</f>
+        <v>MECATRÔNICA INDUSTRIALLIVE</v>
+      </c>
+      <c r="H356" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>527.86670000000004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>131</v>
+      </c>
+      <c r="B357" t="s">
+        <v>208</v>
+      </c>
+      <c r="C357" s="2">
+        <v>8</v>
+      </c>
+      <c r="D357" t="s">
+        <v>18</v>
+      </c>
+      <c r="E357" cm="1">
+        <f t="array" ref="E357">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F357" s="9" t="str" cm="1">
+        <f t="array" ref="F357">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G357" s="9" t="str">
+        <f>CONCATENATE(A357,F357)</f>
+        <v>PEDAGOGIALIVE</v>
+      </c>
+      <c r="H357" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>399.31689999999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>134</v>
+      </c>
+      <c r="B358" t="s">
+        <v>208</v>
+      </c>
+      <c r="C358" s="2">
+        <v>8</v>
+      </c>
+      <c r="D358" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" cm="1">
+        <f t="array" ref="E358">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F358" s="9" t="str" cm="1">
+        <f t="array" ref="F358">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G358" s="9" t="str">
+        <f>CONCATENATE(A358,F358)</f>
+        <v>PROCESSOS GERENCIAISLIVE</v>
+      </c>
+      <c r="H358" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>347.07040000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>139</v>
+      </c>
+      <c r="B359" t="s">
+        <v>208</v>
+      </c>
+      <c r="C359" s="2">
+        <v>8</v>
+      </c>
+      <c r="D359" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" cm="1">
+        <f t="array" ref="E359">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F359" s="9" t="str" cm="1">
+        <f t="array" ref="F359">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G359" s="9" t="str">
+        <f>CONCATENATE(A359,F359)</f>
+        <v>PRODUÇÃO MULTIMÍDIALIVE</v>
+      </c>
+      <c r="H359" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>600.88890000000004</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>141</v>
+      </c>
+      <c r="B360" t="s">
+        <v>208</v>
+      </c>
+      <c r="C360" s="2">
+        <v>8</v>
+      </c>
+      <c r="D360" t="s">
+        <v>11</v>
+      </c>
+      <c r="E360" cm="1">
+        <f t="array" ref="E360">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F360" s="9" t="str" cm="1">
+        <f t="array" ref="F360">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G360" s="9" t="str">
+        <f>CONCATENATE(A360,F360)</f>
+        <v>PUBLICIDADE E PROPAGANDALIVE</v>
+      </c>
+      <c r="H360" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>782.66150000000005</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>148</v>
+      </c>
+      <c r="B361" t="s">
+        <v>208</v>
+      </c>
+      <c r="C361" s="2">
+        <v>8</v>
+      </c>
+      <c r="D361" t="s">
+        <v>11</v>
+      </c>
+      <c r="E361" cm="1">
+        <f t="array" ref="E361">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F361" s="9" t="str" cm="1">
+        <f t="array" ref="F361">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G361" s="9" t="str">
+        <f>CONCATENATE(A361,F361)</f>
+        <v>RELAÇÕES PÚBLICASLIVE</v>
+      </c>
+      <c r="H361" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>893.42859999999996</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>154</v>
+      </c>
+      <c r="B362" t="s">
+        <v>208</v>
+      </c>
+      <c r="C362" s="2">
+        <v>8</v>
+      </c>
+      <c r="D362" t="s">
+        <v>15</v>
+      </c>
+      <c r="E362" cm="1">
+        <f t="array" ref="E362">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F362" s="9" t="str" cm="1">
+        <f t="array" ref="F362">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G362" s="9" t="str">
+        <f t="shared" ref="G362:G363" si="13">CONCATENATE(A362,F362)</f>
+        <v>SISTEMAS BIOMÉDICOSLIVE</v>
+      </c>
+      <c r="H362" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>155</v>
+      </c>
+      <c r="B363" t="s">
+        <v>208</v>
+      </c>
+      <c r="C363" s="2">
+        <v>8</v>
+      </c>
+      <c r="D363" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" cm="1">
+        <f t="array" ref="E363">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F363" s="9" t="str" cm="1">
+        <f t="array" ref="F363">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G363" s="9" t="str">
+        <f t="shared" si="13"/>
+        <v>SISTEMAS DE INFORMAÇÃOLIVE</v>
+      </c>
+      <c r="H363" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>780.56820000000005</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>160</v>
+      </c>
+      <c r="B364" t="s">
+        <v>208</v>
+      </c>
+      <c r="C364" s="2">
+        <v>8</v>
+      </c>
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" cm="1">
+        <f t="array" ref="E364">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F364" s="9" t="str" cm="1">
+        <f t="array" ref="F364">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE")</f>
+        <v>LIVE</v>
+      </c>
+      <c r="G364" s="9" t="str">
+        <f>CONCATENATE(A364,F364)</f>
+        <v>TURISMOLIVE</v>
+      </c>
+      <c r="H364" s="10">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Chave]],ticket!$F$2:$F$225,ticket!$C$2:$C$225,0)</f>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -14416,7 +16393,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14443,7 +16422,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -14485,7 +16464,7 @@
         <v>ADMINISTRAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -14527,7 +16506,7 @@
         <v>AGRONOMIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -14569,7 +16548,7 @@
         <v>ANÁLISE E DESENVOLVIMENTO DE SISTEMASPRESENCIAL</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -14611,7 +16590,7 @@
         <v>ARQUITETURA E URBANISMOPRESENCIAL</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -14630,7 +16609,7 @@
         <v>ARQUITETURA E URBANISMOSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -14693,7 +16672,7 @@
         <v>AVIAÇÃO CIVILPRESENCIAL</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -14733,7 +16712,7 @@
         <v>BANCO DE DADOS: DATA SCIENCE, BIG DATA &amp; BIPRESENCIAL</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -14754,7 +16733,7 @@
         <v>BIG DATA E INTELIGÊNCIA ANALÍTICASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -14796,7 +16775,7 @@
         <v>BIOMEDICINAPRESENCIAL</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -14817,7 +16796,7 @@
         <v>BIOMEDICINASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -14859,7 +16838,7 @@
         <v>CIÊNCIA DA COMPUTAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -14901,7 +16880,7 @@
         <v>CIÊNCIA DE DADOSPRESENCIAL</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -14941,7 +16920,7 @@
         <v>CIÊNCIAS BIOLÓGICASPRESENCIAL</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -14960,7 +16939,7 @@
         <v>CIÊNCIAS BIOLÓGICASSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -15002,7 +16981,7 @@
         <v>CIÊNCIAS CONTÁBEISPRESENCIAL</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -15023,7 +17002,7 @@
         <v>CIÊNCIAS CONTÁBEISSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -15065,7 +17044,7 @@
         <v>CIÊNCIAS ECONÔMICASPRESENCIAL</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -15128,7 +17107,7 @@
         <v>CINEMA E AUDIOVISUALPRESENCIAL</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -15170,7 +17149,7 @@
         <v>COMÉRCIO EXTERIORPRESENCIAL</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -15250,7 +17229,7 @@
         <v>COMUNICAÇÃO E INTELIGÊNCIA DE MERCADOPRESENCIAL</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -15292,7 +17271,7 @@
         <v>COMUNICAÇÃO E MARKETINGPRESENCIAL</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -15334,7 +17313,7 @@
         <v>COMUNICAÇÃO SOCIAL, RADIALISMO (RÁDIO E TV)PRESENCIAL</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -15418,7 +17397,7 @@
         <v>DESIGNPRESENCIAL</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -15437,7 +17416,7 @@
         <v>DESIGNSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -15477,7 +17456,7 @@
         <v>DESIGN DE ANIMAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -15519,7 +17498,7 @@
         <v>DESIGN DE GAMESPRESENCIAL</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -15561,7 +17540,7 @@
         <v>DESIGN DE INTERIORESPRESENCIAL</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -15603,7 +17582,7 @@
         <v>DESIGN DE MODAPRESENCIAL</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -15624,7 +17603,7 @@
         <v>DESIGN DE MODASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -15666,7 +17645,7 @@
         <v>DESIGN DIGITALPRESENCIAL</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -15708,7 +17687,7 @@
         <v>DESIGN GRÁFICOPRESENCIAL</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -15771,7 +17750,7 @@
         <v>EDUCAÇÃO FÍSICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -15813,7 +17792,7 @@
         <v>ENFERMAGEMPRESENCIAL</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -15855,7 +17834,7 @@
         <v>ENGENHARIA AGRONÔMICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -15939,7 +17918,7 @@
         <v>ENGENHARIA BIOMÉDICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -15981,7 +17960,7 @@
         <v>ENGENHARIA CIVILPRESENCIAL</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -16002,7 +17981,7 @@
         <v>ENGENHARIA CIVILSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -16044,7 +18023,7 @@
         <v>ENGENHARIA DA COMPUTAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -16065,7 +18044,7 @@
         <v>ENGENHARIA DA COMPUTAÇÃOSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -16084,7 +18063,7 @@
         <v>ENGENHARIA DE ALIMENTOSLIVE</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -16126,7 +18105,7 @@
         <v>ENGENHARIA DE CONTROLE E AUTOMAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -16168,7 +18147,7 @@
         <v>ENGENHARIA DE MINASPRESENCIAL</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -16210,7 +18189,7 @@
         <v>ENGENHARIA DE PRODUÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>74</v>
       </c>
@@ -16252,7 +18231,7 @@
         <v>ENGENHARIA DE SOFTWAREPRESENCIAL</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>76</v>
       </c>
@@ -16294,7 +18273,7 @@
         <v>ENGENHARIA ELÉTRICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -16357,7 +18336,7 @@
         <v>ENGENHARIA MECÂNICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -16397,7 +18376,7 @@
         <v>ENGENHARIA MECATRÔNICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -16481,7 +18460,7 @@
         <v>ESTÉTICA E COSMÉTICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -16563,7 +18542,7 @@
         <v>EVENTOSPRESENCIAL</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -16605,7 +18584,7 @@
         <v>FABRICAÇÃO MECÂNICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -16647,7 +18626,7 @@
         <v>FARMÁCIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -16668,7 +18647,7 @@
         <v>FARMÁCIASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -16752,7 +18731,7 @@
         <v>FISIOTERAPIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>90</v>
       </c>
@@ -16794,7 +18773,7 @@
         <v>FONOAUDIOLOGIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>91</v>
       </c>
@@ -16857,7 +18836,7 @@
         <v>GASTRONOMIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -16939,7 +18918,7 @@
         <v>GESTÃO AMBIENTALPRESENCIAL</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>97</v>
       </c>
@@ -16981,7 +18960,7 @@
         <v>GESTÃO COMERCIALPRESENCIAL</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>97</v>
       </c>
@@ -17002,7 +18981,7 @@
         <v>GESTÃO COMERCIALSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -17023,7 +19002,7 @@
         <v>GESTÃO DA INOVAÇÃO E EMPREENDEDORISMO DIGITALSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -17065,7 +19044,7 @@
         <v>GESTÃO DA QUALIDADEPRESENCIAL</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -17086,7 +19065,7 @@
         <v>GESTÃO DA QUALIDADESEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -17107,7 +19086,7 @@
         <v>GESTÃO DA SEGURANÇA PÚBLICALIVE</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>101</v>
       </c>
@@ -17147,7 +19126,7 @@
         <v>GESTÃO DA TECNOLOGIA DA INFORMAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>101</v>
       </c>
@@ -17168,7 +19147,7 @@
         <v>GESTÃO DA TECNOLOGIA DA INFORMAÇÃOSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>102</v>
       </c>
@@ -17187,7 +19166,7 @@
         <v>GESTÃO DE NEGÓCIOS DIGITAISSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -17229,7 +19208,7 @@
         <v>GESTÃO DE RECURSOS HUMANOSPRESENCIAL</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -17250,7 +19229,7 @@
         <v>GESTÃO DE RECURSOS HUMANOSSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -17292,7 +19271,7 @@
         <v>GESTÃO DO AGRONEGÓCIOPRESENCIAL</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>105</v>
       </c>
@@ -17334,7 +19313,7 @@
         <v>GESTÃO FINANCEIRAPRESENCIAL</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>105</v>
       </c>
@@ -17355,7 +19334,7 @@
         <v>GESTÃO FINANCEIRASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>106</v>
       </c>
@@ -17395,7 +19374,7 @@
         <v>GESTÃO PÚBLICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -17416,7 +19395,7 @@
         <v>GESTÃO PÚBLICASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -17458,7 +19437,7 @@
         <v>HISTÓRIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>108</v>
       </c>
@@ -17521,7 +19500,7 @@
         <v>JOGOS DIGITAISPRESENCIAL</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>111</v>
       </c>
@@ -17563,7 +19542,7 @@
         <v>JORNALISMOPRESENCIAL</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>111</v>
       </c>
@@ -17624,7 +19603,7 @@
         <v>LETRAS - PORTUGUÊSPRESENCIAL</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>113</v>
       </c>
@@ -17645,7 +19624,7 @@
         <v>LETRAS - PORTUGUÊSSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>114</v>
       </c>
@@ -17706,7 +19685,7 @@
         <v>LETRAS - TRADUTOR E INTÉRPRETEPRESENCIAL</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -17748,7 +19727,7 @@
         <v>LOGÍSTICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -17790,7 +19769,7 @@
         <v>MANUTENÇÃO DE AERONAVESPRESENCIAL</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>118</v>
       </c>
@@ -17832,7 +19811,7 @@
         <v>MARKETINGPRESENCIAL</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>118</v>
       </c>
@@ -17874,7 +19853,7 @@
         <v>MARKETING DIGITALPRESENCIAL</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -17895,7 +19874,7 @@
         <v>MARKETING DIGITALSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -17937,7 +19916,7 @@
         <v>MATEMÁTICAPRESENCIAL</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>121</v>
       </c>
@@ -17979,7 +19958,7 @@
         <v>MECATRÔNICA INDUSTRIALPRESENCIAL</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>122</v>
       </c>
@@ -18145,7 +20124,7 @@
         <v>NUTRIÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>129</v>
       </c>
@@ -18187,7 +20166,7 @@
         <v>ODONTOLOGIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>131</v>
       </c>
@@ -18229,7 +20208,7 @@
         <v>PEDAGOGIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>131</v>
       </c>
@@ -18292,7 +20271,7 @@
         <v>PODOLOGIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>134</v>
       </c>
@@ -18334,7 +20313,7 @@
         <v>PROCESSOS GERENCIAISPRESENCIAL</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>134</v>
       </c>
@@ -18376,7 +20355,7 @@
         <v>PRODUÇÃO AUDIOVISUALPRESENCIAL</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>135</v>
       </c>
@@ -18460,7 +20439,7 @@
         <v>PRODUÇÃO FONOGRÁFICA - PRODUÇÃO MUSICALPRESENCIAL</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>139</v>
       </c>
@@ -18502,7 +20481,7 @@
         <v>PSICOLOGIAPRESENCIAL</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>141</v>
       </c>
@@ -18544,7 +20523,7 @@
         <v>PUBLICIDADE E PROPAGANDAPRESENCIAL</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>141</v>
       </c>
@@ -18668,7 +20647,7 @@
         <v>REDES DE COMPUTADORESPRESENCIAL</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>146</v>
       </c>
@@ -18710,7 +20689,7 @@
         <v>RELAÇÕES INTERNACIONAISPRESENCIAL</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>148</v>
       </c>
@@ -18792,7 +20771,7 @@
         <v>SEGURANÇA DA INFORMAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>151</v>
       </c>
@@ -18813,7 +20792,7 @@
         <v>SEGURANÇA PRIVADASEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>152</v>
       </c>
@@ -18855,7 +20834,7 @@
         <v>SERVIÇO SOCIALPRESENCIAL</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -18876,7 +20855,7 @@
         <v>SERVIÇO SOCIALSEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>154</v>
       </c>
@@ -18897,7 +20876,7 @@
         <v>SISTEMAS BIOMÉDICOSLIVE</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>155</v>
       </c>
@@ -18939,7 +20918,7 @@
         <v>SISTEMAS DE INFORMAÇÃOPRESENCIAL</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>155</v>
       </c>
@@ -19040,7 +21019,7 @@
         <v>TERAPIA OCUPACIONALPRESENCIAL</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>160</v>
       </c>
@@ -19107,7 +21086,7 @@
   <autoFilter ref="A1:E225" xr:uid="{7A7ED0F6-C612-4474-8BB8-5BB03A68A511}">
     <filterColumn colId="4">
       <filters>
-        <filter val="SEMIPRESENCIAL"/>
+        <filter val="LIVE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93992886-3D6A-4D59-A0B7-8E97169165E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F655B0-B785-4496-BFB2-1EDA13DB477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F630" totalsRowShown="0">
-  <autoFilter ref="A1:F630" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
+  <autoFilter ref="A1:F630" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ENGENHARIA CIVIL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F338">
     <sortCondition ref="B1:B338"/>
   </sortState>
@@ -1129,7 +1135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3305,7 +3311,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -4427,7 +4433,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>44</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>48</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>56</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>57</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -5073,7 +5079,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -5107,7 +5113,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>67</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>69</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -5243,7 +5249,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>76</v>
       </c>
@@ -5311,7 +5317,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>81</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>83</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>84</v>
       </c>
@@ -5515,7 +5521,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>87</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>90</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>93</v>
       </c>
@@ -5787,7 +5793,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>94</v>
       </c>
@@ -5821,7 +5827,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>100</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>102</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>106</v>
       </c>
@@ -6093,7 +6099,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>107</v>
       </c>
@@ -6127,7 +6133,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -6161,7 +6167,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>109</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>110</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>111</v>
       </c>
@@ -6263,7 +6269,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -6297,7 +6303,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>115</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>116</v>
       </c>
@@ -6433,7 +6439,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -6467,7 +6473,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>120</v>
       </c>
@@ -6569,7 +6575,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>186</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -6637,7 +6643,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>123</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>124</v>
       </c>
@@ -6705,7 +6711,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>125</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -6773,7 +6779,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -6807,7 +6813,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>129</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -6875,7 +6881,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>133</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>134</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>135</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>136</v>
       </c>
@@ -7011,7 +7017,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -7045,7 +7051,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>139</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>140</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>141</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>142</v>
       </c>
@@ -7181,7 +7187,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>143</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>145</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>146</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>147</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>149</v>
       </c>
@@ -7419,7 +7425,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>154</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>155</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>156</v>
       </c>
@@ -7555,7 +7561,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>157</v>
       </c>
@@ -7589,7 +7595,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>159</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>160</v>
       </c>
@@ -7657,7 +7663,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>31</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>162</v>
       </c>
@@ -7759,7 +7765,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>163</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -7861,7 +7867,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>38</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>164</v>
       </c>
@@ -7929,7 +7935,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>44</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>45</v>
       </c>
@@ -8133,7 +8139,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>165</v>
       </c>
@@ -8269,7 +8275,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>50</v>
       </c>
@@ -8303,7 +8309,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>51</v>
       </c>
@@ -8337,7 +8343,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>53</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>54</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>55</v>
       </c>
@@ -8473,7 +8479,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>56</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>57</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>59</v>
       </c>
@@ -8609,7 +8615,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -8643,7 +8649,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>74</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>80</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>81</v>
       </c>
@@ -8745,7 +8751,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>83</v>
       </c>
@@ -8779,7 +8785,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>84</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>87</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>88</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -8949,7 +8955,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>93</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>94</v>
       </c>
@@ -9051,7 +9057,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>96</v>
       </c>
@@ -9085,7 +9091,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>97</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>98</v>
       </c>
@@ -9153,7 +9159,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>100</v>
       </c>
@@ -9221,7 +9227,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>102</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>103</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>106</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>107</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>108</v>
       </c>
@@ -9425,7 +9431,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>109</v>
       </c>
@@ -9459,7 +9465,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>110</v>
       </c>
@@ -9493,7 +9499,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>115</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>117</v>
       </c>
@@ -9561,7 +9567,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>118</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>172</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>119</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>121</v>
       </c>
@@ -9697,7 +9703,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>123</v>
       </c>
@@ -9731,7 +9737,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>124</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>125</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>126</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>127</v>
       </c>
@@ -9867,7 +9873,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -9935,7 +9941,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>134</v>
       </c>
@@ -9969,7 +9975,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>135</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>136</v>
       </c>
@@ -10037,7 +10043,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>137</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>138</v>
       </c>
@@ -10105,7 +10111,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>175</v>
       </c>
@@ -10139,7 +10145,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>140</v>
       </c>
@@ -10173,7 +10179,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>141</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>142</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>176</v>
       </c>
@@ -10275,7 +10281,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>143</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>145</v>
       </c>
@@ -10343,7 +10349,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>146</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>147</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>148</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>149</v>
       </c>
@@ -10479,7 +10485,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>150</v>
       </c>
@@ -10513,7 +10519,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>151</v>
       </c>
@@ -10547,7 +10553,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>177</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>178</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>154</v>
       </c>
@@ -10649,7 +10655,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>155</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>156</v>
       </c>
@@ -10717,7 +10723,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>157</v>
       </c>
@@ -10751,7 +10757,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>179</v>
       </c>
@@ -10785,7 +10791,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>159</v>
       </c>
@@ -10819,7 +10825,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>180</v>
       </c>
@@ -10853,7 +10859,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>181</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -10921,7 +10927,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>107</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>169</v>
       </c>
@@ -10989,7 +10995,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>111</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>170</v>
       </c>
@@ -11057,7 +11063,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>112</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>113</v>
       </c>
@@ -11125,7 +11131,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>171</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>114</v>
       </c>
@@ -11193,7 +11199,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>130</v>
       </c>
@@ -11227,7 +11233,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -11261,7 +11267,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -11295,7 +11301,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>33</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>34</v>
       </c>
@@ -11363,7 +11369,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -11397,7 +11403,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>62</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>63</v>
       </c>
@@ -11465,7 +11471,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>64</v>
       </c>
@@ -11499,7 +11505,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>65</v>
       </c>
@@ -11533,7 +11539,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>66</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>67</v>
       </c>
@@ -11635,7 +11641,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>69</v>
       </c>
@@ -11669,7 +11675,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>70</v>
       </c>
@@ -11703,7 +11709,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>71</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>72</v>
       </c>
@@ -11771,7 +11777,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -11805,7 +11811,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -11839,7 +11845,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>75</v>
       </c>
@@ -11873,7 +11879,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>76</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>77</v>
       </c>
@@ -11941,7 +11947,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>78</v>
       </c>
@@ -11975,7 +11981,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>79</v>
       </c>
@@ -12009,7 +12015,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>85</v>
       </c>
@@ -12043,7 +12049,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>86</v>
       </c>
@@ -12077,7 +12083,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>89</v>
       </c>
@@ -12111,7 +12117,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>90</v>
       </c>
@@ -12145,7 +12151,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>95</v>
       </c>
@@ -12179,7 +12185,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>168</v>
       </c>
@@ -12213,7 +12219,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>116</v>
       </c>
@@ -12247,7 +12253,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>120</v>
       </c>
@@ -12281,7 +12287,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>122</v>
       </c>
@@ -12315,7 +12321,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>128</v>
       </c>
@@ -12349,7 +12355,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>129</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>174</v>
       </c>
@@ -12417,7 +12423,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>132</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>144</v>
       </c>
@@ -12485,7 +12491,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>152</v>
       </c>
@@ -12519,7 +12525,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -12553,7 +12559,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>160</v>
       </c>
@@ -12587,7 +12593,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -12621,7 +12627,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -12655,7 +12661,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -12689,7 +12695,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>188</v>
       </c>
@@ -12723,7 +12729,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>30</v>
       </c>
@@ -12757,7 +12763,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12791,7 +12797,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>31</v>
       </c>
@@ -12825,7 +12831,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>31</v>
       </c>
@@ -12859,7 +12865,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>32</v>
       </c>
@@ -12893,7 +12899,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>32</v>
       </c>
@@ -12927,7 +12933,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>189</v>
       </c>
@@ -12961,7 +12967,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -12995,7 +13001,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>33</v>
       </c>
@@ -13029,7 +13035,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -13063,7 +13069,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -13131,7 +13137,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>36</v>
       </c>
@@ -13165,7 +13171,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>36</v>
       </c>
@@ -13199,7 +13205,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>37</v>
       </c>
@@ -13233,7 +13239,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>37</v>
       </c>
@@ -13267,7 +13273,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>37</v>
       </c>
@@ -13301,7 +13307,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>190</v>
       </c>
@@ -13335,7 +13341,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>38</v>
       </c>
@@ -13369,7 +13375,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>38</v>
       </c>
@@ -13403,7 +13409,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>38</v>
       </c>
@@ -13437,7 +13443,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>164</v>
       </c>
@@ -13471,7 +13477,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>164</v>
       </c>
@@ -13505,7 +13511,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>191</v>
       </c>
@@ -13539,7 +13545,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>40</v>
       </c>
@@ -13573,7 +13579,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>40</v>
       </c>
@@ -13607,7 +13613,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>40</v>
       </c>
@@ -13641,7 +13647,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -13675,7 +13681,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>41</v>
       </c>
@@ -13709,7 +13715,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>41</v>
       </c>
@@ -13743,7 +13749,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>42</v>
       </c>
@@ -13777,7 +13783,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -13811,7 +13817,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>42</v>
       </c>
@@ -13845,7 +13851,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>43</v>
       </c>
@@ -13879,7 +13885,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -13913,7 +13919,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>44</v>
       </c>
@@ -13947,7 +13953,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>45</v>
       </c>
@@ -13981,7 +13987,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>45</v>
       </c>
@@ -14015,7 +14021,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>45</v>
       </c>
@@ -14049,7 +14055,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>46</v>
       </c>
@@ -14083,7 +14089,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>47</v>
       </c>
@@ -14117,7 +14123,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>48</v>
       </c>
@@ -14151,7 +14157,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>48</v>
       </c>
@@ -14185,7 +14191,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>49</v>
       </c>
@@ -14219,7 +14225,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>49</v>
       </c>
@@ -14253,7 +14259,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>193</v>
       </c>
@@ -14287,7 +14293,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>165</v>
       </c>
@@ -14321,7 +14327,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>216</v>
       </c>
@@ -14355,7 +14361,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>51</v>
       </c>
@@ -14389,7 +14395,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>51</v>
       </c>
@@ -14423,7 +14429,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>52</v>
       </c>
@@ -14457,7 +14463,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>53</v>
       </c>
@@ -14488,7 +14494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>53</v>
       </c>
@@ -14522,7 +14528,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>54</v>
       </c>
@@ -14556,7 +14562,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>54</v>
       </c>
@@ -14590,7 +14596,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>55</v>
       </c>
@@ -14624,7 +14630,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>55</v>
       </c>
@@ -14658,7 +14664,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>56</v>
       </c>
@@ -14692,7 +14698,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>56</v>
       </c>
@@ -14726,7 +14732,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>56</v>
       </c>
@@ -14760,7 +14766,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>57</v>
       </c>
@@ -14794,7 +14800,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>57</v>
       </c>
@@ -14828,7 +14834,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>57</v>
       </c>
@@ -14862,7 +14868,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>58</v>
       </c>
@@ -14896,7 +14902,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>59</v>
       </c>
@@ -14930,7 +14936,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>60</v>
       </c>
@@ -14964,7 +14970,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>60</v>
       </c>
@@ -14998,7 +15004,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>60</v>
       </c>
@@ -15032,7 +15038,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>61</v>
       </c>
@@ -15066,7 +15072,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>62</v>
       </c>
@@ -15100,7 +15106,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>62</v>
       </c>
@@ -15134,7 +15140,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>62</v>
       </c>
@@ -15168,7 +15174,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>63</v>
       </c>
@@ -15202,7 +15208,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>63</v>
       </c>
@@ -15236,7 +15242,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>64</v>
       </c>
@@ -15270,7 +15276,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>65</v>
       </c>
@@ -15304,7 +15310,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>65</v>
       </c>
@@ -15338,7 +15344,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>66</v>
       </c>
@@ -15372,7 +15378,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>66</v>
       </c>
@@ -15406,7 +15412,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>194</v>
       </c>
@@ -15440,7 +15446,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>67</v>
       </c>
@@ -15576,7 +15582,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>69</v>
       </c>
@@ -15610,7 +15616,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>69</v>
       </c>
@@ -15644,7 +15650,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>69</v>
       </c>
@@ -15678,7 +15684,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>70</v>
       </c>
@@ -15712,7 +15718,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>195</v>
       </c>
@@ -15746,7 +15752,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>71</v>
       </c>
@@ -15780,7 +15786,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>71</v>
       </c>
@@ -15814,7 +15820,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>71</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>72</v>
       </c>
@@ -15882,7 +15888,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>73</v>
       </c>
@@ -15916,7 +15922,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>73</v>
       </c>
@@ -15950,7 +15956,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>73</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>74</v>
       </c>
@@ -16018,7 +16024,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>75</v>
       </c>
@@ -16052,7 +16058,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>75</v>
       </c>
@@ -16086,7 +16092,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>75</v>
       </c>
@@ -16120,7 +16126,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>76</v>
       </c>
@@ -16154,7 +16160,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>77</v>
       </c>
@@ -16188,7 +16194,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>77</v>
       </c>
@@ -16222,7 +16228,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>77</v>
       </c>
@@ -16256,7 +16262,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>78</v>
       </c>
@@ -16290,7 +16296,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>79</v>
       </c>
@@ -16324,7 +16330,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -16358,7 +16364,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>196</v>
       </c>
@@ -16392,7 +16398,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>80</v>
       </c>
@@ -16426,7 +16432,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>81</v>
       </c>
@@ -16460,7 +16466,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>81</v>
       </c>
@@ -16494,7 +16500,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -16528,7 +16534,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>83</v>
       </c>
@@ -16562,7 +16568,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>197</v>
       </c>
@@ -16596,7 +16602,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>84</v>
       </c>
@@ -16630,7 +16636,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>84</v>
       </c>
@@ -16664,7 +16670,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>84</v>
       </c>
@@ -16698,7 +16704,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>85</v>
       </c>
@@ -16732,7 +16738,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>86</v>
       </c>
@@ -16766,7 +16772,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>86</v>
       </c>
@@ -16800,7 +16806,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>86</v>
       </c>
@@ -16834,7 +16840,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>87</v>
       </c>
@@ -16868,7 +16874,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>87</v>
       </c>
@@ -16902,7 +16908,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>88</v>
       </c>
@@ -16936,7 +16942,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>88</v>
       </c>
@@ -16970,7 +16976,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>89</v>
       </c>
@@ -17004,7 +17010,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>89</v>
       </c>
@@ -17038,7 +17044,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>90</v>
       </c>
@@ -17072,7 +17078,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>90</v>
       </c>
@@ -17106,7 +17112,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>198</v>
       </c>
@@ -17140,7 +17146,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>199</v>
       </c>
@@ -17174,7 +17180,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>200</v>
       </c>
@@ -17208,7 +17214,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>201</v>
       </c>
@@ -17242,7 +17248,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>202</v>
       </c>
@@ -17276,7 +17282,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>91</v>
       </c>
@@ -17310,7 +17316,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>92</v>
       </c>
@@ -17344,7 +17350,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>92</v>
       </c>
@@ -17378,7 +17384,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>92</v>
       </c>
@@ -17412,7 +17418,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>93</v>
       </c>
@@ -17446,7 +17452,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>93</v>
       </c>
@@ -17480,7 +17486,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>94</v>
       </c>
@@ -17514,7 +17520,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>95</v>
       </c>
@@ -17548,7 +17554,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>95</v>
       </c>
@@ -17582,7 +17588,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>96</v>
       </c>
@@ -17616,7 +17622,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>96</v>
       </c>
@@ -17650,7 +17656,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>96</v>
       </c>
@@ -17684,7 +17690,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>97</v>
       </c>
@@ -17718,7 +17724,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>97</v>
       </c>
@@ -17752,7 +17758,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>97</v>
       </c>
@@ -17786,7 +17792,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>168</v>
       </c>
@@ -17820,7 +17826,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>98</v>
       </c>
@@ -17854,7 +17860,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>98</v>
       </c>
@@ -17888,7 +17894,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>98</v>
       </c>
@@ -17922,7 +17928,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>99</v>
       </c>
@@ -17956,7 +17962,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>100</v>
       </c>
@@ -17990,7 +17996,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>100</v>
       </c>
@@ -18024,7 +18030,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>100</v>
       </c>
@@ -18058,7 +18064,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>101</v>
       </c>
@@ -18092,7 +18098,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>102</v>
       </c>
@@ -18126,7 +18132,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>102</v>
       </c>
@@ -18160,7 +18166,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>102</v>
       </c>
@@ -18194,7 +18200,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>203</v>
       </c>
@@ -18228,7 +18234,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>204</v>
       </c>
@@ -18262,7 +18268,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>205</v>
       </c>
@@ -18296,7 +18302,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>103</v>
       </c>
@@ -18330,7 +18336,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>103</v>
       </c>
@@ -18364,7 +18370,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>104</v>
       </c>
@@ -18398,7 +18404,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>104</v>
       </c>
@@ -18432,7 +18438,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>104</v>
       </c>
@@ -18466,7 +18472,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>105</v>
       </c>
@@ -18500,7 +18506,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>105</v>
       </c>
@@ -18534,7 +18540,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>106</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>106</v>
       </c>
@@ -18602,7 +18608,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>106</v>
       </c>
@@ -18636,7 +18642,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>107</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>107</v>
       </c>
@@ -18704,7 +18710,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>107</v>
       </c>
@@ -18738,7 +18744,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>108</v>
       </c>
@@ -18772,7 +18778,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>108</v>
       </c>
@@ -18806,7 +18812,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>206</v>
       </c>
@@ -18840,7 +18846,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>207</v>
       </c>
@@ -18874,7 +18880,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>109</v>
       </c>
@@ -18908,7 +18914,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>109</v>
       </c>
@@ -18942,7 +18948,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>110</v>
       </c>
@@ -18976,7 +18982,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>110</v>
       </c>
@@ -19010,7 +19016,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>110</v>
       </c>
@@ -19044,7 +19050,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>111</v>
       </c>
@@ -19078,7 +19084,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>111</v>
       </c>
@@ -19112,7 +19118,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>111</v>
       </c>
@@ -19146,7 +19152,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>170</v>
       </c>
@@ -19180,7 +19186,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>112</v>
       </c>
@@ -19214,7 +19220,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>112</v>
       </c>
@@ -19248,7 +19254,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>113</v>
       </c>
@@ -19282,7 +19288,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>113</v>
       </c>
@@ -19316,7 +19322,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>113</v>
       </c>
@@ -19350,7 +19356,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>114</v>
       </c>
@@ -19384,7 +19390,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>208</v>
       </c>
@@ -19418,7 +19424,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>115</v>
       </c>
@@ -19452,7 +19458,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>115</v>
       </c>
@@ -19486,7 +19492,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>115</v>
       </c>
@@ -19520,7 +19526,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>116</v>
       </c>
@@ -19554,7 +19560,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>117</v>
       </c>
@@ -19588,7 +19594,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>117</v>
       </c>
@@ -19622,7 +19628,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>117</v>
       </c>
@@ -19656,7 +19662,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>118</v>
       </c>
@@ -19690,7 +19696,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>118</v>
       </c>
@@ -19724,7 +19730,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>118</v>
       </c>
@@ -19758,7 +19764,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>119</v>
       </c>
@@ -19792,7 +19798,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>119</v>
       </c>
@@ -19826,7 +19832,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>120</v>
       </c>
@@ -19860,7 +19866,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>120</v>
       </c>
@@ -19894,7 +19900,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>121</v>
       </c>
@@ -19928,7 +19934,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>121</v>
       </c>
@@ -19962,7 +19968,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>186</v>
       </c>
@@ -19996,7 +20002,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>122</v>
       </c>
@@ -20030,7 +20036,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>123</v>
       </c>
@@ -20064,7 +20070,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>124</v>
       </c>
@@ -20098,7 +20104,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>125</v>
       </c>
@@ -20132,7 +20138,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>126</v>
       </c>
@@ -20166,7 +20172,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>127</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>173</v>
       </c>
@@ -20234,7 +20240,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>209</v>
       </c>
@@ -20268,7 +20274,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>128</v>
       </c>
@@ -20302,7 +20308,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>128</v>
       </c>
@@ -20336,7 +20342,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>129</v>
       </c>
@@ -20370,7 +20376,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>130</v>
       </c>
@@ -20404,7 +20410,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>130</v>
       </c>
@@ -20438,7 +20444,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>130</v>
       </c>
@@ -20472,7 +20478,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>131</v>
       </c>
@@ -20506,7 +20512,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>132</v>
       </c>
@@ -20540,7 +20546,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>133</v>
       </c>
@@ -20574,7 +20580,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>133</v>
       </c>
@@ -20608,7 +20614,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>133</v>
       </c>
@@ -20642,7 +20648,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>134</v>
       </c>
@@ -20676,7 +20682,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>134</v>
       </c>
@@ -20710,7 +20716,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>135</v>
       </c>
@@ -20744,7 +20750,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>136</v>
       </c>
@@ -20778,7 +20784,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>137</v>
       </c>
@@ -20812,7 +20818,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>138</v>
       </c>
@@ -20846,7 +20852,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>210</v>
       </c>
@@ -20880,7 +20886,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>139</v>
       </c>
@@ -20914,7 +20920,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>140</v>
       </c>
@@ -20948,7 +20954,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>140</v>
       </c>
@@ -20982,7 +20988,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>140</v>
       </c>
@@ -21016,7 +21022,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>141</v>
       </c>
@@ -21050,7 +21056,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>141</v>
       </c>
@@ -21084,7 +21090,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>142</v>
       </c>
@@ -21118,7 +21124,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>176</v>
       </c>
@@ -21152,7 +21158,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>143</v>
       </c>
@@ -21186,7 +21192,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>144</v>
       </c>
@@ -21220,7 +21226,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>144</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>145</v>
       </c>
@@ -21288,7 +21294,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>145</v>
       </c>
@@ -21322,7 +21328,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>145</v>
       </c>
@@ -21356,7 +21362,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>146</v>
       </c>
@@ -21390,7 +21396,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>146</v>
       </c>
@@ -21424,7 +21430,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>147</v>
       </c>
@@ -21458,7 +21464,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>147</v>
       </c>
@@ -21492,7 +21498,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>148</v>
       </c>
@@ -21526,7 +21532,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>211</v>
       </c>
@@ -21560,7 +21566,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>149</v>
       </c>
@@ -21594,7 +21600,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>149</v>
       </c>
@@ -21628,7 +21634,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>212</v>
       </c>
@@ -21662,7 +21668,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>150</v>
       </c>
@@ -21696,7 +21702,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>150</v>
       </c>
@@ -21730,7 +21736,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>151</v>
       </c>
@@ -21764,7 +21770,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>151</v>
       </c>
@@ -21798,7 +21804,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>152</v>
       </c>
@@ -21832,7 +21838,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>152</v>
       </c>
@@ -21866,7 +21872,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>152</v>
       </c>
@@ -21900,7 +21906,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>213</v>
       </c>
@@ -21934,7 +21940,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>177</v>
       </c>
@@ -21968,7 +21974,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>178</v>
       </c>
@@ -22002,7 +22008,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>214</v>
       </c>
@@ -22036,7 +22042,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>153</v>
       </c>
@@ -22070,7 +22076,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>154</v>
       </c>
@@ -22104,7 +22110,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>154</v>
       </c>
@@ -22138,7 +22144,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>154</v>
       </c>
@@ -22172,7 +22178,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>155</v>
       </c>
@@ -22206,7 +22212,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>155</v>
       </c>
@@ -22240,7 +22246,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>156</v>
       </c>
@@ -22274,7 +22280,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>156</v>
       </c>
@@ -22308,7 +22314,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>157</v>
       </c>
@@ -22342,7 +22348,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>215</v>
       </c>
@@ -22376,7 +22382,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>158</v>
       </c>
@@ -22410,7 +22416,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>159</v>
       </c>
@@ -22444,7 +22450,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>159</v>
       </c>
@@ -22478,7 +22484,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>160</v>
       </c>

--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F655B0-B785-4496-BFB2-1EDA13DB477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E33AD6-52C2-43F2-8B5A-F398391907B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="217">
   <si>
     <t>Curso</t>
   </si>
@@ -797,14 +797,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F630" totalsRowShown="0">
-  <autoFilter ref="A1:F630" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ENGENHARIA CIVIL"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F631" totalsRowShown="0">
+  <autoFilter ref="A1:F631" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F338">
     <sortCondition ref="B1:B338"/>
   </sortState>
@@ -1099,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F630"/>
+  <dimension ref="A1:F631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1271,7 +1265,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1305,7 +1299,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -1339,7 +1333,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1367,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1509,7 +1503,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1543,7 +1537,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -1611,7 +1605,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1815,7 +1809,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1917,7 +1911,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1951,7 +1945,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2019,7 +2013,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2189,7 +2183,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -2223,7 +2217,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2257,7 +2251,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -2291,7 +2285,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2325,7 +2319,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2359,7 +2353,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2427,7 +2421,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2495,7 +2489,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2529,7 +2523,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2563,7 +2557,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2631,7 +2625,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -2665,7 +2659,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -2699,7 +2693,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -2733,7 +2727,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2767,7 +2761,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -2835,7 +2829,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -2869,7 +2863,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -2903,7 +2897,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>123</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3005,7 +2999,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3039,7 +3033,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -3073,7 +3067,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -3141,7 +3135,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -3413,7 +3407,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -3447,7 +3441,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -3481,7 +3475,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -3515,7 +3509,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -3583,7 +3577,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -3617,7 +3611,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -3685,7 +3679,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -3719,7 +3713,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -3787,7 +3781,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -3821,7 +3815,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>154</v>
       </c>
@@ -3855,7 +3849,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -3889,7 +3883,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>157</v>
       </c>
@@ -3957,7 +3951,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -3991,7 +3985,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -4025,7 +4019,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -4059,7 +4053,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -4093,7 +4087,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -4127,7 +4121,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -4161,7 +4155,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +4189,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -4229,7 +4223,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -4263,7 +4257,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>38</v>
       </c>
@@ -4297,7 +4291,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -4331,7 +4325,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -4365,7 +4359,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -4399,7 +4393,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -4433,7 +4427,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>44</v>
       </c>
@@ -4467,7 +4461,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -4501,7 +4495,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -4535,7 +4529,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>48</v>
       </c>
@@ -4569,7 +4563,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -4603,7 +4597,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -4637,7 +4631,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -4671,7 +4665,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -4705,7 +4699,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -4739,7 +4733,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -4773,7 +4767,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>56</v>
       </c>
@@ -4807,7 +4801,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>57</v>
       </c>
@@ -4841,7 +4835,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -4875,7 +4869,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>60</v>
       </c>
@@ -4909,7 +4903,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -4943,7 +4937,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4977,7 +4971,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -5011,7 +5005,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -5045,7 +5039,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -5079,7 +5073,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -5113,7 +5107,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>67</v>
       </c>
@@ -5147,7 +5141,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>69</v>
       </c>
@@ -5181,7 +5175,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -5215,7 +5209,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -5249,7 +5243,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -5283,7 +5277,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>76</v>
       </c>
@@ -5317,7 +5311,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -5351,7 +5345,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>79</v>
       </c>
@@ -5385,7 +5379,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>80</v>
       </c>
@@ -5419,7 +5413,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>81</v>
       </c>
@@ -5453,7 +5447,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>83</v>
       </c>
@@ -5487,7 +5481,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>84</v>
       </c>
@@ -5521,7 +5515,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>85</v>
       </c>
@@ -5555,7 +5549,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>87</v>
       </c>
@@ -5589,7 +5583,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -5623,7 +5617,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -5657,7 +5651,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>90</v>
       </c>
@@ -5691,7 +5685,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -5725,7 +5719,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -5759,7 +5753,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>93</v>
       </c>
@@ -5793,7 +5787,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>94</v>
       </c>
@@ -5827,7 +5821,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -5895,7 +5889,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>98</v>
       </c>
@@ -5929,7 +5923,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>100</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>102</v>
       </c>
@@ -5997,7 +5991,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -6031,7 +6025,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -6065,7 +6059,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>106</v>
       </c>
@@ -6099,7 +6093,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>107</v>
       </c>
@@ -6133,7 +6127,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>108</v>
       </c>
@@ -6167,7 +6161,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>109</v>
       </c>
@@ -6201,7 +6195,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>110</v>
       </c>
@@ -6235,7 +6229,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>111</v>
       </c>
@@ -6269,7 +6263,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -6303,7 +6297,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -6337,7 +6331,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -6371,7 +6365,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>115</v>
       </c>
@@ -6405,7 +6399,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>116</v>
       </c>
@@ -6439,7 +6433,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -6473,7 +6467,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>118</v>
       </c>
@@ -6507,7 +6501,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -6541,7 +6535,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>120</v>
       </c>
@@ -6575,7 +6569,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>186</v>
       </c>
@@ -6609,7 +6603,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -6643,7 +6637,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>123</v>
       </c>
@@ -6677,7 +6671,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>124</v>
       </c>
@@ -6711,7 +6705,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>125</v>
       </c>
@@ -6745,7 +6739,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -6779,7 +6773,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -6813,7 +6807,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>129</v>
       </c>
@@ -6847,7 +6841,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -6881,7 +6875,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>133</v>
       </c>
@@ -6915,7 +6909,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>134</v>
       </c>
@@ -6949,7 +6943,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>135</v>
       </c>
@@ -6983,7 +6977,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>136</v>
       </c>
@@ -7017,7 +7011,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>137</v>
       </c>
@@ -7051,7 +7045,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>139</v>
       </c>
@@ -7085,7 +7079,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>140</v>
       </c>
@@ -7119,7 +7113,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>141</v>
       </c>
@@ -7153,7 +7147,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>142</v>
       </c>
@@ -7187,7 +7181,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>143</v>
       </c>
@@ -7221,7 +7215,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>144</v>
       </c>
@@ -7255,7 +7249,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>145</v>
       </c>
@@ -7289,7 +7283,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>146</v>
       </c>
@@ -7323,7 +7317,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>147</v>
       </c>
@@ -7357,7 +7351,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -7391,7 +7385,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>149</v>
       </c>
@@ -7425,7 +7419,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -7459,7 +7453,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>154</v>
       </c>
@@ -7493,7 +7487,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>155</v>
       </c>
@@ -7527,7 +7521,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>156</v>
       </c>
@@ -7561,7 +7555,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>157</v>
       </c>
@@ -7595,7 +7589,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>159</v>
       </c>
@@ -7629,7 +7623,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>160</v>
       </c>
@@ -7663,7 +7657,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -7697,7 +7691,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>31</v>
       </c>
@@ -7731,7 +7725,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>162</v>
       </c>
@@ -7765,7 +7759,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>163</v>
       </c>
@@ -7799,7 +7793,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -7833,7 +7827,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -7867,7 +7861,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>38</v>
       </c>
@@ -7901,7 +7895,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>164</v>
       </c>
@@ -7935,7 +7929,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -7969,7 +7963,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -8003,7 +7997,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -8037,7 +8031,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -8071,7 +8065,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>44</v>
       </c>
@@ -8105,7 +8099,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>45</v>
       </c>
@@ -8139,7 +8133,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -8173,7 +8167,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -8207,7 +8201,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -8241,7 +8235,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>165</v>
       </c>
@@ -8275,7 +8269,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>50</v>
       </c>
@@ -8309,7 +8303,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>51</v>
       </c>
@@ -8343,7 +8337,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>166</v>
       </c>
@@ -8377,7 +8371,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>53</v>
       </c>
@@ -8411,7 +8405,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>54</v>
       </c>
@@ -8445,7 +8439,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>55</v>
       </c>
@@ -8479,7 +8473,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>56</v>
       </c>
@@ -8513,7 +8507,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>57</v>
       </c>
@@ -8547,7 +8541,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -8581,7 +8575,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>59</v>
       </c>
@@ -8615,7 +8609,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -8649,7 +8643,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>74</v>
       </c>
@@ -8683,7 +8677,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>80</v>
       </c>
@@ -8717,7 +8711,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>81</v>
       </c>
@@ -8751,7 +8745,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>83</v>
       </c>
@@ -8785,7 +8779,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>84</v>
       </c>
@@ -8819,7 +8813,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>87</v>
       </c>
@@ -8853,7 +8847,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>88</v>
       </c>
@@ -8887,7 +8881,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -8921,7 +8915,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -8955,7 +8949,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -8989,7 +8983,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>93</v>
       </c>
@@ -9023,7 +9017,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>94</v>
       </c>
@@ -9057,7 +9051,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>96</v>
       </c>
@@ -9091,7 +9085,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>97</v>
       </c>
@@ -9125,7 +9119,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>98</v>
       </c>
@@ -9159,7 +9153,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -9193,7 +9187,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>100</v>
       </c>
@@ -9227,7 +9221,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>102</v>
       </c>
@@ -9261,7 +9255,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>103</v>
       </c>
@@ -9295,7 +9289,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>104</v>
       </c>
@@ -9329,7 +9323,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>106</v>
       </c>
@@ -9363,7 +9357,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>107</v>
       </c>
@@ -9397,7 +9391,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>108</v>
       </c>
@@ -9431,7 +9425,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>109</v>
       </c>
@@ -9465,7 +9459,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>110</v>
       </c>
@@ -9499,7 +9493,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>115</v>
       </c>
@@ -9533,7 +9527,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>117</v>
       </c>
@@ -9567,7 +9561,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>118</v>
       </c>
@@ -9601,7 +9595,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>172</v>
       </c>
@@ -9635,7 +9629,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>119</v>
       </c>
@@ -9669,7 +9663,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>121</v>
       </c>
@@ -9703,7 +9697,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>123</v>
       </c>
@@ -9737,7 +9731,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>124</v>
       </c>
@@ -9771,7 +9765,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>125</v>
       </c>
@@ -9805,7 +9799,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>126</v>
       </c>
@@ -9839,7 +9833,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>127</v>
       </c>
@@ -9873,7 +9867,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -9907,7 +9901,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>133</v>
       </c>
@@ -9941,7 +9935,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>134</v>
       </c>
@@ -9975,7 +9969,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>135</v>
       </c>
@@ -10009,7 +10003,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>136</v>
       </c>
@@ -10043,7 +10037,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>137</v>
       </c>
@@ -10077,7 +10071,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>138</v>
       </c>
@@ -10111,7 +10105,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>175</v>
       </c>
@@ -10145,7 +10139,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>140</v>
       </c>
@@ -10179,7 +10173,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>141</v>
       </c>
@@ -10213,7 +10207,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>142</v>
       </c>
@@ -10247,7 +10241,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>176</v>
       </c>
@@ -10281,7 +10275,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>143</v>
       </c>
@@ -10315,7 +10309,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>145</v>
       </c>
@@ -10349,7 +10343,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>146</v>
       </c>
@@ -10383,7 +10377,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>147</v>
       </c>
@@ -10417,7 +10411,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>148</v>
       </c>
@@ -10451,7 +10445,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>149</v>
       </c>
@@ -10485,7 +10479,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>150</v>
       </c>
@@ -10519,7 +10513,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>151</v>
       </c>
@@ -10553,7 +10547,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>177</v>
       </c>
@@ -10587,7 +10581,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>178</v>
       </c>
@@ -10621,7 +10615,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>154</v>
       </c>
@@ -10655,7 +10649,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>155</v>
       </c>
@@ -10689,7 +10683,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>156</v>
       </c>
@@ -10723,7 +10717,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>157</v>
       </c>
@@ -10757,7 +10751,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>179</v>
       </c>
@@ -10791,7 +10785,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>159</v>
       </c>
@@ -10825,7 +10819,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>180</v>
       </c>
@@ -10859,7 +10853,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>181</v>
       </c>
@@ -10893,7 +10887,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -10927,7 +10921,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>107</v>
       </c>
@@ -10961,7 +10955,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>169</v>
       </c>
@@ -10995,7 +10989,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>111</v>
       </c>
@@ -11029,7 +11023,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>170</v>
       </c>
@@ -11063,7 +11057,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>112</v>
       </c>
@@ -11097,7 +11091,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>113</v>
       </c>
@@ -11131,7 +11125,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>171</v>
       </c>
@@ -11165,7 +11159,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>114</v>
       </c>
@@ -11199,7 +11193,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>130</v>
       </c>
@@ -11233,7 +11227,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>30</v>
       </c>
@@ -11267,7 +11261,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -11301,7 +11295,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>33</v>
       </c>
@@ -11335,7 +11329,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>34</v>
       </c>
@@ -11369,7 +11363,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -11403,7 +11397,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>62</v>
       </c>
@@ -11437,7 +11431,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>63</v>
       </c>
@@ -11471,7 +11465,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>64</v>
       </c>
@@ -11505,7 +11499,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>65</v>
       </c>
@@ -11539,7 +11533,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>66</v>
       </c>
@@ -11573,7 +11567,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>67</v>
       </c>
@@ -11641,7 +11635,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>69</v>
       </c>
@@ -11675,7 +11669,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>70</v>
       </c>
@@ -11709,7 +11703,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>71</v>
       </c>
@@ -11743,7 +11737,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>72</v>
       </c>
@@ -11777,7 +11771,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>10</v>
       </c>
@@ -11811,7 +11805,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -11845,7 +11839,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>75</v>
       </c>
@@ -11879,7 +11873,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>76</v>
       </c>
@@ -11913,7 +11907,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>77</v>
       </c>
@@ -11947,7 +11941,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>78</v>
       </c>
@@ -11981,7 +11975,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>79</v>
       </c>
@@ -12015,7 +12009,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>85</v>
       </c>
@@ -12049,7 +12043,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>86</v>
       </c>
@@ -12083,7 +12077,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>89</v>
       </c>
@@ -12117,7 +12111,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>90</v>
       </c>
@@ -12151,7 +12145,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>95</v>
       </c>
@@ -12185,7 +12179,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>168</v>
       </c>
@@ -12219,7 +12213,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>116</v>
       </c>
@@ -12253,7 +12247,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>120</v>
       </c>
@@ -12287,7 +12281,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>122</v>
       </c>
@@ -12321,7 +12315,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>128</v>
       </c>
@@ -12355,7 +12349,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>129</v>
       </c>
@@ -12389,7 +12383,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>174</v>
       </c>
@@ -12423,7 +12417,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>132</v>
       </c>
@@ -12457,7 +12451,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>144</v>
       </c>
@@ -12491,7 +12485,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>152</v>
       </c>
@@ -12525,7 +12519,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>153</v>
       </c>
@@ -12559,7 +12553,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>160</v>
       </c>
@@ -12593,7 +12587,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -12627,7 +12621,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -12661,7 +12655,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -12695,7 +12689,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>188</v>
       </c>
@@ -12729,7 +12723,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>30</v>
       </c>
@@ -12763,7 +12757,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12797,7 +12791,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>31</v>
       </c>
@@ -12831,7 +12825,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>31</v>
       </c>
@@ -12865,7 +12859,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>32</v>
       </c>
@@ -12899,7 +12893,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>32</v>
       </c>
@@ -12933,7 +12927,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>189</v>
       </c>
@@ -12967,7 +12961,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -13001,7 +12995,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>33</v>
       </c>
@@ -13035,7 +13029,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>34</v>
       </c>
@@ -13069,7 +13063,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -13103,7 +13097,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -13137,7 +13131,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>36</v>
       </c>
@@ -13171,7 +13165,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>36</v>
       </c>
@@ -13205,7 +13199,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>37</v>
       </c>
@@ -13239,7 +13233,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>37</v>
       </c>
@@ -13273,7 +13267,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>37</v>
       </c>
@@ -13307,7 +13301,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>190</v>
       </c>
@@ -13341,7 +13335,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>38</v>
       </c>
@@ -13375,7 +13369,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>38</v>
       </c>
@@ -13409,7 +13403,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>38</v>
       </c>
@@ -13443,7 +13437,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>164</v>
       </c>
@@ -13477,7 +13471,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>164</v>
       </c>
@@ -13511,7 +13505,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>191</v>
       </c>
@@ -13545,7 +13539,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>40</v>
       </c>
@@ -13579,7 +13573,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>40</v>
       </c>
@@ -13613,7 +13607,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>40</v>
       </c>
@@ -13647,7 +13641,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>41</v>
       </c>
@@ -13681,7 +13675,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>41</v>
       </c>
@@ -13715,7 +13709,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>41</v>
       </c>
@@ -13749,7 +13743,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>42</v>
       </c>
@@ -13783,7 +13777,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>42</v>
       </c>
@@ -13817,7 +13811,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>42</v>
       </c>
@@ -13851,7 +13845,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>43</v>
       </c>
@@ -13885,7 +13879,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>192</v>
       </c>
@@ -13919,7 +13913,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>44</v>
       </c>
@@ -13953,7 +13947,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>45</v>
       </c>
@@ -13987,7 +13981,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>45</v>
       </c>
@@ -14021,7 +14015,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>45</v>
       </c>
@@ -14055,7 +14049,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>46</v>
       </c>
@@ -14089,7 +14083,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>47</v>
       </c>
@@ -14123,7 +14117,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>48</v>
       </c>
@@ -14157,7 +14151,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>48</v>
       </c>
@@ -14191,7 +14185,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>49</v>
       </c>
@@ -14225,7 +14219,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>49</v>
       </c>
@@ -14259,7 +14253,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>193</v>
       </c>
@@ -14293,7 +14287,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>165</v>
       </c>
@@ -14327,7 +14321,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>216</v>
       </c>
@@ -14361,7 +14355,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>51</v>
       </c>
@@ -14395,7 +14389,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>51</v>
       </c>
@@ -14429,7 +14423,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>52</v>
       </c>
@@ -14463,10 +14457,13 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>53</v>
       </c>
+      <c r="B394" t="s">
+        <v>184</v>
+      </c>
       <c r="C394" s="2">
         <v>8</v>
       </c>
@@ -14489,12 +14486,12 @@
 )</f>
         <v>0.65</v>
       </c>
-      <c r="F394" s="8" t="e" cm="1">
+      <c r="F394" s="8" t="str" cm="1">
         <f t="array" ref="F394">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>53</v>
       </c>
@@ -14528,7 +14525,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>54</v>
       </c>
@@ -14562,7 +14559,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>54</v>
       </c>
@@ -14596,7 +14593,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>55</v>
       </c>
@@ -14630,7 +14627,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>55</v>
       </c>
@@ -14664,7 +14661,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>56</v>
       </c>
@@ -14698,7 +14695,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>56</v>
       </c>
@@ -14732,7 +14729,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>56</v>
       </c>
@@ -14766,7 +14763,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>57</v>
       </c>
@@ -14800,7 +14797,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>57</v>
       </c>
@@ -14834,7 +14831,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>57</v>
       </c>
@@ -14868,7 +14865,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>58</v>
       </c>
@@ -14902,7 +14899,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>59</v>
       </c>
@@ -14936,7 +14933,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>60</v>
       </c>
@@ -14970,7 +14967,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>60</v>
       </c>
@@ -15004,7 +15001,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>60</v>
       </c>
@@ -15038,7 +15035,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>61</v>
       </c>
@@ -15072,7 +15069,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>62</v>
       </c>
@@ -15106,7 +15103,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>62</v>
       </c>
@@ -15140,7 +15137,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>62</v>
       </c>
@@ -15174,7 +15171,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>63</v>
       </c>
@@ -15208,7 +15205,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>63</v>
       </c>
@@ -15242,7 +15239,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>64</v>
       </c>
@@ -15276,7 +15273,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>65</v>
       </c>
@@ -15310,7 +15307,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>65</v>
       </c>
@@ -15344,7 +15341,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>66</v>
       </c>
@@ -15378,7 +15375,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>66</v>
       </c>
@@ -15412,7 +15409,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>194</v>
       </c>
@@ -15446,7 +15443,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>67</v>
       </c>
@@ -15582,7 +15579,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>69</v>
       </c>
@@ -15616,7 +15613,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>69</v>
       </c>
@@ -15650,7 +15647,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>69</v>
       </c>
@@ -15684,7 +15681,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>70</v>
       </c>
@@ -15718,7 +15715,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>195</v>
       </c>
@@ -15752,7 +15749,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>71</v>
       </c>
@@ -15786,7 +15783,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>71</v>
       </c>
@@ -15820,7 +15817,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>71</v>
       </c>
@@ -15854,7 +15851,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>72</v>
       </c>
@@ -15888,7 +15885,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>73</v>
       </c>
@@ -15922,7 +15919,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>73</v>
       </c>
@@ -15956,7 +15953,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>73</v>
       </c>
@@ -15990,7 +15987,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>74</v>
       </c>
@@ -16024,7 +16021,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>75</v>
       </c>
@@ -16058,7 +16055,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>75</v>
       </c>
@@ -16092,7 +16089,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>75</v>
       </c>
@@ -16126,7 +16123,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>76</v>
       </c>
@@ -16160,7 +16157,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>77</v>
       </c>
@@ -16194,7 +16191,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>77</v>
       </c>
@@ -16228,7 +16225,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>77</v>
       </c>
@@ -16262,7 +16259,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>78</v>
       </c>
@@ -16296,7 +16293,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>79</v>
       </c>
@@ -16330,7 +16327,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -16364,7 +16361,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>196</v>
       </c>
@@ -16398,7 +16395,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>80</v>
       </c>
@@ -16432,7 +16429,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>81</v>
       </c>
@@ -16466,7 +16463,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>81</v>
       </c>
@@ -16500,7 +16497,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -16534,7 +16531,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>83</v>
       </c>
@@ -16568,7 +16565,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>197</v>
       </c>
@@ -16602,7 +16599,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>84</v>
       </c>
@@ -16636,7 +16633,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>84</v>
       </c>
@@ -16670,7 +16667,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>84</v>
       </c>
@@ -16704,7 +16701,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>85</v>
       </c>
@@ -16738,7 +16735,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>86</v>
       </c>
@@ -16772,7 +16769,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>86</v>
       </c>
@@ -16806,7 +16803,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>86</v>
       </c>
@@ -16840,7 +16837,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>87</v>
       </c>
@@ -16874,7 +16871,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>87</v>
       </c>
@@ -16908,7 +16905,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>88</v>
       </c>
@@ -16942,7 +16939,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>88</v>
       </c>
@@ -16976,7 +16973,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>89</v>
       </c>
@@ -17010,7 +17007,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>89</v>
       </c>
@@ -17044,7 +17041,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>90</v>
       </c>
@@ -17078,7 +17075,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>90</v>
       </c>
@@ -17112,7 +17109,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>198</v>
       </c>
@@ -17146,7 +17143,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>199</v>
       </c>
@@ -17180,7 +17177,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>200</v>
       </c>
@@ -17214,7 +17211,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>201</v>
       </c>
@@ -17248,7 +17245,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>202</v>
       </c>
@@ -17282,7 +17279,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>91</v>
       </c>
@@ -17316,7 +17313,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>92</v>
       </c>
@@ -17350,7 +17347,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>92</v>
       </c>
@@ -17384,7 +17381,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>92</v>
       </c>
@@ -17418,7 +17415,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>93</v>
       </c>
@@ -17452,7 +17449,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>93</v>
       </c>
@@ -17486,7 +17483,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>94</v>
       </c>
@@ -17520,7 +17517,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>95</v>
       </c>
@@ -17554,7 +17551,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>95</v>
       </c>
@@ -17588,7 +17585,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>96</v>
       </c>
@@ -17622,7 +17619,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>96</v>
       </c>
@@ -17656,7 +17653,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>96</v>
       </c>
@@ -17690,7 +17687,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>97</v>
       </c>
@@ -17724,7 +17721,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>97</v>
       </c>
@@ -17758,7 +17755,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>97</v>
       </c>
@@ -17792,7 +17789,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>168</v>
       </c>
@@ -17826,7 +17823,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>98</v>
       </c>
@@ -17860,7 +17857,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>98</v>
       </c>
@@ -17894,7 +17891,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>98</v>
       </c>
@@ -17928,7 +17925,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>99</v>
       </c>
@@ -17962,7 +17959,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>100</v>
       </c>
@@ -17996,7 +17993,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>100</v>
       </c>
@@ -18030,7 +18027,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>100</v>
       </c>
@@ -18064,7 +18061,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>101</v>
       </c>
@@ -18098,7 +18095,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>102</v>
       </c>
@@ -18132,7 +18129,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>102</v>
       </c>
@@ -18166,7 +18163,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>102</v>
       </c>
@@ -18200,7 +18197,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>203</v>
       </c>
@@ -18234,7 +18231,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>204</v>
       </c>
@@ -18268,7 +18265,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>205</v>
       </c>
@@ -18302,7 +18299,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>103</v>
       </c>
@@ -18336,7 +18333,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>103</v>
       </c>
@@ -18370,7 +18367,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>104</v>
       </c>
@@ -18404,7 +18401,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>104</v>
       </c>
@@ -18438,7 +18435,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>104</v>
       </c>
@@ -18472,7 +18469,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>105</v>
       </c>
@@ -18506,7 +18503,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>105</v>
       </c>
@@ -18540,7 +18537,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>106</v>
       </c>
@@ -18574,7 +18571,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>106</v>
       </c>
@@ -18608,7 +18605,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>106</v>
       </c>
@@ -18642,7 +18639,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>107</v>
       </c>
@@ -18676,7 +18673,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>107</v>
       </c>
@@ -18710,7 +18707,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>107</v>
       </c>
@@ -18744,7 +18741,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>108</v>
       </c>
@@ -18778,7 +18775,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>108</v>
       </c>
@@ -18812,7 +18809,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>206</v>
       </c>
@@ -18846,7 +18843,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>207</v>
       </c>
@@ -18880,7 +18877,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>109</v>
       </c>
@@ -18914,7 +18911,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>109</v>
       </c>
@@ -18948,7 +18945,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>110</v>
       </c>
@@ -18982,7 +18979,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>110</v>
       </c>
@@ -19016,7 +19013,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>110</v>
       </c>
@@ -19050,7 +19047,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>111</v>
       </c>
@@ -19084,7 +19081,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>111</v>
       </c>
@@ -19118,7 +19115,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>111</v>
       </c>
@@ -19152,7 +19149,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>170</v>
       </c>
@@ -19186,7 +19183,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>112</v>
       </c>
@@ -19220,7 +19217,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>112</v>
       </c>
@@ -19254,7 +19251,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>113</v>
       </c>
@@ -19288,7 +19285,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>113</v>
       </c>
@@ -19322,7 +19319,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>113</v>
       </c>
@@ -19356,7 +19353,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>114</v>
       </c>
@@ -19390,7 +19387,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>208</v>
       </c>
@@ -19424,7 +19421,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>115</v>
       </c>
@@ -19458,7 +19455,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>115</v>
       </c>
@@ -19492,7 +19489,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>115</v>
       </c>
@@ -19526,7 +19523,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>116</v>
       </c>
@@ -19560,7 +19557,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>117</v>
       </c>
@@ -19594,7 +19591,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>117</v>
       </c>
@@ -19628,7 +19625,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>117</v>
       </c>
@@ -19662,7 +19659,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>118</v>
       </c>
@@ -19696,7 +19693,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>118</v>
       </c>
@@ -19730,7 +19727,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>118</v>
       </c>
@@ -19764,7 +19761,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>119</v>
       </c>
@@ -19798,7 +19795,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>119</v>
       </c>
@@ -19832,7 +19829,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>120</v>
       </c>
@@ -19866,7 +19863,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>120</v>
       </c>
@@ -19900,7 +19897,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>121</v>
       </c>
@@ -19934,7 +19931,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>121</v>
       </c>
@@ -19968,7 +19965,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>186</v>
       </c>
@@ -20002,7 +19999,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>122</v>
       </c>
@@ -20036,7 +20033,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>123</v>
       </c>
@@ -20070,7 +20067,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>124</v>
       </c>
@@ -20104,7 +20101,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>125</v>
       </c>
@@ -20138,7 +20135,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>126</v>
       </c>
@@ -20172,7 +20169,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>127</v>
       </c>
@@ -20206,7 +20203,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>173</v>
       </c>
@@ -20240,7 +20237,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>209</v>
       </c>
@@ -20274,7 +20271,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>128</v>
       </c>
@@ -20308,7 +20305,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>128</v>
       </c>
@@ -20342,7 +20339,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>129</v>
       </c>
@@ -20376,7 +20373,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>130</v>
       </c>
@@ -20410,7 +20407,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>130</v>
       </c>
@@ -20444,7 +20441,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>130</v>
       </c>
@@ -20478,7 +20475,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>131</v>
       </c>
@@ -20512,7 +20509,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>132</v>
       </c>
@@ -20546,7 +20543,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>133</v>
       </c>
@@ -20580,7 +20577,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>133</v>
       </c>
@@ -20614,7 +20611,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>133</v>
       </c>
@@ -20648,7 +20645,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>134</v>
       </c>
@@ -20682,7 +20679,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>134</v>
       </c>
@@ -20716,7 +20713,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>135</v>
       </c>
@@ -20750,7 +20747,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>136</v>
       </c>
@@ -20784,7 +20781,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>137</v>
       </c>
@@ -20818,7 +20815,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>138</v>
       </c>
@@ -20852,7 +20849,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>210</v>
       </c>
@@ -20886,7 +20883,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>139</v>
       </c>
@@ -20920,7 +20917,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>140</v>
       </c>
@@ -20954,7 +20951,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>140</v>
       </c>
@@ -20988,7 +20985,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>140</v>
       </c>
@@ -21022,7 +21019,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>141</v>
       </c>
@@ -21056,7 +21053,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>141</v>
       </c>
@@ -21090,7 +21087,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>142</v>
       </c>
@@ -21124,7 +21121,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>176</v>
       </c>
@@ -21158,7 +21155,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>143</v>
       </c>
@@ -21192,7 +21189,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>144</v>
       </c>
@@ -21226,7 +21223,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>144</v>
       </c>
@@ -21260,7 +21257,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>145</v>
       </c>
@@ -21294,7 +21291,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>145</v>
       </c>
@@ -21328,7 +21325,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>145</v>
       </c>
@@ -21362,7 +21359,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>146</v>
       </c>
@@ -21396,7 +21393,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>146</v>
       </c>
@@ -21430,7 +21427,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>147</v>
       </c>
@@ -21464,7 +21461,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>147</v>
       </c>
@@ -21498,7 +21495,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>148</v>
       </c>
@@ -21532,7 +21529,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>211</v>
       </c>
@@ -21566,7 +21563,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>149</v>
       </c>
@@ -21600,7 +21597,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>149</v>
       </c>
@@ -21634,7 +21631,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>212</v>
       </c>
@@ -21668,7 +21665,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>150</v>
       </c>
@@ -21702,7 +21699,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>150</v>
       </c>
@@ -21736,7 +21733,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>151</v>
       </c>
@@ -21770,7 +21767,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>151</v>
       </c>
@@ -21804,7 +21801,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>152</v>
       </c>
@@ -21838,7 +21835,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>152</v>
       </c>
@@ -21872,7 +21869,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>152</v>
       </c>
@@ -21906,7 +21903,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>213</v>
       </c>
@@ -21940,7 +21937,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>177</v>
       </c>
@@ -21974,7 +21971,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>178</v>
       </c>
@@ -22008,7 +22005,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>214</v>
       </c>
@@ -22042,7 +22039,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>153</v>
       </c>
@@ -22076,7 +22073,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>154</v>
       </c>
@@ -22110,7 +22107,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>154</v>
       </c>
@@ -22144,7 +22141,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>154</v>
       </c>
@@ -22178,7 +22175,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>155</v>
       </c>
@@ -22212,7 +22209,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>155</v>
       </c>
@@ -22246,7 +22243,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>156</v>
       </c>
@@ -22280,7 +22277,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>156</v>
       </c>
@@ -22314,7 +22311,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>157</v>
       </c>
@@ -22348,7 +22345,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>215</v>
       </c>
@@ -22382,7 +22379,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>158</v>
       </c>
@@ -22416,7 +22413,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>159</v>
       </c>
@@ -22450,7 +22447,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>159</v>
       </c>
@@ -22484,7 +22481,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>160</v>
       </c>
@@ -22516,6 +22513,40 @@
       <c r="F630" s="8" t="str" cm="1">
         <f t="array" ref="F630">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
         <v>PRESENCIAL</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>119</v>
+      </c>
+      <c r="B631" t="s">
+        <v>9</v>
+      </c>
+      <c r="C631" s="2">
+        <v>8</v>
+      </c>
+      <c r="D631" t="s">
+        <v>17</v>
+      </c>
+      <c r="E631" cm="1">
+        <f t="array" ref="E631">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F631" s="8" t="str" cm="1">
+        <f t="array" ref="F631">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>SEMIPRESENCIAL</v>
       </c>
     </row>
   </sheetData>

--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E33AD6-52C2-43F2-8B5A-F398391907B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC68DA-FE8D-4616-95DD-0BC431EC72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="217">
   <si>
     <t>Curso</t>
   </si>
@@ -797,8 +797,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F631" totalsRowShown="0">
-  <autoFilter ref="A1:F631" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F636" totalsRowShown="0">
+  <autoFilter ref="A1:F636" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F338">
     <sortCondition ref="B1:B338"/>
   </sortState>
@@ -1093,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F631"/>
+  <dimension ref="A1:F636"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22546,6 +22546,176 @@
       </c>
       <c r="F631" s="8" t="str" cm="1">
         <f t="array" ref="F631">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>SEMIPRESENCIAL</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>189</v>
+      </c>
+      <c r="B632" t="s">
+        <v>2</v>
+      </c>
+      <c r="C632" s="2">
+        <v>8</v>
+      </c>
+      <c r="D632" t="s">
+        <v>14</v>
+      </c>
+      <c r="E632" cm="1">
+        <f t="array" ref="E632">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F632" s="8" t="str" cm="1">
+        <f t="array" ref="F632">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>192</v>
+      </c>
+      <c r="B633" t="s">
+        <v>2</v>
+      </c>
+      <c r="C633" s="2">
+        <v>8</v>
+      </c>
+      <c r="D633" t="s">
+        <v>19</v>
+      </c>
+      <c r="E633" cm="1">
+        <f t="array" ref="E633">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.45</v>
+      </c>
+      <c r="F633" s="8" t="str" cm="1">
+        <f t="array" ref="F633">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>195</v>
+      </c>
+      <c r="B634" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634" s="2">
+        <v>10</v>
+      </c>
+      <c r="D634" t="s">
+        <v>15</v>
+      </c>
+      <c r="E634" cm="1">
+        <f t="array" ref="E634">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F634" s="8" t="str" cm="1">
+        <f t="array" ref="F634">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>SEMIPRESENCIAL</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>196</v>
+      </c>
+      <c r="B635" t="s">
+        <v>2</v>
+      </c>
+      <c r="C635" s="2">
+        <v>8</v>
+      </c>
+      <c r="D635" t="s">
+        <v>17</v>
+      </c>
+      <c r="E635" cm="1">
+        <f t="array" ref="E635">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F635" s="8" t="str" cm="1">
+        <f t="array" ref="F635">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>196</v>
+      </c>
+      <c r="B636" t="s">
+        <v>3</v>
+      </c>
+      <c r="C636" s="2">
+        <v>8</v>
+      </c>
+      <c r="D636" t="s">
+        <v>17</v>
+      </c>
+      <c r="E636" cm="1">
+        <f t="array" ref="E636">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F636" s="8" t="str" cm="1">
+        <f t="array" ref="F636">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>

--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC68DA-FE8D-4616-95DD-0BC431EC72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E602E9C-13EE-4758-87DC-9C1C37163CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="217">
   <si>
     <t>Curso</t>
   </si>
@@ -797,8 +797,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F636" totalsRowShown="0">
-  <autoFilter ref="A1:F636" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F641" totalsRowShown="0">
+  <autoFilter ref="A1:F641" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F338">
     <sortCondition ref="B1:B338"/>
   </sortState>
@@ -1093,17 +1093,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F636"/>
+  <dimension ref="A1:F641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="51.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="63.21875" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
@@ -22717,6 +22717,176 @@
       <c r="F636" s="8" t="str" cm="1">
         <f t="array" ref="F636">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
         <v>SEMIPRESENCIAL</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>101</v>
+      </c>
+      <c r="B637" t="s">
+        <v>2</v>
+      </c>
+      <c r="C637" s="2">
+        <v>8</v>
+      </c>
+      <c r="D637" t="s">
+        <v>11</v>
+      </c>
+      <c r="E637" cm="1">
+        <f t="array" ref="E637">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F637" s="8" t="str" cm="1">
+        <f t="array" ref="F637">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>205</v>
+      </c>
+      <c r="B638" t="s">
+        <v>2</v>
+      </c>
+      <c r="C638" s="2">
+        <v>8</v>
+      </c>
+      <c r="D638" t="s">
+        <v>7</v>
+      </c>
+      <c r="E638" cm="1">
+        <f t="array" ref="E638">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F638" s="8" t="str" cm="1">
+        <f t="array" ref="F638">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>105</v>
+      </c>
+      <c r="B639" t="s">
+        <v>3</v>
+      </c>
+      <c r="C639" s="2">
+        <v>8</v>
+      </c>
+      <c r="D639" t="s">
+        <v>16</v>
+      </c>
+      <c r="E639" cm="1">
+        <f t="array" ref="E639">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F639" s="8" t="str" cm="1">
+        <f t="array" ref="F639">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>SEMIPRESENCIAL</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>208</v>
+      </c>
+      <c r="B640" t="s">
+        <v>2</v>
+      </c>
+      <c r="C640" s="2">
+        <v>8</v>
+      </c>
+      <c r="D640" t="s">
+        <v>18</v>
+      </c>
+      <c r="E640" cm="1">
+        <f t="array" ref="E640">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.6</v>
+      </c>
+      <c r="F640" s="8" t="str" cm="1">
+        <f t="array" ref="F640">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>210</v>
+      </c>
+      <c r="B641" t="s">
+        <v>2</v>
+      </c>
+      <c r="C641" s="2">
+        <v>8</v>
+      </c>
+      <c r="D641" t="s">
+        <v>13</v>
+      </c>
+      <c r="E641" cm="1">
+        <f t="array" ref="E641">_xlfn.SWITCH(TRUE(),
+Table1[[#This Row],[Cluster]]="Agricultura, silvicultura, pesca e veterinária",25%,
+Table1[[#This Row],[Cluster]]="Artes e humanidades",65%,
+Table1[[#This Row],[Cluster]]="Ciências naturais, matemática e estatística",55%,
+Table1[[#This Row],[Cluster]]="Ciências sociais, comunicação e informação",45%,
+Table1[[#This Row],[Cluster]]="Computação e Tecnologias da Informação e Comunicação (TIC)",70%,
+Table1[[#This Row],[Cluster]]="Educação",60%,
+Table1[[#This Row],[Cluster]]="Engenharia, produção e construção",55%,
+Table1[[#This Row],[Cluster]]="Negócios, administração e direito",60%,
+Table1[[#This Row],[Cluster]]="Saúde e bem-estar",30%,
+Table1[[#This Row],[Cluster]]="Serviços",35%,
+0%
+)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F641" s="8" t="str" cm="1">
+        <f t="array" ref="F641">_xlfn.SWITCH(TRUE(), Table1[[#This Row],[Modelo]]="EAD 10.10", "LIVE", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]] = "Semi Presencial 40.20 Bacharelado", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial 30.20 Licenciatura", "SEMIPRESENCIAL", Table1[[#This Row],[Modelo]]="Presencial 70.30", "PRESENCIAL", Table1[[#This Row],[Modelo]]="Semi Presencial Atual", "SEMIPRESENCIAL",Table1[[#This Row],[Modelo]]="EAD Atual","LIVE", Table1[[#This Row],[Modelo]]="Presencial Atual", "PRESENCIAL")</f>
+        <v>LIVE</v>
       </c>
     </row>
   </sheetData>

--- a/databases/dimensao_curso_modelo.xlsx
+++ b/databases/dimensao_curso_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabalho\Anima\OneDrive - Administrativo - Ânima Educação\Projetos\Novo Modelo Acadêmico\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F7A89-67E7-4D82-9668-A339070BF8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645C2FE-E2EE-4685-92CD-CA3B6E8537E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,7 +798,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}" name="Table1" displayName="Table1" ref="A1:F649" totalsRowShown="0">
-  <autoFilter ref="A1:F649" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}"/>
+  <autoFilter ref="A1:F649" xr:uid="{A8C3500C-DEC0-4D9A-B773-3F5F7F82F1B6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Semi Presencial 30.20 Bacharelado"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Ciências naturais, matemática e estatística"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F649">
     <sortCondition ref="A1:A649"/>
   </sortState>
@@ -1096,13 +1107,13 @@
   <dimension ref="A1:F649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="63.21875" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
@@ -1129,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1174,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1242,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1344,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1401,7 +1412,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1469,7 +1480,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1548,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -1571,7 +1582,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -1605,7 +1616,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1639,7 +1650,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1741,7 +1752,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1843,7 +1854,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1911,7 +1922,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1945,7 +1956,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +1990,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2024,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2058,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -2081,7 +2092,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -2115,7 +2126,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2217,7 +2228,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2262,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2398,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2421,7 +2432,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2455,7 +2466,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2489,7 +2500,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2523,7 +2534,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2557,7 +2568,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2625,7 +2636,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2659,7 +2670,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2693,7 +2704,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2727,7 +2738,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2761,7 +2772,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2795,7 +2806,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -2863,7 +2874,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>164</v>
       </c>
@@ -2897,7 +2908,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -2931,7 +2942,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -2965,7 +2976,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>191</v>
       </c>
@@ -3033,7 +3044,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3067,7 +3078,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3180,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -3237,7 +3248,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -3271,7 +3282,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -3305,7 +3316,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3339,7 +3350,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3407,7 +3418,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -3475,7 +3486,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -3509,7 +3520,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -3577,7 +3588,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -3611,7 +3622,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -3679,7 +3690,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -3713,7 +3724,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>192</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>192</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -3951,7 +3962,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -4019,7 +4030,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -4053,7 +4064,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -4087,7 +4098,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -4189,7 +4200,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -4223,7 +4234,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -4257,7 +4268,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -4291,7 +4302,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -4325,7 +4336,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -4359,7 +4370,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -4461,7 +4472,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -4495,7 +4506,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -4529,7 +4540,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -4563,7 +4574,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>49</v>
       </c>
@@ -4597,7 +4608,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -4631,7 +4642,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>49</v>
       </c>
@@ -4665,7 +4676,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -4699,7 +4710,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -4733,7 +4744,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -4767,7 +4778,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -4801,7 +4812,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -4835,7 +4846,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -4869,7 +4880,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>50</v>
       </c>
@@ -4903,7 +4914,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>50</v>
       </c>
@@ -4937,7 +4948,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -5005,7 +5016,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -5039,7 +5050,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -5107,7 +5118,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>52</v>
       </c>
@@ -5141,7 +5152,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>166</v>
       </c>
@@ -5175,7 +5186,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>166</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>53</v>
       </c>
@@ -5243,7 +5254,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -5277,7 +5288,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>53</v>
       </c>
@@ -5311,7 +5322,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>53</v>
       </c>
@@ -5345,7 +5356,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>53</v>
       </c>
@@ -5379,7 +5390,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -5447,7 +5458,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -5481,7 +5492,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>54</v>
       </c>
@@ -5515,7 +5526,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -5549,7 +5560,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>55</v>
       </c>
@@ -5583,7 +5594,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>55</v>
       </c>
@@ -5617,7 +5628,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>55</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>55</v>
       </c>
@@ -5685,7 +5696,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -5753,7 +5764,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -5787,7 +5798,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -5821,7 +5832,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>56</v>
       </c>
@@ -5855,7 +5866,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -5889,7 +5900,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -5923,7 +5934,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>57</v>
       </c>
@@ -5957,7 +5968,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>57</v>
       </c>
@@ -5991,7 +6002,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>57</v>
       </c>
@@ -6025,7 +6036,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>57</v>
       </c>
@@ -6059,7 +6070,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>57</v>
       </c>
@@ -6093,7 +6104,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>57</v>
       </c>
@@ -6127,7 +6138,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -6161,7 +6172,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>58</v>
       </c>
@@ -6195,7 +6206,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -6229,7 +6240,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -6263,7 +6274,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>59</v>
       </c>
@@ -6297,7 +6308,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>59</v>
       </c>
@@ -6331,7 +6342,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>59</v>
       </c>
@@ -6365,7 +6376,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>60</v>
       </c>
@@ -6399,7 +6410,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -6433,7 +6444,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>60</v>
       </c>
@@ -6467,7 +6478,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -6501,7 +6512,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -6569,7 +6580,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>61</v>
       </c>
@@ -6603,7 +6614,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>61</v>
       </c>
@@ -6637,7 +6648,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>62</v>
       </c>
@@ -6671,7 +6682,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>62</v>
       </c>
@@ -6705,7 +6716,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>62</v>
       </c>
@@ -6739,7 +6750,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>62</v>
       </c>
@@ -6773,7 +6784,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -6807,7 +6818,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>63</v>
       </c>
@@ -6841,7 +6852,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>63</v>
       </c>
@@ -6875,7 +6886,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>63</v>
       </c>
@@ -6909,7 +6920,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>63</v>
       </c>
@@ -6943,7 +6954,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>64</v>
       </c>
@@ -6977,7 +6988,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>64</v>
       </c>
@@ -7011,7 +7022,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>64</v>
       </c>
@@ -7045,7 +7056,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>65</v>
       </c>
@@ -7079,7 +7090,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>65</v>
       </c>
@@ -7113,7 +7124,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>65</v>
       </c>
@@ -7147,7 +7158,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>65</v>
       </c>
@@ -7181,7 +7192,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>66</v>
       </c>
@@ -7215,7 +7226,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>66</v>
       </c>
@@ -7249,7 +7260,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>66</v>
       </c>
@@ -7283,7 +7294,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>66</v>
       </c>
@@ -7317,7 +7328,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -7351,7 +7362,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>67</v>
       </c>
@@ -7385,7 +7396,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>67</v>
       </c>
@@ -7419,7 +7430,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>67</v>
       </c>
@@ -7453,7 +7464,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>68</v>
       </c>
@@ -7487,7 +7498,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>68</v>
       </c>
@@ -7521,7 +7532,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>68</v>
       </c>
@@ -7555,7 +7566,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>68</v>
       </c>
@@ -7589,7 +7600,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -7623,7 +7634,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>69</v>
       </c>
@@ -7657,7 +7668,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>69</v>
       </c>
@@ -7691,7 +7702,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>69</v>
       </c>
@@ -7725,7 +7736,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>69</v>
       </c>
@@ -7759,7 +7770,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>70</v>
       </c>
@@ -7793,7 +7804,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>70</v>
       </c>
@@ -7827,7 +7838,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -7861,7 +7872,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>195</v>
       </c>
@@ -7895,7 +7906,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>71</v>
       </c>
@@ -7929,7 +7940,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>71</v>
       </c>
@@ -7963,7 +7974,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>71</v>
       </c>
@@ -7997,7 +8008,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>71</v>
       </c>
@@ -8031,7 +8042,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>71</v>
       </c>
@@ -8065,7 +8076,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>72</v>
       </c>
@@ -8099,7 +8110,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>72</v>
       </c>
@@ -8133,7 +8144,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>72</v>
       </c>
@@ -8167,7 +8178,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -8201,7 +8212,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>73</v>
       </c>
@@ -8235,7 +8246,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>73</v>
       </c>
@@ -8269,7 +8280,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>73</v>
       </c>
@@ -8303,7 +8314,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>73</v>
       </c>
@@ -8337,7 +8348,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>74</v>
       </c>
@@ -8371,7 +8382,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>74</v>
       </c>
@@ -8405,7 +8416,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>74</v>
       </c>
@@ -8439,7 +8450,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>74</v>
       </c>
@@ -8473,7 +8484,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>75</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>75</v>
       </c>
@@ -8541,7 +8552,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>75</v>
       </c>
@@ -8575,7 +8586,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>75</v>
       </c>
@@ -8609,7 +8620,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>76</v>
       </c>
@@ -8643,7 +8654,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>76</v>
       </c>
@@ -8677,7 +8688,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>76</v>
       </c>
@@ -8711,7 +8722,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>77</v>
       </c>
@@ -8745,7 +8756,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>77</v>
       </c>
@@ -8779,7 +8790,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>77</v>
       </c>
@@ -8813,7 +8824,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>77</v>
       </c>
@@ -8847,7 +8858,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>78</v>
       </c>
@@ -8881,7 +8892,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>78</v>
       </c>
@@ -8915,7 +8926,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>78</v>
       </c>
@@ -8949,7 +8960,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>79</v>
       </c>
@@ -8983,7 +8994,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>79</v>
       </c>
@@ -9017,7 +9028,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>79</v>
       </c>
@@ -9051,7 +9062,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>79</v>
       </c>
@@ -9085,7 +9096,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>196</v>
       </c>
@@ -9119,7 +9130,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>196</v>
       </c>
@@ -9187,7 +9198,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>80</v>
       </c>
@@ -9221,7 +9232,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>80</v>
       </c>
@@ -9255,7 +9266,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>80</v>
       </c>
@@ -9289,7 +9300,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>80</v>
       </c>
@@ -9323,7 +9334,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>81</v>
       </c>
@@ -9357,7 +9368,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>81</v>
       </c>
@@ -9391,7 +9402,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>81</v>
       </c>
@@ -9425,7 +9436,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>81</v>
       </c>
@@ -9459,7 +9470,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>81</v>
       </c>
@@ -9493,7 +9504,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>81</v>
       </c>
@@ -9527,7 +9538,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>83</v>
       </c>
@@ -9561,7 +9572,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>83</v>
       </c>
@@ -9595,7 +9606,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>83</v>
       </c>
@@ -9629,7 +9640,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>83</v>
       </c>
@@ -9663,7 +9674,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>197</v>
       </c>
@@ -9697,7 +9708,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>84</v>
       </c>
@@ -9731,7 +9742,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>84</v>
       </c>
@@ -9765,7 +9776,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>84</v>
       </c>
@@ -9799,7 +9810,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>84</v>
       </c>
@@ -9833,7 +9844,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>84</v>
       </c>
@@ -9867,7 +9878,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>84</v>
       </c>
@@ -9901,7 +9912,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>85</v>
       </c>
@@ -9935,7 +9946,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>85</v>
       </c>
@@ -9969,7 +9980,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>85</v>
       </c>
@@ -10003,7 +10014,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>86</v>
       </c>
@@ -10037,7 +10048,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>86</v>
       </c>
@@ -10071,7 +10082,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>86</v>
       </c>
@@ -10105,7 +10116,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>86</v>
       </c>
@@ -10139,7 +10150,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>87</v>
       </c>
@@ -10173,7 +10184,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>87</v>
       </c>
@@ -10207,7 +10218,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>87</v>
       </c>
@@ -10241,7 +10252,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>87</v>
       </c>
@@ -10275,7 +10286,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>87</v>
       </c>
@@ -10309,7 +10320,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>88</v>
       </c>
@@ -10377,7 +10388,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>88</v>
       </c>
@@ -10411,7 +10422,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>88</v>
       </c>
@@ -10445,7 +10456,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>89</v>
       </c>
@@ -10479,7 +10490,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>89</v>
       </c>
@@ -10513,7 +10524,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>89</v>
       </c>
@@ -10547,7 +10558,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>89</v>
       </c>
@@ -10581,7 +10592,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -10615,7 +10626,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -10649,7 +10660,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -10683,7 +10694,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -10717,7 +10728,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>198</v>
       </c>
@@ -10751,7 +10762,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>199</v>
       </c>
@@ -10785,7 +10796,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>200</v>
       </c>
@@ -10819,7 +10830,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>201</v>
       </c>
@@ -10853,7 +10864,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>202</v>
       </c>
@@ -10887,7 +10898,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>167</v>
       </c>
@@ -10921,7 +10932,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>167</v>
       </c>
@@ -10955,7 +10966,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>91</v>
       </c>
@@ -10989,7 +11000,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>91</v>
       </c>
@@ -11023,7 +11034,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>91</v>
       </c>
@@ -11057,7 +11068,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -11091,7 +11102,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>92</v>
       </c>
@@ -11125,7 +11136,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>92</v>
       </c>
@@ -11159,7 +11170,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>92</v>
       </c>
@@ -11193,7 +11204,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>92</v>
       </c>
@@ -11227,7 +11238,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>92</v>
       </c>
@@ -11261,7 +11272,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>92</v>
       </c>
@@ -11295,7 +11306,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>93</v>
       </c>
@@ -11329,7 +11340,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>93</v>
       </c>
@@ -11363,7 +11374,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>93</v>
       </c>
@@ -11397,7 +11408,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>93</v>
       </c>
@@ -11431,7 +11442,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>93</v>
       </c>
@@ -11465,7 +11476,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>94</v>
       </c>
@@ -11533,7 +11544,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>94</v>
       </c>
@@ -11567,7 +11578,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>95</v>
       </c>
@@ -11601,7 +11612,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>95</v>
       </c>
@@ -11635,7 +11646,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>95</v>
       </c>
@@ -11669,7 +11680,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>95</v>
       </c>
@@ -11703,7 +11714,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>96</v>
       </c>
@@ -11737,7 +11748,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>96</v>
       </c>
@@ -11771,7 +11782,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>96</v>
       </c>
@@ -11805,7 +11816,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>96</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>96</v>
       </c>
@@ -11873,7 +11884,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>96</v>
       </c>
@@ -11907,7 +11918,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>97</v>
       </c>
@@ -11941,7 +11952,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>97</v>
       </c>
@@ -11975,7 +11986,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>97</v>
       </c>
@@ -12009,7 +12020,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>97</v>
       </c>
@@ -12043,7 +12054,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>97</v>
       </c>
@@ -12077,7 +12088,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>168</v>
       </c>
@@ -12111,7 +12122,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>168</v>
       </c>
@@ -12145,7 +12156,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>98</v>
       </c>
@@ -12179,7 +12190,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>98</v>
       </c>
@@ -12213,7 +12224,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>98</v>
       </c>
@@ -12247,7 +12258,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>98</v>
       </c>
@@ -12281,7 +12292,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>98</v>
       </c>
@@ -12315,7 +12326,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>98</v>
       </c>
@@ -12349,7 +12360,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -12383,7 +12394,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -12417,7 +12428,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -12451,7 +12462,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -12485,7 +12496,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>100</v>
       </c>
@@ -12519,7 +12530,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>100</v>
       </c>
@@ -12553,7 +12564,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>100</v>
       </c>
@@ -12587,7 +12598,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>100</v>
       </c>
@@ -12621,7 +12632,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>100</v>
       </c>
@@ -12655,7 +12666,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>101</v>
       </c>
@@ -12689,7 +12700,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>101</v>
       </c>
@@ -12723,7 +12734,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>102</v>
       </c>
@@ -12757,7 +12768,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>102</v>
       </c>
@@ -12791,7 +12802,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>102</v>
       </c>
@@ -12825,7 +12836,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>102</v>
       </c>
@@ -12859,7 +12870,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>102</v>
       </c>
@@ -12893,7 +12904,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>102</v>
       </c>
@@ -12927,7 +12938,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>203</v>
       </c>
@@ -12961,7 +12972,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>203</v>
       </c>
@@ -12995,7 +13006,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>204</v>
       </c>
@@ -13029,7 +13040,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>205</v>
       </c>
@@ -13063,7 +13074,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>205</v>
       </c>
@@ -13097,7 +13108,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>103</v>
       </c>
@@ -13131,7 +13142,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>103</v>
       </c>
@@ -13165,7 +13176,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>103</v>
       </c>
@@ -13199,7 +13210,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>103</v>
       </c>
@@ -13233,7 +13244,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>103</v>
       </c>
@@ -13267,7 +13278,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>104</v>
       </c>
@@ -13301,7 +13312,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>104</v>
       </c>
@@ -13335,7 +13346,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>104</v>
       </c>
@@ -13369,7 +13380,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>104</v>
       </c>
@@ -13403,7 +13414,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>104</v>
       </c>
@@ -13437,7 +13448,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>104</v>
       </c>
@@ -13471,7 +13482,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>105</v>
       </c>
@@ -13505,7 +13516,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>105</v>
       </c>
@@ -13539,7 +13550,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>105</v>
       </c>
@@ -13573,7 +13584,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>106</v>
       </c>
@@ -13607,7 +13618,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>106</v>
       </c>
@@ -13641,7 +13652,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>106</v>
       </c>
@@ -13675,7 +13686,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>106</v>
       </c>
@@ -13709,7 +13720,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>106</v>
       </c>
@@ -13743,7 +13754,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>106</v>
       </c>
@@ -13777,7 +13788,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>107</v>
       </c>
@@ -13811,7 +13822,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>107</v>
       </c>
@@ -13845,7 +13856,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>107</v>
       </c>
@@ -13879,7 +13890,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>107</v>
       </c>
@@ -13913,7 +13924,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>107</v>
       </c>
@@ -13947,7 +13958,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>107</v>
       </c>
@@ -13981,7 +13992,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>107</v>
       </c>
@@ -14015,7 +14026,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>108</v>
       </c>
@@ -14049,7 +14060,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>108</v>
       </c>
@@ -14083,7 +14094,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>108</v>
       </c>
@@ -14117,7 +14128,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>108</v>
       </c>
@@ -14151,7 +14162,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>108</v>
       </c>
@@ -14185,7 +14196,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>206</v>
       </c>
@@ -14219,7 +14230,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>206</v>
       </c>
@@ -14253,7 +14264,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>207</v>
       </c>
@@ -14287,7 +14298,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>109</v>
       </c>
@@ -14321,7 +14332,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>109</v>
       </c>
@@ -14355,7 +14366,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>109</v>
       </c>
@@ -14389,7 +14400,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>109</v>
       </c>
@@ -14423,7 +14434,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>109</v>
       </c>
@@ -14457,7 +14468,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -14491,7 +14502,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>110</v>
       </c>
@@ -14525,7 +14536,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>110</v>
       </c>
@@ -14559,7 +14570,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>110</v>
       </c>
@@ -14593,7 +14604,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -14627,7 +14638,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>110</v>
       </c>
@@ -14661,7 +14672,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>169</v>
       </c>
@@ -14695,7 +14706,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>111</v>
       </c>
@@ -14729,7 +14740,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>111</v>
       </c>
@@ -14763,7 +14774,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>111</v>
       </c>
@@ -14797,7 +14808,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>111</v>
       </c>
@@ -14831,7 +14842,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>111</v>
       </c>
@@ -14865,7 +14876,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>170</v>
       </c>
@@ -14899,7 +14910,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>170</v>
       </c>
@@ -14933,7 +14944,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>112</v>
       </c>
@@ -14967,7 +14978,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>112</v>
       </c>
@@ -15001,7 +15012,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>112</v>
       </c>
@@ -15035,7 +15046,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>112</v>
       </c>
@@ -15069,7 +15080,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>113</v>
       </c>
@@ -15103,7 +15114,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>113</v>
       </c>
@@ -15137,7 +15148,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>113</v>
       </c>
@@ -15171,7 +15182,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>113</v>
       </c>
@@ -15205,7 +15216,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>113</v>
       </c>
@@ -15239,7 +15250,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>171</v>
       </c>
@@ -15273,7 +15284,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>114</v>
       </c>
@@ -15307,7 +15318,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>114</v>
       </c>
@@ -15341,7 +15352,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>114</v>
       </c>
@@ -15375,7 +15386,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>208</v>
       </c>
@@ -15409,7 +15420,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>208</v>
       </c>
@@ -15443,7 +15454,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>115</v>
       </c>
@@ -15477,7 +15488,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>115</v>
       </c>
@@ -15511,7 +15522,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>115</v>
       </c>
@@ -15545,7 +15556,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>115</v>
       </c>
@@ -15579,7 +15590,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>115</v>
       </c>
@@ -15613,7 +15624,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>115</v>
       </c>
@@ -15647,7 +15658,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>116</v>
       </c>
@@ -15681,7 +15692,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>116</v>
       </c>
@@ -15715,7 +15726,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>116</v>
       </c>
@@ -15749,7 +15760,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>117</v>
       </c>
@@ -15783,7 +15794,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>117</v>
       </c>
@@ -15817,7 +15828,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>117</v>
       </c>
@@ -15851,7 +15862,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>117</v>
       </c>
@@ -15885,7 +15896,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>117</v>
       </c>
@@ -15919,7 +15930,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>117</v>
       </c>
@@ -15953,7 +15964,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>118</v>
       </c>
@@ -15987,7 +15998,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>118</v>
       </c>
@@ -16021,7 +16032,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>118</v>
       </c>
@@ -16055,7 +16066,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>118</v>
       </c>
@@ -16089,7 +16100,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>118</v>
       </c>
@@ -16123,7 +16134,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>118</v>
       </c>
@@ -16157,7 +16168,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>172</v>
       </c>
@@ -16191,7 +16202,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>172</v>
       </c>
@@ -16225,7 +16236,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>119</v>
       </c>
@@ -16293,7 +16304,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>119</v>
       </c>
@@ -16327,7 +16338,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>119</v>
       </c>
@@ -16361,7 +16372,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>119</v>
       </c>
@@ -16395,7 +16406,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>120</v>
       </c>
@@ -16429,7 +16440,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>120</v>
       </c>
@@ -16463,7 +16474,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>120</v>
       </c>
@@ -16497,7 +16508,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>120</v>
       </c>
@@ -16531,7 +16542,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>121</v>
       </c>
@@ -16565,7 +16576,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>121</v>
       </c>
@@ -16599,7 +16610,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>121</v>
       </c>
@@ -16633,7 +16644,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>121</v>
       </c>
@@ -16667,7 +16678,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>186</v>
       </c>
@@ -16701,7 +16712,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>186</v>
       </c>
@@ -16735,7 +16746,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>122</v>
       </c>
@@ -16769,7 +16780,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>122</v>
       </c>
@@ -16803,7 +16814,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>122</v>
       </c>
@@ -16837,7 +16848,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>123</v>
       </c>
@@ -16871,7 +16882,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>123</v>
       </c>
@@ -16905,7 +16916,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>123</v>
       </c>
@@ -16939,7 +16950,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>123</v>
       </c>
@@ -16973,7 +16984,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>124</v>
       </c>
@@ -17007,7 +17018,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>124</v>
       </c>
@@ -17041,7 +17052,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>124</v>
       </c>
@@ -17075,7 +17086,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>124</v>
       </c>
@@ -17109,7 +17120,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>125</v>
       </c>
@@ -17143,7 +17154,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>125</v>
       </c>
@@ -17177,7 +17188,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>125</v>
       </c>
@@ -17211,7 +17222,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>125</v>
       </c>
@@ -17245,7 +17256,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>126</v>
       </c>
@@ -17279,7 +17290,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>126</v>
       </c>
@@ -17313,7 +17324,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>126</v>
       </c>
@@ -17347,7 +17358,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>126</v>
       </c>
@@ -17381,7 +17392,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>127</v>
       </c>
@@ -17415,7 +17426,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>127</v>
       </c>
@@ -17449,7 +17460,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>127</v>
       </c>
@@ -17483,7 +17494,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>127</v>
       </c>
@@ -17517,7 +17528,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>173</v>
       </c>
@@ -17551,7 +17562,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>173</v>
       </c>
@@ -17585,7 +17596,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>173</v>
       </c>
@@ -17619,7 +17630,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>209</v>
       </c>
@@ -17653,7 +17664,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>209</v>
       </c>
@@ -17687,7 +17698,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>128</v>
       </c>
@@ -17721,7 +17732,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>128</v>
       </c>
@@ -17755,7 +17766,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>128</v>
       </c>
@@ -17789,7 +17800,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>129</v>
       </c>
@@ -17823,7 +17834,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>129</v>
       </c>
@@ -17857,7 +17868,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>129</v>
       </c>
@@ -17891,7 +17902,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>130</v>
       </c>
@@ -17925,7 +17936,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>130</v>
       </c>
@@ -17959,7 +17970,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>130</v>
       </c>
@@ -17993,7 +18004,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>130</v>
       </c>
@@ -18027,7 +18038,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>131</v>
       </c>
@@ -18061,7 +18072,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>174</v>
       </c>
@@ -18095,7 +18106,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>132</v>
       </c>
@@ -18129,7 +18140,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>132</v>
       </c>
@@ -18163,7 +18174,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>132</v>
       </c>
@@ -18197,7 +18208,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>133</v>
       </c>
@@ -18231,7 +18242,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>133</v>
       </c>
@@ -18265,7 +18276,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>133</v>
       </c>
@@ -18299,7 +18310,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>133</v>
       </c>
@@ -18333,7 +18344,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>133</v>
       </c>
@@ -18367,7 +18378,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>133</v>
       </c>
@@ -18401,7 +18412,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>134</v>
       </c>
@@ -18435,7 +18446,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>134</v>
       </c>
@@ -18469,7 +18480,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>134</v>
       </c>
@@ -18503,7 +18514,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>134</v>
       </c>
@@ -18537,7 +18548,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>134</v>
       </c>
@@ -18571,7 +18582,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>135</v>
       </c>
@@ -18605,7 +18616,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>135</v>
       </c>
@@ -18639,7 +18650,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>135</v>
       </c>
@@ -18673,7 +18684,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>135</v>
       </c>
@@ -18707,7 +18718,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>136</v>
       </c>
@@ -18741,7 +18752,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>136</v>
       </c>
@@ -18775,7 +18786,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>136</v>
       </c>
@@ -18809,7 +18820,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>136</v>
       </c>
@@ -18843,7 +18854,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>137</v>
       </c>
@@ -18877,7 +18888,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>137</v>
       </c>
@@ -18911,7 +18922,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>137</v>
       </c>
@@ -18945,7 +18956,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>137</v>
       </c>
@@ -18979,7 +18990,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>138</v>
       </c>
@@ -19013,7 +19024,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>138</v>
       </c>
@@ -19047,7 +19058,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>138</v>
       </c>
@@ -19081,7 +19092,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>210</v>
       </c>
@@ -19115,7 +19126,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>210</v>
       </c>
@@ -19149,7 +19160,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>175</v>
       </c>
@@ -19183,7 +19194,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>175</v>
       </c>
@@ -19217,7 +19228,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>139</v>
       </c>
@@ -19251,7 +19262,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>139</v>
       </c>
@@ -19285,7 +19296,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>140</v>
       </c>
@@ -19319,7 +19330,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>140</v>
       </c>
@@ -19353,7 +19364,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>140</v>
       </c>
@@ -19387,7 +19398,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>140</v>
       </c>
@@ -19421,7 +19432,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>140</v>
       </c>
@@ -19455,7 +19466,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>140</v>
       </c>
@@ -19489,7 +19500,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>141</v>
       </c>
@@ -19557,7 +19568,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>141</v>
       </c>
@@ -19591,7 +19602,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>141</v>
       </c>
@@ -19625,7 +19636,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>142</v>
       </c>
@@ -19659,7 +19670,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>142</v>
       </c>
@@ -19693,7 +19704,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>142</v>
       </c>
@@ -19727,7 +19738,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>142</v>
       </c>
@@ -19761,7 +19772,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>176</v>
       </c>
@@ -19795,7 +19806,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>176</v>
       </c>
@@ -19829,7 +19840,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>176</v>
       </c>
@@ -19863,7 +19874,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>143</v>
       </c>
@@ -19897,7 +19908,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>143</v>
       </c>
@@ -19931,7 +19942,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>143</v>
       </c>
@@ -19965,7 +19976,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>143</v>
       </c>
@@ -19999,7 +20010,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>144</v>
       </c>
@@ -20033,7 +20044,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>144</v>
       </c>
@@ -20067,7 +20078,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>144</v>
       </c>
@@ -20101,7 +20112,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>144</v>
       </c>
@@ -20135,7 +20146,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>145</v>
       </c>
@@ -20169,7 +20180,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>145</v>
       </c>
@@ -20203,7 +20214,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>145</v>
       </c>
@@ -20237,7 +20248,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>145</v>
       </c>
@@ -20271,7 +20282,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>145</v>
       </c>
@@ -20305,7 +20316,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>145</v>
       </c>
@@ -20339,7 +20350,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>146</v>
       </c>
@@ -20373,7 +20384,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>146</v>
       </c>
@@ -20407,7 +20418,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>146</v>
       </c>
@@ -20441,7 +20452,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>146</v>
       </c>
@@ -20475,7 +20486,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>146</v>
       </c>
@@ -20509,7 +20520,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>147</v>
       </c>
@@ -20543,7 +20554,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>147</v>
       </c>
@@ -20577,7 +20588,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>147</v>
       </c>
@@ -20611,7 +20622,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>147</v>
       </c>
@@ -20645,7 +20656,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>147</v>
       </c>
@@ -20679,7 +20690,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>148</v>
       </c>
@@ -20713,7 +20724,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>148</v>
       </c>
@@ -20747,7 +20758,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>148</v>
       </c>
@@ -20781,7 +20792,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>148</v>
       </c>
@@ -20815,7 +20826,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>211</v>
       </c>
@@ -20849,7 +20860,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>149</v>
       </c>
@@ -20883,7 +20894,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>149</v>
       </c>
@@ -20917,7 +20928,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>149</v>
       </c>
@@ -20951,7 +20962,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>149</v>
       </c>
@@ -20985,7 +20996,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>149</v>
       </c>
@@ -21019,7 +21030,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>212</v>
       </c>
@@ -21053,7 +21064,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>212</v>
       </c>
@@ -21087,7 +21098,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>150</v>
       </c>
@@ -21121,7 +21132,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>150</v>
       </c>
@@ -21155,7 +21166,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>150</v>
       </c>
@@ -21189,7 +21200,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>150</v>
       </c>
@@ -21223,7 +21234,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>151</v>
       </c>
@@ -21257,7 +21268,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>151</v>
       </c>
@@ -21291,7 +21302,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>151</v>
       </c>
@@ -21325,7 +21336,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>151</v>
       </c>
@@ -21359,7 +21370,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>152</v>
       </c>
@@ -21393,7 +21404,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>152</v>
       </c>
@@ -21427,7 +21438,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>152</v>
       </c>
@@ -21461,7 +21472,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>152</v>
       </c>
@@ -21495,7 +21506,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>152</v>
       </c>
@@ -21529,7 +21540,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>213</v>
       </c>
@@ -21563,7 +21574,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>213</v>
       </c>
@@ -21597,7 +21608,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>177</v>
       </c>
@@ -21631,7 +21642,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>177</v>
       </c>
@@ -21665,7 +21676,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>177</v>
       </c>
@@ -21699,7 +21710,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>178</v>
       </c>
@@ -21733,7 +21744,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>178</v>
       </c>
@@ -21767,7 +21778,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>178</v>
       </c>
@@ -21801,7 +21812,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>214</v>
       </c>
@@ -21835,7 +21846,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>214</v>
       </c>
@@ -21869,7 +21880,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>153</v>
       </c>
@@ -21903,7 +21914,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>153</v>
       </c>
@@ -21937,7 +21948,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>154</v>
       </c>
@@ -21971,7 +21982,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>154</v>
       </c>
@@ -22005,7 +22016,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>154</v>
       </c>
@@ -22039,7 +22050,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>154</v>
       </c>
@@ -22073,7 +22084,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>154</v>
       </c>
@@ -22107,7 +22118,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>154</v>
       </c>
@@ -22141,7 +22152,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>155</v>
       </c>
@@ -22175,7 +22186,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>155</v>
       </c>
@@ -22209,7 +22220,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>155</v>
       </c>
@@ -22243,7 +22254,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>155</v>
       </c>
@@ -22277,7 +22288,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>155</v>
       </c>
@@ -22311,7 +22322,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>156</v>
       </c>
@@ -22345,7 +22356,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>156</v>
       </c>
@@ -22379,7 +22390,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>156</v>
       </c>
@@ -22413,7 +22424,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>156</v>
       </c>
@@ -22447,7 +22458,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>156</v>
       </c>
@@ -22481,7 +22492,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>157</v>
       </c>
@@ -22515,7 +22526,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>157</v>
       </c>
@@ -22549,7 +22560,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>157</v>
       </c>
@@ -22583,7 +22594,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>157</v>
       </c>
@@ -22617,7 +22628,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>179</v>
       </c>
@@ -22651,7 +22662,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>179</v>
       </c>
@@ -22685,7 +22696,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>215</v>
       </c>
@@ -22719,7 +22730,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>158</v>
       </c>
@@ -22753,7 +22764,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>159</v>
       </c>
@@ -22787,7 +22798,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>159</v>
       </c>
@@ -22821,7 +22832,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>159</v>
       </c>
@@ -22855,7 +22866,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>159</v>
       </c>
@@ -22889,7 +22900,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>159</v>
       </c>
@@ -22923,7 +22934,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>180</v>
       </c>
@@ -22957,7 +22968,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>180</v>
       </c>
@@ -22991,7 +23002,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>181</v>
       </c>
@@ -23025,7 +23036,7 @@
         <v>LIVE</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>181</v>
       </c>
@@ -23059,7 +23070,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>160</v>
       </c>
@@ -23093,7 +23104,7 @@
         <v>PRESENCIAL</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>160</v>
       </c>
@@ -23127,7 +23138,7 @@
         <v>SEMIPRESENCIAL</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>160</v>
       </c>
